--- a/scraper-completo/DADOS EXTRAIDOS/extracao_cartascontempladas.xlsx
+++ b/scraper-completo/DADOS EXTRAIDOS/extracao_cartascontempladas.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J124"/>
+  <dimension ref="A1:J120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
     <col width="19" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="49" customWidth="1" min="8" max="8"/>
+    <col width="48" customWidth="1" min="8" max="8"/>
     <col width="15" customWidth="1" min="9" max="9"/>
     <col width="15" customWidth="1" min="10" max="10"/>
   </cols>
@@ -516,17 +516,17 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>18600,00</t>
+          <t>26700,00</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>8930,00</t>
+          <t>12335,00</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>63 x R$ 340,00</t>
+          <t>30 x R$ 839,00</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr"/>
@@ -560,17 +560,17 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>26480,00</t>
+          <t>28700,00</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>11824,00</t>
+          <t>10435,00</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
@@ -585,7 +585,7 @@
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
-          <t>31 x R$ 839,00</t>
+          <t>30 x R$ 1037,00</t>
         </is>
       </c>
       <c r="I3" s="3" t="inlineStr"/>
@@ -604,17 +604,17 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>28520,00</t>
+          <t>29060,00</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>9926,00</t>
+          <t>11353,00</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>31 x R$ 1037,00</t>
+          <t>30 x R$ 896,00</t>
         </is>
       </c>
       <c r="I4" s="3" t="inlineStr"/>
@@ -648,17 +648,17 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>28800,00</t>
+          <t>30200,00</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>11340,00</t>
+          <t>10310,00</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
@@ -673,7 +673,7 @@
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>31 x R$ 896,00</t>
+          <t>32 x R$ 1055,00</t>
         </is>
       </c>
       <c r="I5" s="3" t="inlineStr"/>
@@ -692,22 +692,22 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>30030,00</t>
+          <t>30560,00</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>9501,50</t>
+          <t>11428,00</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G6" s="3" t="inlineStr">
@@ -717,7 +717,7 @@
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t>33 x R$ 1055,00</t>
+          <t>39 x R$ 777,00</t>
         </is>
       </c>
       <c r="I6" s="3" t="inlineStr"/>
@@ -736,17 +736,17 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>31800,00</t>
+          <t>32750,00</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>15590,00</t>
+          <t>10837,50</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="H7" s="3" t="inlineStr">
         <is>
-          <t>55 x R$ 596,00</t>
+          <t>36 x R$ 1047,00</t>
         </is>
       </c>
       <c r="I7" s="3" t="inlineStr"/>
@@ -780,17 +780,17 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>32500,00</t>
+          <t>34230,00</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>10625,00</t>
+          <t>10611,50</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
@@ -805,7 +805,7 @@
       </c>
       <c r="H8" s="3" t="inlineStr">
         <is>
-          <t>37 x R$ 1047,00</t>
+          <t>32 x R$ 1282,00</t>
         </is>
       </c>
       <c r="I8" s="3" t="inlineStr"/>
@@ -824,17 +824,17 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>35000,00</t>
+          <t>34997,00</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>15250,00</t>
+          <t>10849,85</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="H9" s="3" t="inlineStr">
         <is>
-          <t>45 x R$ 736,00</t>
+          <t>39 x R$ 1133,00</t>
         </is>
       </c>
       <c r="I9" s="3" t="inlineStr"/>
@@ -868,22 +868,22 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>35000,00</t>
+          <t>35160,00</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>9750,00</t>
+          <t>13758,00</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="H10" s="3" t="inlineStr">
         <is>
-          <t>40 x R$ 1131,00</t>
+          <t>31 x R$ 1279,00</t>
         </is>
       </c>
       <c r="I10" s="3" t="inlineStr"/>
@@ -912,17 +912,17 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>35150,00</t>
+          <t>35260,00</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>15257,50</t>
+          <t>15763,00</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="H11" s="3" t="inlineStr">
         <is>
-          <t>31 x R$ 1141,00</t>
+          <t>44 x R$ 736,00</t>
         </is>
       </c>
       <c r="I11" s="3" t="inlineStr"/>
@@ -956,17 +956,17 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>35680,00</t>
+          <t>35460,00</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>15284,00</t>
+          <t>16273,00</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="H12" s="3" t="inlineStr">
         <is>
-          <t>31 x R$ 1130,00</t>
+          <t>30 x R$ 1141,00</t>
         </is>
       </c>
       <c r="I12" s="3" t="inlineStr"/>
@@ -1000,17 +1000,17 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>36490,00</t>
+          <t>35500,00</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>9824,50</t>
+          <t>16775,00</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F13" s="3" t="inlineStr">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="H13" s="3" t="inlineStr">
         <is>
-          <t>29 x R$ 1437,00</t>
+          <t>44 x R$ 708,00</t>
         </is>
       </c>
       <c r="I13" s="3" t="inlineStr"/>
@@ -1044,17 +1044,17 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>37000,00</t>
+          <t>36000,00</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>13850,00</t>
+          <t>16500,00</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="H14" s="3" t="inlineStr">
         <is>
-          <t>32 x R$ 1104,00</t>
+          <t>30 x R$ 1130,00</t>
         </is>
       </c>
       <c r="I14" s="3" t="inlineStr"/>
@@ -1088,17 +1088,17 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>37000,00</t>
+          <t>36760,00</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>13850,00</t>
+          <t>10338,00</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="H15" s="3" t="inlineStr">
         <is>
-          <t>32 x R$ 1105,00</t>
+          <t>28 x R$ 1437,00</t>
         </is>
       </c>
       <c r="I15" s="3" t="inlineStr"/>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>37200,00</t>
+          <t>37220,00</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>18360,00</t>
+          <t>13861,00</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="H16" s="3" t="inlineStr">
         <is>
-          <t>32 x R$ 995,00</t>
+          <t>31 x R$ 1104,00</t>
         </is>
       </c>
       <c r="I16" s="3" t="inlineStr"/>
@@ -1176,17 +1176,17 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>37200,00</t>
+          <t>37220,00</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>18360,00</t>
+          <t>13861,00</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="H17" s="3" t="inlineStr">
         <is>
-          <t>39 x R$ 779,00</t>
+          <t>31 x R$ 1105,00</t>
         </is>
       </c>
       <c r="I17" s="3" t="inlineStr"/>
@@ -1220,17 +1220,17 @@
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>37200,00</t>
+          <t>37500,00</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>18760,00</t>
+          <t>18875,00</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="H18" s="3" t="inlineStr">
         <is>
-          <t>39 x R$ 804,00</t>
+          <t>31 x R$ 995,00</t>
         </is>
       </c>
       <c r="I18" s="3" t="inlineStr"/>
@@ -1264,17 +1264,17 @@
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>37200,00</t>
+          <t>37500,00</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>19760,00</t>
+          <t>13375,00</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F19" s="3" t="inlineStr">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="H19" s="3" t="inlineStr">
         <is>
-          <t>41 x R$ 745,00</t>
+          <t>29 x R$ 1509,00</t>
         </is>
       </c>
       <c r="I19" s="3" t="inlineStr"/>
@@ -1308,17 +1308,17 @@
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>37500,00</t>
+          <t>37520,00</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>11875,00</t>
+          <t>18776,00</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>38</t>
         </is>
       </c>
       <c r="F20" s="3" t="inlineStr">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="H20" s="3" t="inlineStr">
         <is>
-          <t>30 x R$ 1509,00</t>
+          <t>38 x R$ 779,00</t>
         </is>
       </c>
       <c r="I20" s="3" t="inlineStr"/>
@@ -1352,17 +1352,17 @@
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>38370,00</t>
+          <t>37520,00</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>17918,50</t>
+          <t>18776,00</t>
         </is>
       </c>
       <c r="E21" s="3" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>38</t>
         </is>
       </c>
       <c r="F21" s="3" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="H21" s="3" t="inlineStr">
         <is>
-          <t>31 x R$ 1054,00</t>
+          <t>38 x R$ 804,00</t>
         </is>
       </c>
       <c r="I21" s="3" t="inlineStr"/>
@@ -1396,17 +1396,17 @@
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>39000,00</t>
+          <t>37520,00</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t>15250,00</t>
+          <t>19676,00</t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F22" s="3" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="H22" s="3" t="inlineStr">
         <is>
-          <t>32 x R$ 1178,00</t>
+          <t>40 x R$ 745,00</t>
         </is>
       </c>
       <c r="I22" s="3" t="inlineStr"/>
@@ -1440,17 +1440,17 @@
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>39000,00</t>
+          <t>38700,00</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>16950,00</t>
+          <t>18435,00</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F23" s="3" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="H23" s="3" t="inlineStr">
         <is>
-          <t>53 x R$ 823,00</t>
+          <t>30 x R$ 1054,00</t>
         </is>
       </c>
       <c r="I23" s="3" t="inlineStr"/>
@@ -1484,22 +1484,22 @@
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>39000,00</t>
+          <t>39090,00</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>18350,00</t>
+          <t>14954,50</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F24" s="3" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G24" s="3" t="inlineStr">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="H24" s="3" t="inlineStr">
         <is>
-          <t>32 x R$ 1095,00</t>
+          <t>30 x R$ 1276,00</t>
         </is>
       </c>
       <c r="I24" s="3" t="inlineStr"/>
@@ -1528,12 +1528,12 @@
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>39090,00</t>
+          <t>39270,00</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
         <is>
-          <t>16954,50</t>
+          <t>18963,50</t>
         </is>
       </c>
       <c r="E25" s="3" t="inlineStr">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="F25" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú</t>
         </is>
       </c>
       <c r="G25" s="3" t="inlineStr">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="H25" s="3" t="inlineStr">
         <is>
-          <t>31 x R$ 1136,00</t>
+          <t>31 x R$ 1095,00</t>
         </is>
       </c>
       <c r="I25" s="3" t="inlineStr"/>
@@ -1572,12 +1572,12 @@
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>39200,00</t>
+          <t>39340,00</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>13960,00</t>
+          <t>15967,00</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="H26" s="3" t="inlineStr">
         <is>
-          <t>31 x R$ 1381,00</t>
+          <t>31 x R$ 1178,00</t>
         </is>
       </c>
       <c r="I26" s="3" t="inlineStr"/>
@@ -1616,12 +1616,12 @@
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>40000,00</t>
+          <t>39530,00</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t>13000,00</t>
+          <t>13476,50</t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="F27" s="3" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G27" s="3" t="inlineStr">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="H27" s="3" t="inlineStr">
         <is>
-          <t>31 x R$ 1583,00</t>
+          <t>31 x R$ 1262,00</t>
         </is>
       </c>
       <c r="I27" s="3" t="inlineStr"/>
@@ -1660,17 +1660,17 @@
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>40360,00</t>
+          <t>39540,00</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>12018,00</t>
+          <t>14977,00</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F28" s="3" t="inlineStr">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="H28" s="3" t="inlineStr">
         <is>
-          <t>32 x R$ 1341,00</t>
+          <t>30 x R$ 1381,00</t>
         </is>
       </c>
       <c r="I28" s="3" t="inlineStr"/>
@@ -1709,12 +1709,12 @@
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>14035,00</t>
+          <t>19035,00</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F29" s="3" t="inlineStr">
@@ -1729,7 +1729,7 @@
       </c>
       <c r="H29" s="3" t="inlineStr">
         <is>
-          <t>32 x R$ 1315,00</t>
+          <t>49 x R$ 846,00</t>
         </is>
       </c>
       <c r="I29" s="3" t="inlineStr"/>
@@ -1748,17 +1748,17 @@
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>41500,00</t>
+          <t>41870,00</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>11975,00</t>
+          <t>11993,50</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F30" s="3" t="inlineStr">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="H30" s="3" t="inlineStr">
         <is>
-          <t>19 x R$ 2123,00</t>
+          <t>18 x R$ 2123,00</t>
         </is>
       </c>
       <c r="I30" s="3" t="inlineStr"/>
@@ -1792,17 +1792,17 @@
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>42650,00</t>
+          <t>44170,00</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
         <is>
-          <t>14132,50</t>
+          <t>12708,50</t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F31" s="3" t="inlineStr">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="H31" s="3" t="inlineStr">
         <is>
-          <t>30 x R$ 1441,00</t>
+          <t>27 x R$ 1685,00</t>
         </is>
       </c>
       <c r="I31" s="3" t="inlineStr"/>
@@ -1836,22 +1836,22 @@
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>42940,00</t>
+          <t>44350,00</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>19047,00</t>
+          <t>16917,50</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>38</t>
         </is>
       </c>
       <c r="F32" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú</t>
         </is>
       </c>
       <c r="G32" s="3" t="inlineStr">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="H32" s="3" t="inlineStr">
         <is>
-          <t>41 x R$ 943,00</t>
+          <t>38 x R$ 1133,00</t>
         </is>
       </c>
       <c r="I32" s="3" t="inlineStr"/>
@@ -1880,22 +1880,22 @@
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>43700,00</t>
+          <t>44380,00</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
         <is>
-          <t>17185,00</t>
+          <t>23719,00</t>
         </is>
       </c>
       <c r="E33" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F33" s="3" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G33" s="3" t="inlineStr">
@@ -1905,7 +1905,7 @@
       </c>
       <c r="H33" s="3" t="inlineStr">
         <is>
-          <t>39 x R$ 1170,50</t>
+          <t>34 x R$ 954,00</t>
         </is>
       </c>
       <c r="I33" s="3" t="inlineStr"/>
@@ -1924,22 +1924,22 @@
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>43970,00</t>
+          <t>44480,00</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
         <is>
-          <t>16898,50</t>
+          <t>15224,00</t>
         </is>
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F34" s="3" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G34" s="3" t="inlineStr">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="H34" s="3" t="inlineStr">
         <is>
-          <t>39 x R$ 1133,00</t>
+          <t>31 x R$ 1419,00</t>
         </is>
       </c>
       <c r="I34" s="3" t="inlineStr"/>
@@ -1968,22 +1968,22 @@
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>44060,00</t>
+          <t>44500,00</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
         <is>
-          <t>23203,00</t>
+          <t>13725,00</t>
         </is>
       </c>
       <c r="E35" s="3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F35" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú</t>
         </is>
       </c>
       <c r="G35" s="3" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="H35" s="3" t="inlineStr">
         <is>
-          <t>35 x R$ 954,00</t>
+          <t>28 x R$ 1855,00</t>
         </is>
       </c>
       <c r="I35" s="3" t="inlineStr"/>
@@ -2012,22 +2012,22 @@
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>44300,00</t>
+          <t>51840,00</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
         <is>
-          <t>22215,00</t>
+          <t>21592,00</t>
         </is>
       </c>
       <c r="E36" s="3" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F36" s="3" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G36" s="3" t="inlineStr">
@@ -2037,7 +2037,7 @@
       </c>
       <c r="H36" s="3" t="inlineStr">
         <is>
-          <t>44 x R$ 912,00</t>
+          <t>48 x R$ 1035,00</t>
         </is>
       </c>
       <c r="I36" s="3" t="inlineStr"/>
@@ -2056,17 +2056,17 @@
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>44410,00</t>
+          <t>52910,00</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
         <is>
-          <t>11720,50</t>
+          <t>14845,50</t>
         </is>
       </c>
       <c r="E37" s="3" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F37" s="3" t="inlineStr">
@@ -2081,7 +2081,7 @@
       </c>
       <c r="H37" s="3" t="inlineStr">
         <is>
-          <t>25 x R$ 1969,00</t>
+          <t>28 x R$ 1979,00</t>
         </is>
       </c>
       <c r="I37" s="3" t="inlineStr"/>
@@ -2100,17 +2100,17 @@
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>44490,00</t>
+          <t>55300,00</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
         <is>
-          <t>18224,50</t>
+          <t>24765,00</t>
         </is>
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>37</t>
         </is>
       </c>
       <c r="F38" s="3" t="inlineStr">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="H38" s="3" t="inlineStr">
         <is>
-          <t>39 x R$ 1085,00</t>
+          <t>37 x R$ 1268,00</t>
         </is>
       </c>
       <c r="I38" s="3" t="inlineStr"/>
@@ -2144,22 +2144,22 @@
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>44500,00</t>
+          <t>60250,00</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
         <is>
-          <t>12225,00</t>
+          <t>25512,50</t>
         </is>
       </c>
       <c r="E39" s="3" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F39" s="3" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G39" s="3" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H39" s="3" t="inlineStr">
         <is>
-          <t>29 x R$ 1855,00</t>
+          <t>40 x R$ 1340,00</t>
         </is>
       </c>
       <c r="I39" s="3" t="inlineStr"/>
@@ -2188,17 +2188,17 @@
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>54660,00</t>
+          <t>60500,00</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
         <is>
-          <t>22233,00</t>
+          <t>23525,00</t>
         </is>
       </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F40" s="3" t="inlineStr">
@@ -2213,7 +2213,7 @@
       </c>
       <c r="H40" s="3" t="inlineStr">
         <is>
-          <t>31 x R$ 1591,00</t>
+          <t>33 x R$ 1721,00</t>
         </is>
       </c>
       <c r="I40" s="3" t="inlineStr"/>
@@ -2232,17 +2232,17 @@
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>55090,00</t>
+          <t>60700,00</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
         <is>
-          <t>23754,50</t>
+          <t>25035,00</t>
         </is>
       </c>
       <c r="E41" s="3" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F41" s="3" t="inlineStr">
@@ -2257,7 +2257,7 @@
       </c>
       <c r="H41" s="3" t="inlineStr">
         <is>
-          <t>38 x R$ 1268,00</t>
+          <t>35 x R$ 1506,00</t>
         </is>
       </c>
       <c r="I41" s="3" t="inlineStr"/>
@@ -2276,17 +2276,17 @@
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>59320,00</t>
+          <t>65770,00</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
         <is>
-          <t>25966,00</t>
+          <t>22788,50</t>
         </is>
       </c>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F42" s="3" t="inlineStr">
@@ -2301,7 +2301,7 @@
       </c>
       <c r="H42" s="3" t="inlineStr">
         <is>
-          <t>36 x R$ 1406,00</t>
+          <t>28 x R$ 2242,00</t>
         </is>
       </c>
       <c r="I42" s="3" t="inlineStr"/>
@@ -2320,17 +2320,17 @@
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>59940,00</t>
+          <t>66680,00</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
         <is>
-          <t>22897,00</t>
+          <t>13834,00</t>
         </is>
       </c>
       <c r="E43" s="3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F43" s="3" t="inlineStr">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="H43" s="3" t="inlineStr">
         <is>
-          <t>35 x R$ 1589,00</t>
+          <t>25 x R$ 3000,00</t>
         </is>
       </c>
       <c r="I43" s="3" t="inlineStr"/>
@@ -2364,22 +2364,22 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>60030,00</t>
+          <t>67300,00</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t>22501,50</t>
+          <t>17865,00</t>
         </is>
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F44" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú</t>
         </is>
       </c>
       <c r="G44" s="3" t="inlineStr">
@@ -2389,7 +2389,7 @@
       </c>
       <c r="H44" s="3" t="inlineStr">
         <is>
-          <t>34 x R$ 1721,00</t>
+          <t>33 x R$ 2586,00</t>
         </is>
       </c>
       <c r="I44" s="3" t="inlineStr"/>
@@ -2408,22 +2408,22 @@
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>60280,00</t>
+          <t>67700,00</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
         <is>
-          <t>24514,00</t>
+          <t>31385,00</t>
         </is>
       </c>
       <c r="E45" s="3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F45" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú</t>
         </is>
       </c>
       <c r="G45" s="3" t="inlineStr">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="H45" s="3" t="inlineStr">
         <is>
-          <t>36 x R$ 1506,00</t>
+          <t>54 x R$ 1250,00</t>
         </is>
       </c>
       <c r="I45" s="3" t="inlineStr"/>
@@ -2452,22 +2452,22 @@
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>67300,00</t>
+          <t>74140,00</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
         <is>
-          <t>19365,00</t>
+          <t>38707,00</t>
         </is>
       </c>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F46" s="3" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G46" s="3" t="inlineStr">
@@ -2477,7 +2477,7 @@
       </c>
       <c r="H46" s="3" t="inlineStr">
         <is>
-          <t>34 x R$ 2500,00</t>
+          <t>31 x R$ 1752,00</t>
         </is>
       </c>
       <c r="I46" s="3" t="inlineStr"/>
@@ -2496,22 +2496,22 @@
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>70300,00</t>
+          <t>88200,00</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
         <is>
-          <t>18515,00</t>
+          <t>49410,00</t>
         </is>
       </c>
       <c r="E47" s="3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>37</t>
         </is>
       </c>
       <c r="F47" s="3" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G47" s="3" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="H47" s="3" t="inlineStr">
         <is>
-          <t>35 x R$ 2338,00</t>
+          <t>37 x R$ 1597,00</t>
         </is>
       </c>
       <c r="I47" s="3" t="inlineStr"/>
@@ -2540,17 +2540,17 @@
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>73600,00</t>
+          <t>110000,00</t>
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr">
         <is>
-          <t>37680,00</t>
+          <t>39500,00</t>
         </is>
       </c>
       <c r="E48" s="3" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F48" s="3" t="inlineStr">
@@ -2565,7 +2565,7 @@
       </c>
       <c r="H48" s="3" t="inlineStr">
         <is>
-          <t>32 x R$ 1752,00</t>
+          <t>29 x R$ 3561,00</t>
         </is>
       </c>
       <c r="I48" s="3" t="inlineStr"/>
@@ -2584,17 +2584,17 @@
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>87570,00</t>
+          <t>125000,00</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
         <is>
-          <t>48378,50</t>
+          <t>54250,00</t>
         </is>
       </c>
       <c r="E49" s="3" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>77</t>
         </is>
       </c>
       <c r="F49" s="3" t="inlineStr">
@@ -2609,7 +2609,7 @@
       </c>
       <c r="H49" s="3" t="inlineStr">
         <is>
-          <t>38 x R$ 1597,00</t>
+          <t>77 x R$ 1798,00</t>
         </is>
       </c>
       <c r="I49" s="3" t="inlineStr"/>
@@ -2628,17 +2628,17 @@
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>89500,00</t>
+          <t>125630,00</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
         <is>
-          <t>39475,00</t>
+          <t>50281,50</t>
         </is>
       </c>
       <c r="E50" s="3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F50" s="3" t="inlineStr">
@@ -2653,7 +2653,7 @@
       </c>
       <c r="H50" s="3" t="inlineStr">
         <is>
-          <t>36 x R$ 2090,00</t>
+          <t>72 x R$ 1946,00</t>
         </is>
       </c>
       <c r="I50" s="3" t="inlineStr"/>
@@ -2672,22 +2672,22 @@
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>97680,00</t>
+          <t>132500,00</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
         <is>
-          <t>33284,00</t>
+          <t>64625,00</t>
         </is>
       </c>
       <c r="E51" s="3" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>67</t>
         </is>
       </c>
       <c r="F51" s="3" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G51" s="3" t="inlineStr">
@@ -2697,8 +2697,7 @@
       </c>
       <c r="H51" s="3" t="inlineStr">
         <is>
-          <t>31 x R$ 3274,00
-1 x R$ 1341,00</t>
+          <t>67 x R$ 1803,00</t>
         </is>
       </c>
       <c r="I51" s="3" t="inlineStr"/>
@@ -2717,22 +2716,22 @@
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>109200,00</t>
+          <t>138600,00</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
         <is>
-          <t>36460,00</t>
+          <t>38930,00</t>
         </is>
       </c>
       <c r="E52" s="3" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F52" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú</t>
         </is>
       </c>
       <c r="G52" s="3" t="inlineStr">
@@ -2742,7 +2741,7 @@
       </c>
       <c r="H52" s="3" t="inlineStr">
         <is>
-          <t>30 x R$ 3561,00</t>
+          <t>36 x R$ 4350,70</t>
         </is>
       </c>
       <c r="I52" s="3" t="inlineStr"/>
@@ -2761,17 +2760,17 @@
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>119000,00</t>
+          <t>140000,00</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
         <is>
-          <t>47950,00</t>
+          <t>60500,00</t>
         </is>
       </c>
       <c r="E53" s="3" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F53" s="3" t="inlineStr">
@@ -2786,7 +2785,7 @@
       </c>
       <c r="H53" s="3" t="inlineStr">
         <is>
-          <t>55 x R$ 2510,00</t>
+          <t>41 x R$ 3678,00</t>
         </is>
       </c>
       <c r="I53" s="3" t="inlineStr"/>
@@ -2805,17 +2804,17 @@
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>126000,00</t>
+          <t>178000,00</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
         <is>
-          <t>54300,00</t>
+          <t>101900,00</t>
         </is>
       </c>
       <c r="E54" s="3" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F54" s="3" t="inlineStr">
@@ -2830,7 +2829,7 @@
       </c>
       <c r="H54" s="3" t="inlineStr">
         <is>
-          <t>55 x R$ 2655,00</t>
+          <t>17 x R$ 6764,00</t>
         </is>
       </c>
       <c r="I54" s="3" t="inlineStr"/>
@@ -2849,17 +2848,17 @@
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>132000,00</t>
+          <t>210000,00</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
         <is>
-          <t>59600,00</t>
+          <t>97500,00</t>
         </is>
       </c>
       <c r="E55" s="3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>57</t>
         </is>
       </c>
       <c r="F55" s="3" t="inlineStr">
@@ -2874,7 +2873,7 @@
       </c>
       <c r="H55" s="3" t="inlineStr">
         <is>
-          <t>54 x R$ 2455,00</t>
+          <t>57 x R$ 3630,00</t>
         </is>
       </c>
       <c r="I55" s="3" t="inlineStr"/>
@@ -2893,22 +2892,22 @@
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>140000,00</t>
+          <t>221500,00</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
         <is>
-          <t>64000,00</t>
+          <t>96075,00</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>59</t>
         </is>
       </c>
       <c r="F56" s="3" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G56" s="3" t="inlineStr">
@@ -2918,7 +2917,7 @@
       </c>
       <c r="H56" s="3" t="inlineStr">
         <is>
-          <t>42 x R$ 3678,00</t>
+          <t>59 x R$ 3536,00</t>
         </is>
       </c>
       <c r="I56" s="3" t="inlineStr"/>
@@ -2937,22 +2936,22 @@
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>168776,00</t>
+          <t>678380,00</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
         <is>
-          <t>67438,80</t>
+          <t>336919,00</t>
         </is>
       </c>
       <c r="E57" s="3" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F57" s="3" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G57" s="3" t="inlineStr">
@@ -2962,7 +2961,9 @@
       </c>
       <c r="H57" s="3" t="inlineStr">
         <is>
-          <t>48 x R$ 3509,00</t>
+          <t>64 x R$ 7995,00
+3 x R$ 5318,00
+12 x R$ 2451,00</t>
         </is>
       </c>
       <c r="I57" s="3" t="inlineStr"/>
@@ -2981,22 +2982,22 @@
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>176400,00</t>
+          <t>102950,00</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
         <is>
-          <t>96820,00</t>
+          <t>31147,50</t>
         </is>
       </c>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F58" s="3" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G58" s="3" t="inlineStr">
@@ -3006,7 +3007,8 @@
       </c>
       <c r="H58" s="3" t="inlineStr">
         <is>
-          <t>18 x R$ 6468,00</t>
+          <t>30 x R$ 3369,00
+3 x R$ 2032,00</t>
         </is>
       </c>
       <c r="I58" s="3" t="inlineStr"/>
@@ -3025,22 +3027,22 @@
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>277600,00</t>
+          <t>39090,00</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
         <is>
-          <t>95880,00</t>
+          <t>13454,50</t>
         </is>
       </c>
       <c r="E59" s="3" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F59" s="3" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G59" s="3" t="inlineStr">
@@ -3050,7 +3052,7 @@
       </c>
       <c r="H59" s="3" t="inlineStr">
         <is>
-          <t>52 x R$ 5678,00</t>
+          <t>30 x R$ 1337,00</t>
         </is>
       </c>
       <c r="I59" s="3" t="inlineStr"/>
@@ -3069,22 +3071,22 @@
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>298100,00</t>
+          <t>52980,00</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr">
         <is>
-          <t>155905,00</t>
+          <t>18849,00</t>
         </is>
       </c>
       <c r="E60" s="3" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F60" s="3" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G60" s="3" t="inlineStr">
@@ -3094,7 +3096,7 @@
       </c>
       <c r="H60" s="3" t="inlineStr">
         <is>
-          <t>50 x R$ 4937,00</t>
+          <t>39 x R$ 1347,00</t>
         </is>
       </c>
       <c r="I60" s="3" t="inlineStr"/>
@@ -3113,22 +3115,22 @@
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>308200,00</t>
+          <t>52660,00</t>
         </is>
       </c>
       <c r="D61" s="3" t="inlineStr">
         <is>
-          <t>129410,00</t>
+          <t>14133,00</t>
         </is>
       </c>
       <c r="E61" s="3" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>37</t>
         </is>
       </c>
       <c r="F61" s="3" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G61" s="3" t="inlineStr">
@@ -3138,7 +3140,7 @@
       </c>
       <c r="H61" s="3" t="inlineStr">
         <is>
-          <t>48 x R$ 6442,00</t>
+          <t>37 x R$ 1564,00</t>
         </is>
       </c>
       <c r="I61" s="3" t="inlineStr"/>
@@ -3157,22 +3159,22 @@
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>309000,00</t>
+          <t>63860,00</t>
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr">
         <is>
-          <t>121450,00</t>
+          <t>17693,00</t>
         </is>
       </c>
       <c r="E62" s="3" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F62" s="3" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G62" s="3" t="inlineStr">
@@ -3182,7 +3184,7 @@
       </c>
       <c r="H62" s="3" t="inlineStr">
         <is>
-          <t>48 x R$ 6190,00</t>
+          <t>33 x R$ 2032,00</t>
         </is>
       </c>
       <c r="I62" s="3" t="inlineStr"/>
@@ -3201,17 +3203,17 @@
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>153320,00</t>
+          <t>64240,00</t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr">
         <is>
-          <t>56666,00</t>
+          <t>20012,00</t>
         </is>
       </c>
       <c r="E63" s="3" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F63" s="3" t="inlineStr">
@@ -3226,8 +3228,7 @@
       </c>
       <c r="H63" s="3" t="inlineStr">
         <is>
-          <t>29 x R$ 4268,00
-9 x R$ 2026,00</t>
+          <t>31 x R$ 2079,00</t>
         </is>
       </c>
       <c r="I63" s="3" t="inlineStr"/>
@@ -3246,17 +3247,17 @@
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>125000,00</t>
+          <t>471000,00</t>
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr">
         <is>
-          <t>49250,00</t>
+          <t>201550,00</t>
         </is>
       </c>
       <c r="E64" s="3" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>113</t>
         </is>
       </c>
       <c r="F64" s="3" t="inlineStr">
@@ -3271,7 +3272,8 @@
       </c>
       <c r="H64" s="3" t="inlineStr">
         <is>
-          <t>73 x R$ 1932,00</t>
+          <t>98 x R$ 4713,00
+15 x R$ 2580,00</t>
         </is>
       </c>
       <c r="I64" s="3" t="inlineStr"/>
@@ -3285,27 +3287,27 @@
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>Veículos</t>
+          <t>Imóveis</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>42300,00</t>
+          <t>49200,00</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
         <is>
-          <t>13115,00</t>
+          <t>26260,00</t>
         </is>
       </c>
       <c r="E65" s="3" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>188</t>
         </is>
       </c>
       <c r="F65" s="3" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G65" s="3" t="inlineStr">
@@ -3315,7 +3317,8 @@
       </c>
       <c r="H65" s="3" t="inlineStr">
         <is>
-          <t>47 x R$ 1118,00</t>
+          <t>1 x R$ 422,00
+187 x R$ 256,00</t>
         </is>
       </c>
       <c r="I65" s="3" t="inlineStr"/>
@@ -3329,27 +3332,27 @@
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>Veículos</t>
+          <t>Imóveis</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>54660,00</t>
+          <t>53700,00</t>
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr">
         <is>
-          <t>20233,00</t>
+          <t>29185,00</t>
         </is>
       </c>
       <c r="E66" s="3" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>163</t>
         </is>
       </c>
       <c r="F66" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú</t>
         </is>
       </c>
       <c r="G66" s="3" t="inlineStr">
@@ -3359,7 +3362,7 @@
       </c>
       <c r="H66" s="3" t="inlineStr">
         <is>
-          <t>31 x R$ 1672,00</t>
+          <t>163 x R$ 377,60</t>
         </is>
       </c>
       <c r="I66" s="3" t="inlineStr"/>
@@ -3373,22 +3376,22 @@
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>Veículos</t>
+          <t>Imóveis</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>18600,00</t>
+          <t>69700,00</t>
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr">
         <is>
-          <t>9430,00</t>
+          <t>38485,00</t>
         </is>
       </c>
       <c r="E67" s="3" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>138</t>
         </is>
       </c>
       <c r="F67" s="3" t="inlineStr">
@@ -3403,7 +3406,7 @@
       </c>
       <c r="H67" s="3" t="inlineStr">
         <is>
-          <t>63 x R$ 320,00</t>
+          <t>138 x R$ 485,00</t>
         </is>
       </c>
       <c r="I67" s="3" t="inlineStr"/>
@@ -3417,22 +3420,22 @@
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>Veículos</t>
+          <t>Imóveis</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>211000,00</t>
+          <t>70000,00</t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
         <is>
-          <t>92550,00</t>
+          <t>35000,00</t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>192</t>
         </is>
       </c>
       <c r="F68" s="3" t="inlineStr">
@@ -3447,7 +3450,8 @@
       </c>
       <c r="H68" s="3" t="inlineStr">
         <is>
-          <t>99 x R$ 2133,00</t>
+          <t>22 x R$ 463,00
+170 x R$ 380,00</t>
         </is>
       </c>
       <c r="I68" s="3" t="inlineStr"/>
@@ -3461,22 +3465,22 @@
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>Veículos</t>
+          <t>Imóveis</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>201000,00</t>
+          <t>70180,00</t>
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr">
         <is>
-          <t>100050,00</t>
+          <t>41509,00</t>
         </is>
       </c>
       <c r="E69" s="3" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>192</t>
         </is>
       </c>
       <c r="F69" s="3" t="inlineStr">
@@ -3491,7 +3495,7 @@
       </c>
       <c r="H69" s="3" t="inlineStr">
         <is>
-          <t>101 x R$ 1752,00</t>
+          <t>192 x R$ 470,00</t>
         </is>
       </c>
       <c r="I69" s="3" t="inlineStr"/>
@@ -3505,27 +3509,27 @@
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>Veículos</t>
+          <t>Imóveis</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t>623330,00</t>
+          <t>79700,00</t>
         </is>
       </c>
       <c r="D70" s="3" t="inlineStr">
         <is>
-          <t>297166,50</t>
+          <t>40985,00</t>
         </is>
       </c>
       <c r="E70" s="3" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>163</t>
         </is>
       </c>
       <c r="F70" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú</t>
         </is>
       </c>
       <c r="G70" s="3" t="inlineStr">
@@ -3535,9 +3539,7 @@
       </c>
       <c r="H70" s="3" t="inlineStr">
         <is>
-          <t>65 x R$ 7222,00
-15 x R$ 4546,00
-18 x R$ 2096,00</t>
+          <t>163 x R$ 560,00</t>
         </is>
       </c>
       <c r="I70" s="3" t="inlineStr"/>
@@ -3551,22 +3553,22 @@
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>Veículos</t>
+          <t>Imóveis</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>101270,00</t>
+          <t>80000,00</t>
         </is>
       </c>
       <c r="D71" s="3" t="inlineStr">
         <is>
-          <t>47963,50</t>
+          <t>52000,00</t>
         </is>
       </c>
       <c r="E71" s="3" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>152</t>
         </is>
       </c>
       <c r="F71" s="3" t="inlineStr">
@@ -3581,7 +3583,7 @@
       </c>
       <c r="H71" s="3" t="inlineStr">
         <is>
-          <t>46 x R$ 1846,00</t>
+          <t>152 x R$ 435,00</t>
         </is>
       </c>
       <c r="I71" s="3" t="inlineStr"/>
@@ -3600,22 +3602,22 @@
       </c>
       <c r="C72" s="3" t="inlineStr">
         <is>
-          <t>61800,00</t>
+          <t>86000,00</t>
         </is>
       </c>
       <c r="D72" s="3" t="inlineStr">
         <is>
-          <t>33090,00</t>
+          <t>47300,00</t>
         </is>
       </c>
       <c r="E72" s="3" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>111</t>
         </is>
       </c>
       <c r="F72" s="3" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G72" s="3" t="inlineStr">
@@ -3625,7 +3627,7 @@
       </c>
       <c r="H72" s="3" t="inlineStr">
         <is>
-          <t>145 x R$ 524,22</t>
+          <t>111 x R$ 588,00</t>
         </is>
       </c>
       <c r="I72" s="3" t="inlineStr"/>
@@ -3644,17 +3646,17 @@
       </c>
       <c r="C73" s="3" t="inlineStr">
         <is>
-          <t>70300,00</t>
+          <t>87500,00</t>
         </is>
       </c>
       <c r="D73" s="3" t="inlineStr">
         <is>
-          <t>36415,00</t>
+          <t>44875,00</t>
         </is>
       </c>
       <c r="E73" s="3" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>133</t>
         </is>
       </c>
       <c r="F73" s="3" t="inlineStr">
@@ -3669,7 +3671,7 @@
       </c>
       <c r="H73" s="3" t="inlineStr">
         <is>
-          <t>193 x R$ 472,00</t>
+          <t>133 x R$ 723,00</t>
         </is>
       </c>
       <c r="I73" s="3" t="inlineStr"/>
@@ -3688,17 +3690,17 @@
       </c>
       <c r="C74" s="3" t="inlineStr">
         <is>
-          <t>73200,00</t>
+          <t>96400,00</t>
         </is>
       </c>
       <c r="D74" s="3" t="inlineStr">
         <is>
-          <t>36660,00</t>
+          <t>25820,00</t>
         </is>
       </c>
       <c r="E74" s="3" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>61</t>
         </is>
       </c>
       <c r="F74" s="3" t="inlineStr">
@@ -3713,8 +3715,8 @@
       </c>
       <c r="H74" s="3" t="inlineStr">
         <is>
-          <t>12 x R$ 440,00
-170 x R$ 396,00</t>
+          <t>03 x R$ 2491,00
+58 x R$ 1934,00</t>
         </is>
       </c>
       <c r="I74" s="3" t="inlineStr"/>
@@ -3733,22 +3735,22 @@
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t>73500,00</t>
+          <t>96500,00</t>
         </is>
       </c>
       <c r="D75" s="3" t="inlineStr">
         <is>
-          <t>38675,00</t>
+          <t>41825,00</t>
         </is>
       </c>
       <c r="E75" s="3" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>140</t>
         </is>
       </c>
       <c r="F75" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G75" s="3" t="inlineStr">
@@ -3758,7 +3760,7 @@
       </c>
       <c r="H75" s="3" t="inlineStr">
         <is>
-          <t>183 x R$ 479,00</t>
+          <t>140 x R$ 683,00</t>
         </is>
       </c>
       <c r="I75" s="3" t="inlineStr"/>
@@ -3777,17 +3779,17 @@
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>80000,00</t>
+          <t>99500,00</t>
         </is>
       </c>
       <c r="D76" s="3" t="inlineStr">
         <is>
-          <t>52000,00</t>
+          <t>57475,00</t>
         </is>
       </c>
       <c r="E76" s="3" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>186</t>
         </is>
       </c>
       <c r="F76" s="3" t="inlineStr">
@@ -3802,7 +3804,7 @@
       </c>
       <c r="H76" s="3" t="inlineStr">
         <is>
-          <t>153 x R$ 435,00</t>
+          <t>186 x R$ 554,00</t>
         </is>
       </c>
       <c r="I76" s="3" t="inlineStr"/>
@@ -3821,17 +3823,17 @@
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t>85500,00</t>
+          <t>102400,00</t>
         </is>
       </c>
       <c r="D77" s="3" t="inlineStr">
         <is>
-          <t>46275,00</t>
+          <t>48620,00</t>
         </is>
       </c>
       <c r="E77" s="3" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>175</t>
         </is>
       </c>
       <c r="F77" s="3" t="inlineStr">
@@ -3846,7 +3848,7 @@
       </c>
       <c r="H77" s="3" t="inlineStr">
         <is>
-          <t>112 x R$ 588,00</t>
+          <t>175 x R$ 710,60</t>
         </is>
       </c>
       <c r="I77" s="3" t="inlineStr"/>
@@ -3865,22 +3867,22 @@
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>94100,00</t>
+          <t>105000,00</t>
         </is>
       </c>
       <c r="D78" s="3" t="inlineStr">
         <is>
-          <t>28705,00</t>
+          <t>52250,00</t>
         </is>
       </c>
       <c r="E78" s="3" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>168</t>
         </is>
       </c>
       <c r="F78" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G78" s="3" t="inlineStr">
@@ -3890,8 +3892,7 @@
       </c>
       <c r="H78" s="3" t="inlineStr">
         <is>
-          <t>04 x R$ 1865,00
-73 x R$ 1489,00</t>
+          <t>168 x R$ 695,00</t>
         </is>
       </c>
       <c r="I78" s="3" t="inlineStr"/>
@@ -3910,22 +3911,22 @@
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>96700,00</t>
+          <t>106300,00</t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
         <is>
-          <t>46835,00</t>
+          <t>57815,00</t>
         </is>
       </c>
       <c r="E79" s="3" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>126</t>
         </is>
       </c>
       <c r="F79" s="3" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G79" s="3" t="inlineStr">
@@ -3935,7 +3936,7 @@
       </c>
       <c r="H79" s="3" t="inlineStr">
         <is>
-          <t>152 x R$ 637,00</t>
+          <t>126 x R$ 943,00</t>
         </is>
       </c>
       <c r="I79" s="3" t="inlineStr"/>
@@ -3954,17 +3955,17 @@
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>97500,00</t>
+          <t>108000,00</t>
         </is>
       </c>
       <c r="D80" s="3" t="inlineStr">
         <is>
-          <t>47875,00</t>
+          <t>46900,00</t>
         </is>
       </c>
       <c r="E80" s="3" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>137</t>
         </is>
       </c>
       <c r="F80" s="3" t="inlineStr">
@@ -3979,7 +3980,7 @@
       </c>
       <c r="H80" s="3" t="inlineStr">
         <is>
-          <t>147 x R$ 655,54</t>
+          <t>137 x R$ 930,00</t>
         </is>
       </c>
       <c r="I80" s="3" t="inlineStr"/>
@@ -3998,22 +3999,22 @@
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>104000,00</t>
+          <t>111000,00</t>
         </is>
       </c>
       <c r="D81" s="3" t="inlineStr">
         <is>
-          <t>41700,00</t>
+          <t>56050,00</t>
         </is>
       </c>
       <c r="E81" s="3" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>130</t>
         </is>
       </c>
       <c r="F81" s="3" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G81" s="3" t="inlineStr">
@@ -4023,7 +4024,7 @@
       </c>
       <c r="H81" s="3" t="inlineStr">
         <is>
-          <t>32 x R$ 3695,00</t>
+          <t>130 x R$ 924,00</t>
         </is>
       </c>
       <c r="I81" s="3" t="inlineStr"/>
@@ -4042,17 +4043,17 @@
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>104000,00</t>
+          <t>111200,00</t>
         </is>
       </c>
       <c r="D82" s="3" t="inlineStr">
         <is>
-          <t>50200,00</t>
+          <t>59060,00</t>
         </is>
       </c>
       <c r="E82" s="3" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>132</t>
         </is>
       </c>
       <c r="F82" s="3" t="inlineStr">
@@ -4067,7 +4068,7 @@
       </c>
       <c r="H82" s="3" t="inlineStr">
         <is>
-          <t>184 x R$ 687,00</t>
+          <t>132 x R$ 942,00</t>
         </is>
       </c>
       <c r="I82" s="3" t="inlineStr"/>
@@ -4086,22 +4087,22 @@
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>105200,00</t>
+          <t>112500,00</t>
         </is>
       </c>
       <c r="D83" s="3" t="inlineStr">
         <is>
-          <t>57260,00</t>
+          <t>54625,00</t>
         </is>
       </c>
       <c r="E83" s="3" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>163</t>
         </is>
       </c>
       <c r="F83" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G83" s="3" t="inlineStr">
@@ -4111,7 +4112,7 @@
       </c>
       <c r="H83" s="3" t="inlineStr">
         <is>
-          <t>127 x R$ 943,00</t>
+          <t>163 x R$ 790,82</t>
         </is>
       </c>
       <c r="I83" s="3" t="inlineStr"/>
@@ -4130,22 +4131,22 @@
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>107000,00</t>
+          <t>115300,00</t>
         </is>
       </c>
       <c r="D84" s="3" t="inlineStr">
         <is>
-          <t>47350,00</t>
+          <t>60265,00</t>
         </is>
       </c>
       <c r="E84" s="3" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>153</t>
         </is>
       </c>
       <c r="F84" s="3" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G84" s="3" t="inlineStr">
@@ -4155,7 +4156,7 @@
       </c>
       <c r="H84" s="3" t="inlineStr">
         <is>
-          <t>138 x R$ 930,00</t>
+          <t>153 x R$ 875,00</t>
         </is>
       </c>
       <c r="I84" s="3" t="inlineStr"/>
@@ -4174,22 +4175,22 @@
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>107000,00</t>
+          <t>118020,00</t>
         </is>
       </c>
       <c r="D85" s="3" t="inlineStr">
         <is>
-          <t>51350,00</t>
+          <t>62901,00</t>
         </is>
       </c>
       <c r="E85" s="3" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>109</t>
         </is>
       </c>
       <c r="F85" s="3" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G85" s="3" t="inlineStr">
@@ -4199,7 +4200,7 @@
       </c>
       <c r="H85" s="3" t="inlineStr">
         <is>
-          <t>147 x R$ 628,00</t>
+          <t>109 x R$ 941,00</t>
         </is>
       </c>
       <c r="I85" s="3" t="inlineStr"/>
@@ -4218,17 +4219,17 @@
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>108000,00</t>
+          <t>120000,00</t>
         </is>
       </c>
       <c r="D86" s="3" t="inlineStr">
         <is>
-          <t>56400,00</t>
+          <t>60500,00</t>
         </is>
       </c>
       <c r="E86" s="3" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>153</t>
         </is>
       </c>
       <c r="F86" s="3" t="inlineStr">
@@ -4243,7 +4244,8 @@
       </c>
       <c r="H86" s="3" t="inlineStr">
         <is>
-          <t>189 x R$ 584,00</t>
+          <t>9 x R$ 1084,00
+144 x R$ 817,00</t>
         </is>
       </c>
       <c r="I86" s="3" t="inlineStr"/>
@@ -4262,17 +4264,17 @@
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>109000,00</t>
+          <t>123740,00</t>
         </is>
       </c>
       <c r="D87" s="3" t="inlineStr">
         <is>
-          <t>70450,00</t>
+          <t>65687,00</t>
         </is>
       </c>
       <c r="E87" s="3" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>99</t>
         </is>
       </c>
       <c r="F87" s="3" t="inlineStr">
@@ -4287,7 +4289,7 @@
       </c>
       <c r="H87" s="3" t="inlineStr">
         <is>
-          <t>177 x R$ 553,00</t>
+          <t>99 x R$ 1078,00</t>
         </is>
       </c>
       <c r="I87" s="3" t="inlineStr"/>
@@ -4306,22 +4308,22 @@
       </c>
       <c r="C88" s="3" t="inlineStr">
         <is>
-          <t>110000,00</t>
+          <t>124000,00</t>
         </is>
       </c>
       <c r="D88" s="3" t="inlineStr">
         <is>
-          <t>57500,00</t>
+          <t>61700,00</t>
         </is>
       </c>
       <c r="E88" s="3" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>149</t>
         </is>
       </c>
       <c r="F88" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G88" s="3" t="inlineStr">
@@ -4331,7 +4333,7 @@
       </c>
       <c r="H88" s="3" t="inlineStr">
         <is>
-          <t>133 x R$ 942,00</t>
+          <t>149 x R$ 825,00</t>
         </is>
       </c>
       <c r="I88" s="3" t="inlineStr"/>
@@ -4350,17 +4352,17 @@
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>110500,00</t>
+          <t>125000,00</t>
         </is>
       </c>
       <c r="D89" s="3" t="inlineStr">
         <is>
-          <t>55525,00</t>
+          <t>62250,00</t>
         </is>
       </c>
       <c r="E89" s="3" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>152</t>
         </is>
       </c>
       <c r="F89" s="3" t="inlineStr">
@@ -4375,7 +4377,7 @@
       </c>
       <c r="H89" s="3" t="inlineStr">
         <is>
-          <t>131 x R$ 924,00</t>
+          <t>152 x R$ 791,00</t>
         </is>
       </c>
       <c r="I89" s="3" t="inlineStr"/>
@@ -4394,22 +4396,22 @@
       </c>
       <c r="C90" s="3" t="inlineStr">
         <is>
-          <t>111900,00</t>
+          <t>129450,00</t>
         </is>
       </c>
       <c r="D90" s="3" t="inlineStr">
         <is>
-          <t>54595,00</t>
+          <t>82972,50</t>
         </is>
       </c>
       <c r="E90" s="3" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>96</t>
         </is>
       </c>
       <c r="F90" s="3" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G90" s="3" t="inlineStr">
@@ -4419,7 +4421,8 @@
       </c>
       <c r="H90" s="3" t="inlineStr">
         <is>
-          <t>140 x R$ 793,00</t>
+          <t>1 x R$ 1490,00
+95 x R$ 1187,00</t>
         </is>
       </c>
       <c r="I90" s="3" t="inlineStr"/>
@@ -4438,22 +4441,22 @@
       </c>
       <c r="C91" s="3" t="inlineStr">
         <is>
-          <t>113100,00</t>
+          <t>135000,00</t>
         </is>
       </c>
       <c r="D91" s="3" t="inlineStr">
         <is>
-          <t>62455,00</t>
+          <t>75050,00</t>
         </is>
       </c>
       <c r="E91" s="3" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>129</t>
         </is>
       </c>
       <c r="F91" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú</t>
         </is>
       </c>
       <c r="G91" s="3" t="inlineStr">
@@ -4463,7 +4466,7 @@
       </c>
       <c r="H91" s="3" t="inlineStr">
         <is>
-          <t>155 x R$ 796,00</t>
+          <t>129 x R$ 891,00</t>
         </is>
       </c>
       <c r="I91" s="3" t="inlineStr"/>
@@ -4482,17 +4485,17 @@
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
-          <t>113400,00</t>
+          <t>135000,00</t>
         </is>
       </c>
       <c r="D92" s="3" t="inlineStr">
         <is>
-          <t>58670,00</t>
+          <t>70750,00</t>
         </is>
       </c>
       <c r="E92" s="3" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>147</t>
         </is>
       </c>
       <c r="F92" s="3" t="inlineStr">
@@ -4507,7 +4510,8 @@
       </c>
       <c r="H92" s="3" t="inlineStr">
         <is>
-          <t>156 x R$ 875,00</t>
+          <t>10 x R$ 1246,00
+137 x R$ 949,00</t>
         </is>
       </c>
       <c r="I92" s="3" t="inlineStr"/>
@@ -4526,22 +4530,22 @@
       </c>
       <c r="C93" s="3" t="inlineStr">
         <is>
-          <t>117140,00</t>
+          <t>135850,00</t>
         </is>
       </c>
       <c r="D93" s="3" t="inlineStr">
         <is>
-          <t>61857,00</t>
+          <t>55792,50</t>
         </is>
       </c>
       <c r="E93" s="3" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>106</t>
         </is>
       </c>
       <c r="F93" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú</t>
         </is>
       </c>
       <c r="G93" s="3" t="inlineStr">
@@ -4551,7 +4555,7 @@
       </c>
       <c r="H93" s="3" t="inlineStr">
         <is>
-          <t>111 x R$ 967,00</t>
+          <t>106 x R$ 1407,00</t>
         </is>
       </c>
       <c r="I93" s="3" t="inlineStr"/>
@@ -4570,17 +4574,17 @@
       </c>
       <c r="C94" s="3" t="inlineStr">
         <is>
-          <t>118500,00</t>
+          <t>137200,00</t>
         </is>
       </c>
       <c r="D94" s="3" t="inlineStr">
         <is>
-          <t>55425,00</t>
+          <t>71860,00</t>
         </is>
       </c>
       <c r="E94" s="3" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>141</t>
         </is>
       </c>
       <c r="F94" s="3" t="inlineStr">
@@ -4595,7 +4599,7 @@
       </c>
       <c r="H94" s="3" t="inlineStr">
         <is>
-          <t>142 x R$ 819,00</t>
+          <t>141 x R$ 1098,00</t>
         </is>
       </c>
       <c r="I94" s="3" t="inlineStr"/>
@@ -4614,22 +4618,22 @@
       </c>
       <c r="C95" s="3" t="inlineStr">
         <is>
-          <t>120000,00</t>
+          <t>145000,00</t>
         </is>
       </c>
       <c r="D95" s="3" t="inlineStr">
         <is>
-          <t>63000,00</t>
+          <t>75750,00</t>
         </is>
       </c>
       <c r="E95" s="3" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>159</t>
         </is>
       </c>
       <c r="F95" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G95" s="3" t="inlineStr">
@@ -4639,8 +4643,7 @@
       </c>
       <c r="H95" s="3" t="inlineStr">
         <is>
-          <t>10 x R$ 1084,00
-144 x R$ 817,00</t>
+          <t>159 x R$ 1060,00</t>
         </is>
       </c>
       <c r="I95" s="3" t="inlineStr"/>
@@ -4659,22 +4662,22 @@
       </c>
       <c r="C96" s="3" t="inlineStr">
         <is>
-          <t>122800,00</t>
+          <t>147780,00</t>
         </is>
       </c>
       <c r="D96" s="3" t="inlineStr">
         <is>
-          <t>64640,00</t>
+          <t>78489,00</t>
         </is>
       </c>
       <c r="E96" s="3" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>62</t>
         </is>
       </c>
       <c r="F96" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú</t>
         </is>
       </c>
       <c r="G96" s="3" t="inlineStr">
@@ -4684,7 +4687,7 @@
       </c>
       <c r="H96" s="3" t="inlineStr">
         <is>
-          <t>100 x R$ 1078,00</t>
+          <t>62 x R$ 2021,00</t>
         </is>
       </c>
       <c r="I96" s="3" t="inlineStr"/>
@@ -4703,22 +4706,22 @@
       </c>
       <c r="C97" s="3" t="inlineStr">
         <is>
-          <t>123500,00</t>
+          <t>151180,00</t>
         </is>
       </c>
       <c r="D97" s="3" t="inlineStr">
         <is>
-          <t>61175,00</t>
+          <t>72559,00</t>
         </is>
       </c>
       <c r="E97" s="3" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>142</t>
         </is>
       </c>
       <c r="F97" s="3" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Santander</t>
         </is>
       </c>
       <c r="G97" s="3" t="inlineStr">
@@ -4728,7 +4731,7 @@
       </c>
       <c r="H97" s="3" t="inlineStr">
         <is>
-          <t>151 x R$ 825,00</t>
+          <t>142 x R$ 1113,80</t>
         </is>
       </c>
       <c r="I97" s="3" t="inlineStr"/>
@@ -4747,22 +4750,22 @@
       </c>
       <c r="C98" s="3" t="inlineStr">
         <is>
-          <t>124000,00</t>
+          <t>154000,00</t>
         </is>
       </c>
       <c r="D98" s="3" t="inlineStr">
         <is>
-          <t>61200,00</t>
+          <t>85700,00</t>
         </is>
       </c>
       <c r="E98" s="3" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>169</t>
         </is>
       </c>
       <c r="F98" s="3" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G98" s="3" t="inlineStr">
@@ -4772,7 +4775,7 @@
       </c>
       <c r="H98" s="3" t="inlineStr">
         <is>
-          <t>153 x R$ 791,00</t>
+          <t>169 x R$ 995,00</t>
         </is>
       </c>
       <c r="I98" s="3" t="inlineStr"/>
@@ -4791,22 +4794,22 @@
       </c>
       <c r="C99" s="3" t="inlineStr">
         <is>
-          <t>129400,00</t>
+          <t>161000,00</t>
         </is>
       </c>
       <c r="D99" s="3" t="inlineStr">
         <is>
-          <t>66470,00</t>
+          <t>78550,00</t>
         </is>
       </c>
       <c r="E99" s="3" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>142</t>
         </is>
       </c>
       <c r="F99" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Santander</t>
         </is>
       </c>
       <c r="G99" s="3" t="inlineStr">
@@ -4816,7 +4819,7 @@
       </c>
       <c r="H99" s="3" t="inlineStr">
         <is>
-          <t>100 x R$ 1269,00</t>
+          <t>142 x R$ 1114,03</t>
         </is>
       </c>
       <c r="I99" s="3" t="inlineStr"/>
@@ -4835,17 +4838,17 @@
       </c>
       <c r="C100" s="3" t="inlineStr">
         <is>
-          <t>134700,00</t>
+          <t>198000,00</t>
         </is>
       </c>
       <c r="D100" s="3" t="inlineStr">
         <is>
-          <t>71735,00</t>
+          <t>101900,00</t>
         </is>
       </c>
       <c r="E100" s="3" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>192</t>
         </is>
       </c>
       <c r="F100" s="3" t="inlineStr">
@@ -4860,8 +4863,7 @@
       </c>
       <c r="H100" s="3" t="inlineStr">
         <is>
-          <t>11 x R$ 1246,00
-137 x R$ 949,00</t>
+          <t>192 x R$ 1022,00</t>
         </is>
       </c>
       <c r="I100" s="3" t="inlineStr"/>
@@ -4880,17 +4882,17 @@
       </c>
       <c r="C101" s="3" t="inlineStr">
         <is>
-          <t>135000,00</t>
+          <t>205000,00</t>
         </is>
       </c>
       <c r="D101" s="3" t="inlineStr">
         <is>
-          <t>52750,00</t>
+          <t>108250,00</t>
         </is>
       </c>
       <c r="E101" s="3" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>193</t>
         </is>
       </c>
       <c r="F101" s="3" t="inlineStr">
@@ -4905,8 +4907,7 @@
       </c>
       <c r="H101" s="3" t="inlineStr">
         <is>
-          <t>3 x R$ 2478,60
-87 x R$ 1693,00</t>
+          <t>193 x R$ 1235,00</t>
         </is>
       </c>
       <c r="I101" s="3" t="inlineStr"/>
@@ -4925,22 +4926,22 @@
       </c>
       <c r="C102" s="3" t="inlineStr">
         <is>
-          <t>135000,00</t>
+          <t>210000,00</t>
         </is>
       </c>
       <c r="D102" s="3" t="inlineStr">
         <is>
-          <t>68750,00</t>
+          <t>108500,00</t>
         </is>
       </c>
       <c r="E102" s="3" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>192</t>
         </is>
       </c>
       <c r="F102" s="3" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G102" s="3" t="inlineStr">
@@ -4950,7 +4951,7 @@
       </c>
       <c r="H102" s="3" t="inlineStr">
         <is>
-          <t>156 x R$ 1163,00</t>
+          <t>192 x R$ 1096,00</t>
         </is>
       </c>
       <c r="I102" s="3" t="inlineStr"/>
@@ -4969,17 +4970,17 @@
       </c>
       <c r="C103" s="3" t="inlineStr">
         <is>
-          <t>144000,00</t>
+          <t>212000,00</t>
         </is>
       </c>
       <c r="D103" s="3" t="inlineStr">
         <is>
-          <t>74200,00</t>
+          <t>102800,00</t>
         </is>
       </c>
       <c r="E103" s="3" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>136</t>
         </is>
       </c>
       <c r="F103" s="3" t="inlineStr">
@@ -4994,7 +4995,7 @@
       </c>
       <c r="H103" s="3" t="inlineStr">
         <is>
-          <t>160 x R$ 1060,00</t>
+          <t>136 x R$ 1759,00</t>
         </is>
       </c>
       <c r="I103" s="3" t="inlineStr"/>
@@ -5013,22 +5014,22 @@
       </c>
       <c r="C104" s="3" t="inlineStr">
         <is>
-          <t>153500,00</t>
+          <t>229260,00</t>
         </is>
       </c>
       <c r="D104" s="3" t="inlineStr">
         <is>
-          <t>85675,00</t>
+          <t>118463,00</t>
         </is>
       </c>
       <c r="E104" s="3" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F104" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú</t>
         </is>
       </c>
       <c r="G104" s="3" t="inlineStr">
@@ -5038,7 +5039,7 @@
       </c>
       <c r="H104" s="3" t="inlineStr">
         <is>
-          <t>170 x R$ 995,00</t>
+          <t>48 x R$ 4423,00</t>
         </is>
       </c>
       <c r="I104" s="3" t="inlineStr"/>
@@ -5057,22 +5058,22 @@
       </c>
       <c r="C105" s="3" t="inlineStr">
         <is>
-          <t>160000,00</t>
+          <t>257500,00</t>
         </is>
       </c>
       <c r="D105" s="3" t="inlineStr">
         <is>
-          <t>73000,00</t>
+          <t>126875,00</t>
         </is>
       </c>
       <c r="E105" s="3" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>101</t>
         </is>
       </c>
       <c r="F105" s="3" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Santander</t>
         </is>
       </c>
       <c r="G105" s="3" t="inlineStr">
@@ -5082,7 +5083,7 @@
       </c>
       <c r="H105" s="3" t="inlineStr">
         <is>
-          <t>171 x R$ 1060,00</t>
+          <t>101 x R$ 2302,00</t>
         </is>
       </c>
       <c r="I105" s="3" t="inlineStr"/>
@@ -5101,22 +5102,22 @@
       </c>
       <c r="C106" s="3" t="inlineStr">
         <is>
-          <t>169000,00</t>
+          <t>273500,00</t>
         </is>
       </c>
       <c r="D106" s="3" t="inlineStr">
         <is>
-          <t>82450,00</t>
+          <t>150675,00</t>
         </is>
       </c>
       <c r="E106" s="3" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>145</t>
         </is>
       </c>
       <c r="F106" s="3" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G106" s="3" t="inlineStr">
@@ -5126,7 +5127,7 @@
       </c>
       <c r="H106" s="3" t="inlineStr">
         <is>
-          <t>147 x R$ 1074,00</t>
+          <t>145 x R$ 1718,00</t>
         </is>
       </c>
       <c r="I106" s="3" t="inlineStr"/>
@@ -5155,7 +5156,7 @@
       </c>
       <c r="E107" s="3" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>97</t>
         </is>
       </c>
       <c r="F107" s="3" t="inlineStr">
@@ -5170,7 +5171,7 @@
       </c>
       <c r="H107" s="3" t="inlineStr">
         <is>
-          <t>148 x R$ 2568,00</t>
+          <t>97 x R$ 2568,00</t>
         </is>
       </c>
       <c r="I107" s="3" t="inlineStr"/>
@@ -5189,17 +5190,17 @@
       </c>
       <c r="C108" s="3" t="inlineStr">
         <is>
-          <t>387400,00</t>
+          <t>432000,00</t>
         </is>
       </c>
       <c r="D108" s="3" t="inlineStr">
         <is>
-          <t>238870,00</t>
+          <t>259600,00</t>
         </is>
       </c>
       <c r="E108" s="3" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>143</t>
         </is>
       </c>
       <c r="F108" s="3" t="inlineStr">
@@ -5214,7 +5215,7 @@
       </c>
       <c r="H108" s="3" t="inlineStr">
         <is>
-          <t>154 x R$ 1805,00</t>
+          <t>143 x R$ 2633,00</t>
         </is>
       </c>
       <c r="I108" s="3" t="inlineStr"/>
@@ -5233,22 +5234,22 @@
       </c>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>426000,00</t>
+          <t>440000,00</t>
         </is>
       </c>
       <c r="D109" s="3" t="inlineStr">
         <is>
-          <t>211300,00</t>
+          <t>235000,00</t>
         </is>
       </c>
       <c r="E109" s="3" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>151</t>
         </is>
       </c>
       <c r="F109" s="3" t="inlineStr">
         <is>
-          <t>Santander</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G109" s="3" t="inlineStr">
@@ -5258,7 +5259,7 @@
       </c>
       <c r="H109" s="3" t="inlineStr">
         <is>
-          <t>126 x R$ 3108,00</t>
+          <t>151 x R$ 2902,00</t>
         </is>
       </c>
       <c r="I109" s="3" t="inlineStr"/>
@@ -5277,17 +5278,17 @@
       </c>
       <c r="C110" s="3" t="inlineStr">
         <is>
-          <t>432000,00</t>
+          <t>474300,00</t>
         </is>
       </c>
       <c r="D110" s="3" t="inlineStr">
         <is>
-          <t>256600,00</t>
+          <t>265515,00</t>
         </is>
       </c>
       <c r="E110" s="3" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>106</t>
         </is>
       </c>
       <c r="F110" s="3" t="inlineStr">
@@ -5302,7 +5303,7 @@
       </c>
       <c r="H110" s="3" t="inlineStr">
         <is>
-          <t>144 x R$ 2633,00</t>
+          <t>106 x R$ 3603,00</t>
         </is>
       </c>
       <c r="I110" s="3" t="inlineStr"/>
@@ -5321,17 +5322,17 @@
       </c>
       <c r="C111" s="3" t="inlineStr">
         <is>
-          <t>439000,00</t>
+          <t>711000,00</t>
         </is>
       </c>
       <c r="D111" s="3" t="inlineStr">
         <is>
-          <t>234950,00</t>
+          <t>371550,00</t>
         </is>
       </c>
       <c r="E111" s="3" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>112</t>
         </is>
       </c>
       <c r="F111" s="3" t="inlineStr">
@@ -5346,7 +5347,7 @@
       </c>
       <c r="H111" s="3" t="inlineStr">
         <is>
-          <t>152 x R$ 2902,00</t>
+          <t>112 x R$ 5736,00</t>
         </is>
       </c>
       <c r="I111" s="3" t="inlineStr"/>
@@ -5365,17 +5366,17 @@
       </c>
       <c r="C112" s="3" t="inlineStr">
         <is>
-          <t>710000,00</t>
+          <t>780000,00</t>
         </is>
       </c>
       <c r="D112" s="3" t="inlineStr">
         <is>
-          <t>368500,00</t>
+          <t>392000,00</t>
         </is>
       </c>
       <c r="E112" s="3" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>107</t>
         </is>
       </c>
       <c r="F112" s="3" t="inlineStr">
@@ -5390,7 +5391,7 @@
       </c>
       <c r="H112" s="3" t="inlineStr">
         <is>
-          <t>113 x R$ 5736,00</t>
+          <t>107 x R$ 7425,00</t>
         </is>
       </c>
       <c r="I112" s="3" t="inlineStr"/>
@@ -5409,17 +5410,17 @@
       </c>
       <c r="C113" s="3" t="inlineStr">
         <is>
-          <t>775000,00</t>
+          <t>845000,00</t>
         </is>
       </c>
       <c r="D113" s="3" t="inlineStr">
         <is>
-          <t>421750,00</t>
+          <t>437250,00</t>
         </is>
       </c>
       <c r="E113" s="3" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>180</t>
         </is>
       </c>
       <c r="F113" s="3" t="inlineStr">
@@ -5434,7 +5435,7 @@
       </c>
       <c r="H113" s="3" t="inlineStr">
         <is>
-          <t>109 x R$ 7679,00</t>
+          <t>180 x R$ 5557,00</t>
         </is>
       </c>
       <c r="I113" s="3" t="inlineStr"/>
@@ -5453,17 +5454,17 @@
       </c>
       <c r="C114" s="3" t="inlineStr">
         <is>
-          <t>790000,00</t>
+          <t>332800,00</t>
         </is>
       </c>
       <c r="D114" s="3" t="inlineStr">
         <is>
-          <t>372500,00</t>
+          <t>144540,00</t>
         </is>
       </c>
       <c r="E114" s="3" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>160</t>
         </is>
       </c>
       <c r="F114" s="3" t="inlineStr">
@@ -5478,7 +5479,9 @@
       </c>
       <c r="H114" s="3" t="inlineStr">
         <is>
-          <t>145 x R$ 6341,00</t>
+          <t>2 x R$ 1649,00
+157 x R$ 2285,00
+1 x R$ 793,00</t>
         </is>
       </c>
       <c r="I114" s="3" t="inlineStr"/>
@@ -5497,17 +5500,17 @@
       </c>
       <c r="C115" s="3" t="inlineStr">
         <is>
-          <t>842000,00</t>
+          <t>110800,00</t>
         </is>
       </c>
       <c r="D115" s="3" t="inlineStr">
         <is>
-          <t>440100,00</t>
+          <t>45440,00</t>
         </is>
       </c>
       <c r="E115" s="3" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>160</t>
         </is>
       </c>
       <c r="F115" s="3" t="inlineStr">
@@ -5522,7 +5525,8 @@
       </c>
       <c r="H115" s="3" t="inlineStr">
         <is>
-          <t>181 x R$ 5557,00</t>
+          <t>2 x R$ 580,00
+158 x R$ 793,00</t>
         </is>
       </c>
       <c r="I115" s="3" t="inlineStr"/>
@@ -5541,17 +5545,17 @@
       </c>
       <c r="C116" s="3" t="inlineStr">
         <is>
-          <t>667600,00</t>
+          <t>222000,00</t>
         </is>
       </c>
       <c r="D116" s="3" t="inlineStr">
         <is>
-          <t>334380,00</t>
+          <t>99100,00</t>
         </is>
       </c>
       <c r="E116" s="3" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>159</t>
         </is>
       </c>
       <c r="F116" s="3" t="inlineStr">
@@ -5566,9 +5570,8 @@
       </c>
       <c r="H116" s="3" t="inlineStr">
         <is>
-          <t>2 x R$ 3164,60
-152 x R$ 4055,60
-40 x R$ 3001,00</t>
+          <t>2 x R$ 1069,00
+157 x R$ 1492,00</t>
         </is>
       </c>
       <c r="I116" s="3" t="inlineStr"/>
@@ -5587,22 +5590,22 @@
       </c>
       <c r="C117" s="3" t="inlineStr">
         <is>
-          <t>173200,00</t>
+          <t>354200,00</t>
         </is>
       </c>
       <c r="D117" s="3" t="inlineStr">
         <is>
-          <t>87160,00</t>
+          <t>177210,00</t>
         </is>
       </c>
       <c r="E117" s="3" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>193</t>
         </is>
       </c>
       <c r="F117" s="3" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G117" s="3" t="inlineStr">
@@ -5612,8 +5615,7 @@
       </c>
       <c r="H117" s="3" t="inlineStr">
         <is>
-          <t>152 x R$ 1094,00
-4 x R$ 679,00</t>
+          <t>193 x R$ 1824,00</t>
         </is>
       </c>
       <c r="I117" s="3" t="inlineStr"/>
@@ -5632,17 +5634,17 @@
       </c>
       <c r="C118" s="3" t="inlineStr">
         <is>
-          <t>627610,00</t>
+          <t>1510000,00</t>
         </is>
       </c>
       <c r="D118" s="3" t="inlineStr">
         <is>
-          <t>272380,50</t>
+          <t>666500,00</t>
         </is>
       </c>
       <c r="E118" s="3" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>192</t>
         </is>
       </c>
       <c r="F118" s="3" t="inlineStr">
@@ -5657,9 +5659,9 @@
       </c>
       <c r="H118" s="3" t="inlineStr">
         <is>
-          <t>2 x R$ 3498,00
-21 x R$ 4550,00
-176 x R$ 3473,00</t>
+          <t>1 x R$ 4481,00
+190 x R$ 9183,00
+1 x R$ 5504,00</t>
         </is>
       </c>
       <c r="I118" s="3" t="inlineStr"/>
@@ -5678,17 +5680,17 @@
       </c>
       <c r="C119" s="3" t="inlineStr">
         <is>
-          <t>280000,00</t>
+          <t>604000,00</t>
         </is>
       </c>
       <c r="D119" s="3" t="inlineStr">
         <is>
-          <t>137000,00</t>
+          <t>267200,00</t>
         </is>
       </c>
       <c r="E119" s="3" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>191</t>
         </is>
       </c>
       <c r="F119" s="3" t="inlineStr">
@@ -5703,8 +5705,8 @@
       </c>
       <c r="H119" s="3" t="inlineStr">
         <is>
-          <t>2 x R$ 861,00
-192 x R$ 1752,00</t>
+          <t>1 x R$ 1792,00
+190 x R$ 3679,00</t>
         </is>
       </c>
       <c r="I119" s="3" t="inlineStr"/>
@@ -5723,17 +5725,17 @@
       </c>
       <c r="C120" s="3" t="inlineStr">
         <is>
-          <t>200000,00</t>
+          <t>906000,00</t>
         </is>
       </c>
       <c r="D120" s="3" t="inlineStr">
         <is>
-          <t>97000,00</t>
+          <t>399300,00</t>
         </is>
       </c>
       <c r="E120" s="3" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>192</t>
         </is>
       </c>
       <c r="F120" s="3" t="inlineStr">
@@ -5748,187 +5750,12 @@
       </c>
       <c r="H120" s="3" t="inlineStr">
         <is>
-          <t>194 x R$ 1249,00</t>
+          <t>1 x R$ 2689,00
+191 x R$ 5504,00</t>
         </is>
       </c>
       <c r="I120" s="3" t="inlineStr"/>
       <c r="J120" s="3" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="3" t="inlineStr">
-        <is>
-          <t>CC1120</t>
-        </is>
-      </c>
-      <c r="B121" s="3" t="inlineStr">
-        <is>
-          <t>Imóveis</t>
-        </is>
-      </c>
-      <c r="C121" s="3" t="inlineStr">
-        <is>
-          <t>274100,00</t>
-        </is>
-      </c>
-      <c r="D121" s="3" t="inlineStr">
-        <is>
-          <t>150705,00</t>
-        </is>
-      </c>
-      <c r="E121" s="3" t="inlineStr">
-        <is>
-          <t>146</t>
-        </is>
-      </c>
-      <c r="F121" s="3" t="inlineStr">
-        <is>
-          <t>Porto Seguro</t>
-        </is>
-      </c>
-      <c r="G121" s="3" t="inlineStr">
-        <is>
-          <t>Disponível</t>
-        </is>
-      </c>
-      <c r="H121" s="3" t="inlineStr">
-        <is>
-          <t>146 x R$ 1718,00</t>
-        </is>
-      </c>
-      <c r="I121" s="3" t="inlineStr"/>
-      <c r="J121" s="3" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="3" t="inlineStr">
-        <is>
-          <t>CC1121</t>
-        </is>
-      </c>
-      <c r="B122" s="3" t="inlineStr">
-        <is>
-          <t>Imóveis</t>
-        </is>
-      </c>
-      <c r="C122" s="3" t="inlineStr">
-        <is>
-          <t>187600,00</t>
-        </is>
-      </c>
-      <c r="D122" s="3" t="inlineStr">
-        <is>
-          <t>100380,00</t>
-        </is>
-      </c>
-      <c r="E122" s="3" t="inlineStr">
-        <is>
-          <t>154</t>
-        </is>
-      </c>
-      <c r="F122" s="3" t="inlineStr">
-        <is>
-          <t>Porto Seguro</t>
-        </is>
-      </c>
-      <c r="G122" s="3" t="inlineStr">
-        <is>
-          <t>Disponível</t>
-        </is>
-      </c>
-      <c r="H122" s="3" t="inlineStr">
-        <is>
-          <t>154 x R$ 1054,60</t>
-        </is>
-      </c>
-      <c r="I122" s="3" t="inlineStr"/>
-      <c r="J122" s="3" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="3" t="inlineStr">
-        <is>
-          <t>CC1122</t>
-        </is>
-      </c>
-      <c r="B123" s="3" t="inlineStr">
-        <is>
-          <t>Imóveis</t>
-        </is>
-      </c>
-      <c r="C123" s="3" t="inlineStr">
-        <is>
-          <t>240770,00</t>
-        </is>
-      </c>
-      <c r="D123" s="3" t="inlineStr">
-        <is>
-          <t>114138,50</t>
-        </is>
-      </c>
-      <c r="E123" s="3" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="F123" s="3" t="inlineStr">
-        <is>
-          <t>Porto Seguro</t>
-        </is>
-      </c>
-      <c r="G123" s="3" t="inlineStr">
-        <is>
-          <t>Disponível</t>
-        </is>
-      </c>
-      <c r="H123" s="3" t="inlineStr">
-        <is>
-          <t>111 x R$ 2080,00</t>
-        </is>
-      </c>
-      <c r="I123" s="3" t="inlineStr"/>
-      <c r="J123" s="3" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="3" t="inlineStr">
-        <is>
-          <t>CC1123</t>
-        </is>
-      </c>
-      <c r="B124" s="3" t="inlineStr">
-        <is>
-          <t>Imóveis</t>
-        </is>
-      </c>
-      <c r="C124" s="3" t="inlineStr">
-        <is>
-          <t>60600,00</t>
-        </is>
-      </c>
-      <c r="D124" s="3" t="inlineStr">
-        <is>
-          <t>33030,00</t>
-        </is>
-      </c>
-      <c r="E124" s="3" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="F124" s="3" t="inlineStr">
-        <is>
-          <t>Itaú</t>
-        </is>
-      </c>
-      <c r="G124" s="3" t="inlineStr">
-        <is>
-          <t>Disponível</t>
-        </is>
-      </c>
-      <c r="H124" s="3" t="inlineStr">
-        <is>
-          <t>152 x R$ 415,41</t>
-        </is>
-      </c>
-      <c r="I124" s="3" t="inlineStr"/>
-      <c r="J124" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/scraper-completo/DADOS EXTRAIDOS/extracao_cartascontempladas.xlsx
+++ b/scraper-completo/DADOS EXTRAIDOS/extracao_cartascontempladas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J120"/>
+  <dimension ref="A1:J114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,17 +516,17 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>26700,00</t>
+          <t>18600,00</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>12335,00</t>
+          <t>9930,00</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>62</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>30 x R$ 839,00</t>
+          <t>62 x R$ 281,66</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr"/>
@@ -560,12 +560,12 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>28700,00</t>
+          <t>26700,00</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>10435,00</t>
+          <t>12335,00</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
@@ -585,7 +585,7 @@
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
-          <t>30 x R$ 1037,00</t>
+          <t>30 x R$ 839,00</t>
         </is>
       </c>
       <c r="I3" s="3" t="inlineStr"/>
@@ -604,12 +604,12 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>29060,00</t>
+          <t>28700,00</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>11353,00</t>
+          <t>10435,00</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>30 x R$ 896,00</t>
+          <t>30 x R$ 1037,00</t>
         </is>
       </c>
       <c r="I4" s="3" t="inlineStr"/>
@@ -648,17 +648,17 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>30200,00</t>
+          <t>29060,00</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>10310,00</t>
+          <t>11353,00</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
@@ -673,7 +673,7 @@
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>32 x R$ 1055,00</t>
+          <t>30 x R$ 896,00</t>
         </is>
       </c>
       <c r="I5" s="3" t="inlineStr"/>
@@ -692,22 +692,22 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>30560,00</t>
+          <t>30200,00</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>11428,00</t>
+          <t>10310,00</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú</t>
         </is>
       </c>
       <c r="G6" s="3" t="inlineStr">
@@ -717,7 +717,7 @@
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t>39 x R$ 777,00</t>
+          <t>32 x R$ 1055,00</t>
         </is>
       </c>
       <c r="I6" s="3" t="inlineStr"/>
@@ -736,22 +736,22 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>32750,00</t>
+          <t>30560,00</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>10837,50</t>
+          <t>11428,00</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G7" s="3" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="H7" s="3" t="inlineStr">
         <is>
-          <t>36 x R$ 1047,00</t>
+          <t>39 x R$ 777,00</t>
         </is>
       </c>
       <c r="I7" s="3" t="inlineStr"/>
@@ -780,17 +780,17 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>34230,00</t>
+          <t>32750,00</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>10611,50</t>
+          <t>10837,50</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
@@ -805,7 +805,7 @@
       </c>
       <c r="H8" s="3" t="inlineStr">
         <is>
-          <t>32 x R$ 1282,00</t>
+          <t>36 x R$ 1047,00</t>
         </is>
       </c>
       <c r="I8" s="3" t="inlineStr"/>
@@ -824,17 +824,17 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>34997,00</t>
+          <t>34230,00</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>10849,85</t>
+          <t>10611,50</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="H9" s="3" t="inlineStr">
         <is>
-          <t>39 x R$ 1133,00</t>
+          <t>32 x R$ 1282,00</t>
         </is>
       </c>
       <c r="I9" s="3" t="inlineStr"/>
@@ -868,22 +868,22 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>35160,00</t>
+          <t>34997,00</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>13758,00</t>
+          <t>10849,85</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú</t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="H10" s="3" t="inlineStr">
         <is>
-          <t>31 x R$ 1279,00</t>
+          <t>39 x R$ 1133,00</t>
         </is>
       </c>
       <c r="I10" s="3" t="inlineStr"/>
@@ -912,22 +912,22 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>35260,00</t>
+          <t>35160,00</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>15763,00</t>
+          <t>13758,00</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G11" s="3" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="H11" s="3" t="inlineStr">
         <is>
-          <t>44 x R$ 736,00</t>
+          <t>31 x R$ 1279,00</t>
         </is>
       </c>
       <c r="I11" s="3" t="inlineStr"/>
@@ -956,17 +956,17 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>35460,00</t>
+          <t>35260,00</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>16273,00</t>
+          <t>15763,00</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="H12" s="3" t="inlineStr">
         <is>
-          <t>30 x R$ 1141,00</t>
+          <t>44 x R$ 736,00</t>
         </is>
       </c>
       <c r="I12" s="3" t="inlineStr"/>
@@ -1000,17 +1000,17 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>35500,00</t>
+          <t>35460,00</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>16775,00</t>
+          <t>16273,00</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F13" s="3" t="inlineStr">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="H13" s="3" t="inlineStr">
         <is>
-          <t>44 x R$ 708,00</t>
+          <t>30 x R$ 1141,00</t>
         </is>
       </c>
       <c r="I13" s="3" t="inlineStr"/>
@@ -1044,17 +1044,17 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>36000,00</t>
+          <t>35500,00</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>16500,00</t>
+          <t>16775,00</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="H14" s="3" t="inlineStr">
         <is>
-          <t>30 x R$ 1130,00</t>
+          <t>44 x R$ 708,00</t>
         </is>
       </c>
       <c r="I14" s="3" t="inlineStr"/>
@@ -1088,17 +1088,17 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>36760,00</t>
+          <t>36000,00</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>10338,00</t>
+          <t>16500,00</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="H15" s="3" t="inlineStr">
         <is>
-          <t>28 x R$ 1437,00</t>
+          <t>30 x R$ 1130,00</t>
         </is>
       </c>
       <c r="I15" s="3" t="inlineStr"/>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>37220,00</t>
+          <t>36760,00</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>13861,00</t>
+          <t>10338,00</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="H16" s="3" t="inlineStr">
         <is>
-          <t>31 x R$ 1104,00</t>
+          <t>28 x R$ 1437,00</t>
         </is>
       </c>
       <c r="I16" s="3" t="inlineStr"/>
@@ -1176,17 +1176,17 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>37220,00</t>
+          <t>37000,00</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>13861,00</t>
+          <t>17850,00</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>62</t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr">
@@ -1201,7 +1201,8 @@
       </c>
       <c r="H17" s="3" t="inlineStr">
         <is>
-          <t>31 x R$ 1105,00</t>
+          <t>61 x R$ 551,57
+1 x R$ 281,70</t>
         </is>
       </c>
       <c r="I17" s="3" t="inlineStr"/>
@@ -1220,12 +1221,12 @@
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>37500,00</t>
+          <t>37220,00</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>18875,00</t>
+          <t>13861,00</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -1245,7 +1246,7 @@
       </c>
       <c r="H18" s="3" t="inlineStr">
         <is>
-          <t>31 x R$ 995,00</t>
+          <t>31 x R$ 1104,00</t>
         </is>
       </c>
       <c r="I18" s="3" t="inlineStr"/>
@@ -1264,17 +1265,17 @@
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>37500,00</t>
+          <t>37220,00</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>13375,00</t>
+          <t>13861,00</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F19" s="3" t="inlineStr">
@@ -1289,7 +1290,7 @@
       </c>
       <c r="H19" s="3" t="inlineStr">
         <is>
-          <t>29 x R$ 1509,00</t>
+          <t>31 x R$ 1105,00</t>
         </is>
       </c>
       <c r="I19" s="3" t="inlineStr"/>
@@ -1308,17 +1309,17 @@
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>37520,00</t>
+          <t>37500,00</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>18776,00</t>
+          <t>18875,00</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F20" s="3" t="inlineStr">
@@ -1333,7 +1334,7 @@
       </c>
       <c r="H20" s="3" t="inlineStr">
         <is>
-          <t>38 x R$ 779,00</t>
+          <t>31 x R$ 995,00</t>
         </is>
       </c>
       <c r="I20" s="3" t="inlineStr"/>
@@ -1352,17 +1353,17 @@
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>37520,00</t>
+          <t>37500,00</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>18776,00</t>
+          <t>13375,00</t>
         </is>
       </c>
       <c r="E21" s="3" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F21" s="3" t="inlineStr">
@@ -1377,7 +1378,7 @@
       </c>
       <c r="H21" s="3" t="inlineStr">
         <is>
-          <t>38 x R$ 804,00</t>
+          <t>29 x R$ 1509,00</t>
         </is>
       </c>
       <c r="I21" s="3" t="inlineStr"/>
@@ -1401,12 +1402,12 @@
       </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t>19676,00</t>
+          <t>18776,00</t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>38</t>
         </is>
       </c>
       <c r="F22" s="3" t="inlineStr">
@@ -1421,7 +1422,7 @@
       </c>
       <c r="H22" s="3" t="inlineStr">
         <is>
-          <t>40 x R$ 745,00</t>
+          <t>38 x R$ 779,00</t>
         </is>
       </c>
       <c r="I22" s="3" t="inlineStr"/>
@@ -1440,17 +1441,17 @@
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>38700,00</t>
+          <t>37520,00</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>18435,00</t>
+          <t>18776,00</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>38</t>
         </is>
       </c>
       <c r="F23" s="3" t="inlineStr">
@@ -1465,7 +1466,7 @@
       </c>
       <c r="H23" s="3" t="inlineStr">
         <is>
-          <t>30 x R$ 1054,00</t>
+          <t>38 x R$ 804,00</t>
         </is>
       </c>
       <c r="I23" s="3" t="inlineStr"/>
@@ -1484,22 +1485,22 @@
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>39090,00</t>
+          <t>37520,00</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>14954,50</t>
+          <t>19676,00</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F24" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú</t>
         </is>
       </c>
       <c r="G24" s="3" t="inlineStr">
@@ -1509,7 +1510,7 @@
       </c>
       <c r="H24" s="3" t="inlineStr">
         <is>
-          <t>30 x R$ 1276,00</t>
+          <t>40 x R$ 745,00</t>
         </is>
       </c>
       <c r="I24" s="3" t="inlineStr"/>
@@ -1528,17 +1529,17 @@
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>39270,00</t>
+          <t>38700,00</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
         <is>
-          <t>18963,50</t>
+          <t>18435,00</t>
         </is>
       </c>
       <c r="E25" s="3" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F25" s="3" t="inlineStr">
@@ -1553,7 +1554,7 @@
       </c>
       <c r="H25" s="3" t="inlineStr">
         <is>
-          <t>31 x R$ 1095,00</t>
+          <t>30 x R$ 1054,00</t>
         </is>
       </c>
       <c r="I25" s="3" t="inlineStr"/>
@@ -1572,22 +1573,22 @@
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>39340,00</t>
+          <t>39090,00</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>15967,00</t>
+          <t>14954,50</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F26" s="3" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G26" s="3" t="inlineStr">
@@ -1597,7 +1598,7 @@
       </c>
       <c r="H26" s="3" t="inlineStr">
         <is>
-          <t>31 x R$ 1178,00</t>
+          <t>30 x R$ 1276,00</t>
         </is>
       </c>
       <c r="I26" s="3" t="inlineStr"/>
@@ -1616,12 +1617,12 @@
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>39530,00</t>
+          <t>39270,00</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t>13476,50</t>
+          <t>18963,50</t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
@@ -1631,7 +1632,7 @@
       </c>
       <c r="F27" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú</t>
         </is>
       </c>
       <c r="G27" s="3" t="inlineStr">
@@ -1641,7 +1642,7 @@
       </c>
       <c r="H27" s="3" t="inlineStr">
         <is>
-          <t>31 x R$ 1262,00</t>
+          <t>31 x R$ 1095,00</t>
         </is>
       </c>
       <c r="I27" s="3" t="inlineStr"/>
@@ -1660,17 +1661,17 @@
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>39540,00</t>
+          <t>39340,00</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>14977,00</t>
+          <t>15967,00</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F28" s="3" t="inlineStr">
@@ -1685,7 +1686,7 @@
       </c>
       <c r="H28" s="3" t="inlineStr">
         <is>
-          <t>30 x R$ 1381,00</t>
+          <t>31 x R$ 1178,00</t>
         </is>
       </c>
       <c r="I28" s="3" t="inlineStr"/>
@@ -1704,22 +1705,22 @@
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>40700,00</t>
+          <t>39530,00</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>19035,00</t>
+          <t>13476,50</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F29" s="3" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G29" s="3" t="inlineStr">
@@ -1729,7 +1730,7 @@
       </c>
       <c r="H29" s="3" t="inlineStr">
         <is>
-          <t>49 x R$ 846,00</t>
+          <t>31 x R$ 1262,00</t>
         </is>
       </c>
       <c r="I29" s="3" t="inlineStr"/>
@@ -1748,17 +1749,17 @@
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>41870,00</t>
+          <t>39540,00</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>11993,50</t>
+          <t>14977,00</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F30" s="3" t="inlineStr">
@@ -1773,7 +1774,7 @@
       </c>
       <c r="H30" s="3" t="inlineStr">
         <is>
-          <t>18 x R$ 2123,00</t>
+          <t>30 x R$ 1381,00</t>
         </is>
       </c>
       <c r="I30" s="3" t="inlineStr"/>
@@ -1792,22 +1793,22 @@
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>44170,00</t>
+          <t>40000,00</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
         <is>
-          <t>12708,50</t>
+          <t>15000,00</t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F31" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú</t>
         </is>
       </c>
       <c r="G31" s="3" t="inlineStr">
@@ -1817,7 +1818,7 @@
       </c>
       <c r="H31" s="3" t="inlineStr">
         <is>
-          <t>27 x R$ 1685,00</t>
+          <t>30 x R$ 1583,00</t>
         </is>
       </c>
       <c r="I31" s="3" t="inlineStr"/>
@@ -1836,17 +1837,17 @@
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>44350,00</t>
+          <t>41870,00</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>16917,50</t>
+          <t>11993,50</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F32" s="3" t="inlineStr">
@@ -1861,7 +1862,7 @@
       </c>
       <c r="H32" s="3" t="inlineStr">
         <is>
-          <t>38 x R$ 1133,00</t>
+          <t>18 x R$ 2123,00</t>
         </is>
       </c>
       <c r="I32" s="3" t="inlineStr"/>
@@ -1880,22 +1881,22 @@
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>44380,00</t>
+          <t>44000,00</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
         <is>
-          <t>23719,00</t>
+          <t>21200,00</t>
         </is>
       </c>
       <c r="E33" s="3" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F33" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú</t>
         </is>
       </c>
       <c r="G33" s="3" t="inlineStr">
@@ -1905,7 +1906,7 @@
       </c>
       <c r="H33" s="3" t="inlineStr">
         <is>
-          <t>34 x R$ 954,00</t>
+          <t>43 x R$ 905,90</t>
         </is>
       </c>
       <c r="I33" s="3" t="inlineStr"/>
@@ -1924,17 +1925,17 @@
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>44480,00</t>
+          <t>44170,00</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
         <is>
-          <t>15224,00</t>
+          <t>12708,50</t>
         </is>
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F34" s="3" t="inlineStr">
@@ -1949,7 +1950,7 @@
       </c>
       <c r="H34" s="3" t="inlineStr">
         <is>
-          <t>31 x R$ 1419,00</t>
+          <t>27 x R$ 1685,00</t>
         </is>
       </c>
       <c r="I34" s="3" t="inlineStr"/>
@@ -1968,17 +1969,17 @@
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>44500,00</t>
+          <t>44350,00</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
         <is>
-          <t>13725,00</t>
+          <t>16917,50</t>
         </is>
       </c>
       <c r="E35" s="3" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>38</t>
         </is>
       </c>
       <c r="F35" s="3" t="inlineStr">
@@ -1993,7 +1994,7 @@
       </c>
       <c r="H35" s="3" t="inlineStr">
         <is>
-          <t>28 x R$ 1855,00</t>
+          <t>38 x R$ 1133,00</t>
         </is>
       </c>
       <c r="I35" s="3" t="inlineStr"/>
@@ -2012,17 +2013,17 @@
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>51840,00</t>
+          <t>44380,00</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
         <is>
-          <t>21592,00</t>
+          <t>23719,00</t>
         </is>
       </c>
       <c r="E36" s="3" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F36" s="3" t="inlineStr">
@@ -2037,7 +2038,7 @@
       </c>
       <c r="H36" s="3" t="inlineStr">
         <is>
-          <t>48 x R$ 1035,00</t>
+          <t>34 x R$ 954,00</t>
         </is>
       </c>
       <c r="I36" s="3" t="inlineStr"/>
@@ -2056,17 +2057,17 @@
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>52910,00</t>
+          <t>44480,00</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
         <is>
-          <t>14845,50</t>
+          <t>15224,00</t>
         </is>
       </c>
       <c r="E37" s="3" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F37" s="3" t="inlineStr">
@@ -2081,7 +2082,7 @@
       </c>
       <c r="H37" s="3" t="inlineStr">
         <is>
-          <t>28 x R$ 1979,00</t>
+          <t>31 x R$ 1419,00</t>
         </is>
       </c>
       <c r="I37" s="3" t="inlineStr"/>
@@ -2100,22 +2101,22 @@
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>55300,00</t>
+          <t>44500,00</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
         <is>
-          <t>24765,00</t>
+          <t>13725,00</t>
         </is>
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F38" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú</t>
         </is>
       </c>
       <c r="G38" s="3" t="inlineStr">
@@ -2125,7 +2126,7 @@
       </c>
       <c r="H38" s="3" t="inlineStr">
         <is>
-          <t>37 x R$ 1268,00</t>
+          <t>28 x R$ 1855,00</t>
         </is>
       </c>
       <c r="I38" s="3" t="inlineStr"/>
@@ -2144,17 +2145,17 @@
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>60250,00</t>
+          <t>51840,00</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
         <is>
-          <t>25512,50</t>
+          <t>21592,00</t>
         </is>
       </c>
       <c r="E39" s="3" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F39" s="3" t="inlineStr">
@@ -2169,7 +2170,7 @@
       </c>
       <c r="H39" s="3" t="inlineStr">
         <is>
-          <t>40 x R$ 1340,00</t>
+          <t>48 x R$ 1035,00</t>
         </is>
       </c>
       <c r="I39" s="3" t="inlineStr"/>
@@ -2188,17 +2189,17 @@
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>60500,00</t>
+          <t>52910,00</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
         <is>
-          <t>23525,00</t>
+          <t>14845,50</t>
         </is>
       </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F40" s="3" t="inlineStr">
@@ -2213,7 +2214,7 @@
       </c>
       <c r="H40" s="3" t="inlineStr">
         <is>
-          <t>33 x R$ 1721,00</t>
+          <t>28 x R$ 1979,00</t>
         </is>
       </c>
       <c r="I40" s="3" t="inlineStr"/>
@@ -2232,17 +2233,17 @@
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>60700,00</t>
+          <t>55300,00</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
         <is>
-          <t>25035,00</t>
+          <t>24765,00</t>
         </is>
       </c>
       <c r="E41" s="3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>37</t>
         </is>
       </c>
       <c r="F41" s="3" t="inlineStr">
@@ -2257,7 +2258,7 @@
       </c>
       <c r="H41" s="3" t="inlineStr">
         <is>
-          <t>35 x R$ 1506,00</t>
+          <t>37 x R$ 1268,00</t>
         </is>
       </c>
       <c r="I41" s="3" t="inlineStr"/>
@@ -2276,17 +2277,17 @@
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>65770,00</t>
+          <t>60500,00</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
         <is>
-          <t>22788,50</t>
+          <t>23525,00</t>
         </is>
       </c>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F42" s="3" t="inlineStr">
@@ -2301,7 +2302,7 @@
       </c>
       <c r="H42" s="3" t="inlineStr">
         <is>
-          <t>28 x R$ 2242,00</t>
+          <t>33 x R$ 1721,00</t>
         </is>
       </c>
       <c r="I42" s="3" t="inlineStr"/>
@@ -2320,17 +2321,17 @@
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>66680,00</t>
+          <t>60700,00</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
         <is>
-          <t>13834,00</t>
+          <t>25035,00</t>
         </is>
       </c>
       <c r="E43" s="3" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F43" s="3" t="inlineStr">
@@ -2345,7 +2346,7 @@
       </c>
       <c r="H43" s="3" t="inlineStr">
         <is>
-          <t>25 x R$ 3000,00</t>
+          <t>35 x R$ 1506,00</t>
         </is>
       </c>
       <c r="I43" s="3" t="inlineStr"/>
@@ -2364,22 +2365,22 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>67300,00</t>
+          <t>65770,00</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t>17865,00</t>
+          <t>22788,50</t>
         </is>
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F44" s="3" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G44" s="3" t="inlineStr">
@@ -2389,7 +2390,7 @@
       </c>
       <c r="H44" s="3" t="inlineStr">
         <is>
-          <t>33 x R$ 2586,00</t>
+          <t>28 x R$ 2242,00</t>
         </is>
       </c>
       <c r="I44" s="3" t="inlineStr"/>
@@ -2408,22 +2409,22 @@
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>67700,00</t>
+          <t>66680,00</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
         <is>
-          <t>31385,00</t>
+          <t>13834,00</t>
         </is>
       </c>
       <c r="E45" s="3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F45" s="3" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G45" s="3" t="inlineStr">
@@ -2433,7 +2434,7 @@
       </c>
       <c r="H45" s="3" t="inlineStr">
         <is>
-          <t>54 x R$ 1250,00</t>
+          <t>25 x R$ 3000,00</t>
         </is>
       </c>
       <c r="I45" s="3" t="inlineStr"/>
@@ -2452,22 +2453,22 @@
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>74140,00</t>
+          <t>67300,00</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
         <is>
-          <t>38707,00</t>
+          <t>17865,00</t>
         </is>
       </c>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F46" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú</t>
         </is>
       </c>
       <c r="G46" s="3" t="inlineStr">
@@ -2477,7 +2478,7 @@
       </c>
       <c r="H46" s="3" t="inlineStr">
         <is>
-          <t>31 x R$ 1752,00</t>
+          <t>33 x R$ 2586,00</t>
         </is>
       </c>
       <c r="I46" s="3" t="inlineStr"/>
@@ -2496,17 +2497,17 @@
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>88200,00</t>
+          <t>74140,00</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
         <is>
-          <t>49410,00</t>
+          <t>38707,00</t>
         </is>
       </c>
       <c r="E47" s="3" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F47" s="3" t="inlineStr">
@@ -2521,7 +2522,7 @@
       </c>
       <c r="H47" s="3" t="inlineStr">
         <is>
-          <t>37 x R$ 1597,00</t>
+          <t>31 x R$ 1752,00</t>
         </is>
       </c>
       <c r="I47" s="3" t="inlineStr"/>
@@ -2540,17 +2541,17 @@
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>110000,00</t>
+          <t>88200,00</t>
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr">
         <is>
-          <t>39500,00</t>
+          <t>49410,00</t>
         </is>
       </c>
       <c r="E48" s="3" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>37</t>
         </is>
       </c>
       <c r="F48" s="3" t="inlineStr">
@@ -2565,7 +2566,7 @@
       </c>
       <c r="H48" s="3" t="inlineStr">
         <is>
-          <t>29 x R$ 3561,00</t>
+          <t>37 x R$ 1597,00</t>
         </is>
       </c>
       <c r="I48" s="3" t="inlineStr"/>
@@ -2584,17 +2585,17 @@
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>125000,00</t>
+          <t>110000,00</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
         <is>
-          <t>54250,00</t>
+          <t>39500,00</t>
         </is>
       </c>
       <c r="E49" s="3" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F49" s="3" t="inlineStr">
@@ -2609,7 +2610,7 @@
       </c>
       <c r="H49" s="3" t="inlineStr">
         <is>
-          <t>77 x R$ 1798,00</t>
+          <t>29 x R$ 3561,00</t>
         </is>
       </c>
       <c r="I49" s="3" t="inlineStr"/>
@@ -2628,17 +2629,17 @@
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>125630,00</t>
+          <t>110850,00</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
         <is>
-          <t>50281,50</t>
+          <t>26542,50</t>
         </is>
       </c>
       <c r="E50" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F50" s="3" t="inlineStr">
@@ -2653,7 +2654,8 @@
       </c>
       <c r="H50" s="3" t="inlineStr">
         <is>
-          <t>72 x R$ 1946,00</t>
+          <t>25 x R$ 4685,00
+2 x R$ 1685,00</t>
         </is>
       </c>
       <c r="I50" s="3" t="inlineStr"/>
@@ -2672,17 +2674,17 @@
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>132500,00</t>
+          <t>125630,00</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
         <is>
-          <t>64625,00</t>
+          <t>50281,50</t>
         </is>
       </c>
       <c r="E51" s="3" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F51" s="3" t="inlineStr">
@@ -2697,7 +2699,7 @@
       </c>
       <c r="H51" s="3" t="inlineStr">
         <is>
-          <t>67 x R$ 1803,00</t>
+          <t>72 x R$ 1946,00</t>
         </is>
       </c>
       <c r="I51" s="3" t="inlineStr"/>
@@ -2724,10 +2726,8 @@
           <t>38930,00</t>
         </is>
       </c>
-      <c r="E52" s="3" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="E52" s="3" t="n">
+        <v>36</v>
       </c>
       <c r="F52" s="3" t="inlineStr">
         <is>
@@ -2768,10 +2768,8 @@
           <t>60500,00</t>
         </is>
       </c>
-      <c r="E53" s="3" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
+      <c r="E53" s="3" t="n">
+        <v>41</v>
       </c>
       <c r="F53" s="3" t="inlineStr">
         <is>
@@ -2812,10 +2810,8 @@
           <t>101900,00</t>
         </is>
       </c>
-      <c r="E54" s="3" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
+      <c r="E54" s="3" t="n">
+        <v>17</v>
       </c>
       <c r="F54" s="3" t="inlineStr">
         <is>
@@ -2856,10 +2852,8 @@
           <t>97500,00</t>
         </is>
       </c>
-      <c r="E55" s="3" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
+      <c r="E55" s="3" t="n">
+        <v>57</v>
       </c>
       <c r="F55" s="3" t="inlineStr">
         <is>
@@ -2892,17 +2886,17 @@
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>221500,00</t>
+          <t>222250,00</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
         <is>
-          <t>96075,00</t>
+          <t>98112,50</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>58</t>
         </is>
       </c>
       <c r="F56" s="3" t="inlineStr">
@@ -2917,7 +2911,7 @@
       </c>
       <c r="H56" s="3" t="inlineStr">
         <is>
-          <t>59 x R$ 3536,00</t>
+          <t>58 x R$ 3536,00</t>
         </is>
       </c>
       <c r="I56" s="3" t="inlineStr"/>
@@ -2944,10 +2938,8 @@
           <t>336919,00</t>
         </is>
       </c>
-      <c r="E57" s="3" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
+      <c r="E57" s="3" t="n">
+        <v>79</v>
       </c>
       <c r="F57" s="3" t="inlineStr">
         <is>
@@ -2990,10 +2982,8 @@
           <t>31147,50</t>
         </is>
       </c>
-      <c r="E58" s="3" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="E58" s="3" t="n">
+        <v>33</v>
       </c>
       <c r="F58" s="3" t="inlineStr">
         <is>
@@ -3027,17 +3017,17 @@
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>39090,00</t>
+          <t>132500,00</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
         <is>
-          <t>13454,50</t>
+          <t>64625,00</t>
         </is>
       </c>
       <c r="E59" s="3" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>67</t>
         </is>
       </c>
       <c r="F59" s="3" t="inlineStr">
@@ -3052,7 +3042,7 @@
       </c>
       <c r="H59" s="3" t="inlineStr">
         <is>
-          <t>30 x R$ 1337,00</t>
+          <t>67 x R$ 1803,00</t>
         </is>
       </c>
       <c r="I59" s="3" t="inlineStr"/>
@@ -3071,17 +3061,17 @@
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>52980,00</t>
+          <t>39090,00</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr">
         <is>
-          <t>18849,00</t>
+          <t>13454,50</t>
         </is>
       </c>
       <c r="E60" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F60" s="3" t="inlineStr">
@@ -3096,7 +3086,7 @@
       </c>
       <c r="H60" s="3" t="inlineStr">
         <is>
-          <t>39 x R$ 1347,00</t>
+          <t>30 x R$ 1337,00</t>
         </is>
       </c>
       <c r="I60" s="3" t="inlineStr"/>
@@ -3115,17 +3105,17 @@
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>52660,00</t>
+          <t>60250,00</t>
         </is>
       </c>
       <c r="D61" s="3" t="inlineStr">
         <is>
-          <t>14133,00</t>
+          <t>25512,50</t>
         </is>
       </c>
       <c r="E61" s="3" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F61" s="3" t="inlineStr">
@@ -3140,7 +3130,7 @@
       </c>
       <c r="H61" s="3" t="inlineStr">
         <is>
-          <t>37 x R$ 1564,00</t>
+          <t>40 x R$ 1340,00</t>
         </is>
       </c>
       <c r="I61" s="3" t="inlineStr"/>
@@ -3159,17 +3149,17 @@
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>63860,00</t>
+          <t>52980,00</t>
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr">
         <is>
-          <t>17693,00</t>
+          <t>18849,00</t>
         </is>
       </c>
       <c r="E62" s="3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F62" s="3" t="inlineStr">
@@ -3184,7 +3174,7 @@
       </c>
       <c r="H62" s="3" t="inlineStr">
         <is>
-          <t>33 x R$ 2032,00</t>
+          <t>39 x R$ 1347,00</t>
         </is>
       </c>
       <c r="I62" s="3" t="inlineStr"/>
@@ -3203,17 +3193,17 @@
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>64240,00</t>
+          <t>52660,00</t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr">
         <is>
-          <t>20012,00</t>
+          <t>14133,00</t>
         </is>
       </c>
       <c r="E63" s="3" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>37</t>
         </is>
       </c>
       <c r="F63" s="3" t="inlineStr">
@@ -3228,7 +3218,7 @@
       </c>
       <c r="H63" s="3" t="inlineStr">
         <is>
-          <t>31 x R$ 2079,00</t>
+          <t>37 x R$ 1564,00</t>
         </is>
       </c>
       <c r="I63" s="3" t="inlineStr"/>
@@ -3247,168 +3237,168 @@
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
+          <t>63860,00</t>
+        </is>
+      </c>
+      <c r="D64" s="3" t="inlineStr">
+        <is>
+          <t>17693,00</t>
+        </is>
+      </c>
+      <c r="E64" s="3" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F64" s="3" t="inlineStr">
+        <is>
+          <t>Porto Seguro</t>
+        </is>
+      </c>
+      <c r="G64" s="3" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H64" s="3" t="inlineStr">
+        <is>
+          <t>33 x R$ 2032,00</t>
+        </is>
+      </c>
+      <c r="I64" s="3" t="inlineStr"/>
+      <c r="J64" s="3" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="inlineStr">
+        <is>
+          <t>CC1064</t>
+        </is>
+      </c>
+      <c r="B65" s="3" t="inlineStr">
+        <is>
+          <t>Veículos</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="inlineStr">
+        <is>
+          <t>64240,00</t>
+        </is>
+      </c>
+      <c r="D65" s="3" t="inlineStr">
+        <is>
+          <t>20012,00</t>
+        </is>
+      </c>
+      <c r="E65" s="3" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="F65" s="3" t="inlineStr">
+        <is>
+          <t>Porto Seguro</t>
+        </is>
+      </c>
+      <c r="G65" s="3" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H65" s="3" t="inlineStr">
+        <is>
+          <t>31 x R$ 2079,00</t>
+        </is>
+      </c>
+      <c r="I65" s="3" t="inlineStr"/>
+      <c r="J65" s="3" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="inlineStr">
+        <is>
+          <t>CC1065</t>
+        </is>
+      </c>
+      <c r="B66" s="3" t="inlineStr">
+        <is>
+          <t>Veículos</t>
+        </is>
+      </c>
+      <c r="C66" s="3" t="inlineStr">
+        <is>
           <t>471000,00</t>
         </is>
       </c>
-      <c r="D64" s="3" t="inlineStr">
+      <c r="D66" s="3" t="inlineStr">
         <is>
           <t>201550,00</t>
         </is>
       </c>
-      <c r="E64" s="3" t="inlineStr">
+      <c r="E66" s="3" t="inlineStr">
         <is>
           <t>113</t>
         </is>
       </c>
-      <c r="F64" s="3" t="inlineStr">
+      <c r="F66" s="3" t="inlineStr">
         <is>
           <t>Porto Seguro</t>
         </is>
       </c>
-      <c r="G64" s="3" t="inlineStr">
-        <is>
-          <t>Disponível</t>
-        </is>
-      </c>
-      <c r="H64" s="3" t="inlineStr">
+      <c r="G66" s="3" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H66" s="3" t="inlineStr">
         <is>
           <t>98 x R$ 4713,00
 15 x R$ 2580,00</t>
         </is>
       </c>
-      <c r="I64" s="3" t="inlineStr"/>
-      <c r="J64" s="3" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="3" t="inlineStr">
-        <is>
-          <t>CC1064</t>
-        </is>
-      </c>
-      <c r="B65" s="3" t="inlineStr">
+      <c r="I66" s="3" t="inlineStr"/>
+      <c r="J66" s="3" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="inlineStr">
+        <is>
+          <t>CC1066</t>
+        </is>
+      </c>
+      <c r="B67" s="3" t="inlineStr">
         <is>
           <t>Imóveis</t>
         </is>
       </c>
-      <c r="C65" s="3" t="inlineStr">
+      <c r="C67" s="3" t="inlineStr">
         <is>
           <t>49200,00</t>
         </is>
       </c>
-      <c r="D65" s="3" t="inlineStr">
+      <c r="D67" s="3" t="inlineStr">
         <is>
           <t>26260,00</t>
         </is>
       </c>
-      <c r="E65" s="3" t="inlineStr">
+      <c r="E67" s="3" t="inlineStr">
         <is>
           <t>188</t>
         </is>
       </c>
-      <c r="F65" s="3" t="inlineStr">
+      <c r="F67" s="3" t="inlineStr">
         <is>
           <t>Porto Seguro</t>
         </is>
       </c>
-      <c r="G65" s="3" t="inlineStr">
-        <is>
-          <t>Disponível</t>
-        </is>
-      </c>
-      <c r="H65" s="3" t="inlineStr">
+      <c r="G67" s="3" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H67" s="3" t="inlineStr">
         <is>
           <t>1 x R$ 422,00
 187 x R$ 256,00</t>
         </is>
       </c>
-      <c r="I65" s="3" t="inlineStr"/>
-      <c r="J65" s="3" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="3" t="inlineStr">
-        <is>
-          <t>CC1065</t>
-        </is>
-      </c>
-      <c r="B66" s="3" t="inlineStr">
-        <is>
-          <t>Imóveis</t>
-        </is>
-      </c>
-      <c r="C66" s="3" t="inlineStr">
-        <is>
-          <t>53700,00</t>
-        </is>
-      </c>
-      <c r="D66" s="3" t="inlineStr">
-        <is>
-          <t>29185,00</t>
-        </is>
-      </c>
-      <c r="E66" s="3" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="F66" s="3" t="inlineStr">
-        <is>
-          <t>Itaú</t>
-        </is>
-      </c>
-      <c r="G66" s="3" t="inlineStr">
-        <is>
-          <t>Disponível</t>
-        </is>
-      </c>
-      <c r="H66" s="3" t="inlineStr">
-        <is>
-          <t>163 x R$ 377,60</t>
-        </is>
-      </c>
-      <c r="I66" s="3" t="inlineStr"/>
-      <c r="J66" s="3" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="3" t="inlineStr">
-        <is>
-          <t>CC1066</t>
-        </is>
-      </c>
-      <c r="B67" s="3" t="inlineStr">
-        <is>
-          <t>Imóveis</t>
-        </is>
-      </c>
-      <c r="C67" s="3" t="inlineStr">
-        <is>
-          <t>69700,00</t>
-        </is>
-      </c>
-      <c r="D67" s="3" t="inlineStr">
-        <is>
-          <t>38485,00</t>
-        </is>
-      </c>
-      <c r="E67" s="3" t="inlineStr">
-        <is>
-          <t>138</t>
-        </is>
-      </c>
-      <c r="F67" s="3" t="inlineStr">
-        <is>
-          <t>Itaú</t>
-        </is>
-      </c>
-      <c r="G67" s="3" t="inlineStr">
-        <is>
-          <t>Disponível</t>
-        </is>
-      </c>
-      <c r="H67" s="3" t="inlineStr">
-        <is>
-          <t>138 x R$ 485,00</t>
-        </is>
-      </c>
       <c r="I67" s="3" t="inlineStr"/>
       <c r="J67" s="3" t="inlineStr"/>
     </row>
@@ -3425,123 +3415,123 @@
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
+          <t>53700,00</t>
+        </is>
+      </c>
+      <c r="D68" s="3" t="inlineStr">
+        <is>
+          <t>29185,00</t>
+        </is>
+      </c>
+      <c r="E68" s="3" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="F68" s="3" t="inlineStr">
+        <is>
+          <t>Itaú</t>
+        </is>
+      </c>
+      <c r="G68" s="3" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H68" s="3" t="inlineStr">
+        <is>
+          <t>163 x R$ 377,60</t>
+        </is>
+      </c>
+      <c r="I68" s="3" t="inlineStr"/>
+      <c r="J68" s="3" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="inlineStr">
+        <is>
+          <t>CC1068</t>
+        </is>
+      </c>
+      <c r="B69" s="3" t="inlineStr">
+        <is>
+          <t>Imóveis</t>
+        </is>
+      </c>
+      <c r="C69" s="3" t="inlineStr">
+        <is>
+          <t>69700,00</t>
+        </is>
+      </c>
+      <c r="D69" s="3" t="inlineStr">
+        <is>
+          <t>38485,00</t>
+        </is>
+      </c>
+      <c r="E69" s="3" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="F69" s="3" t="inlineStr">
+        <is>
+          <t>Itaú</t>
+        </is>
+      </c>
+      <c r="G69" s="3" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H69" s="3" t="inlineStr">
+        <is>
+          <t>138 x R$ 485,00</t>
+        </is>
+      </c>
+      <c r="I69" s="3" t="inlineStr"/>
+      <c r="J69" s="3" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="inlineStr">
+        <is>
+          <t>CC1069</t>
+        </is>
+      </c>
+      <c r="B70" s="3" t="inlineStr">
+        <is>
+          <t>Imóveis</t>
+        </is>
+      </c>
+      <c r="C70" s="3" t="inlineStr">
+        <is>
           <t>70000,00</t>
         </is>
       </c>
-      <c r="D68" s="3" t="inlineStr">
+      <c r="D70" s="3" t="inlineStr">
         <is>
           <t>35000,00</t>
         </is>
       </c>
-      <c r="E68" s="3" t="inlineStr">
+      <c r="E70" s="3" t="inlineStr">
         <is>
           <t>192</t>
         </is>
       </c>
-      <c r="F68" s="3" t="inlineStr">
+      <c r="F70" s="3" t="inlineStr">
         <is>
           <t>Porto Seguro</t>
         </is>
       </c>
-      <c r="G68" s="3" t="inlineStr">
-        <is>
-          <t>Disponível</t>
-        </is>
-      </c>
-      <c r="H68" s="3" t="inlineStr">
+      <c r="G70" s="3" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H70" s="3" t="inlineStr">
         <is>
           <t>22 x R$ 463,00
 170 x R$ 380,00</t>
         </is>
       </c>
-      <c r="I68" s="3" t="inlineStr"/>
-      <c r="J68" s="3" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="3" t="inlineStr">
-        <is>
-          <t>CC1068</t>
-        </is>
-      </c>
-      <c r="B69" s="3" t="inlineStr">
-        <is>
-          <t>Imóveis</t>
-        </is>
-      </c>
-      <c r="C69" s="3" t="inlineStr">
-        <is>
-          <t>70180,00</t>
-        </is>
-      </c>
-      <c r="D69" s="3" t="inlineStr">
-        <is>
-          <t>41509,00</t>
-        </is>
-      </c>
-      <c r="E69" s="3" t="inlineStr">
-        <is>
-          <t>192</t>
-        </is>
-      </c>
-      <c r="F69" s="3" t="inlineStr">
-        <is>
-          <t>Porto Seguro</t>
-        </is>
-      </c>
-      <c r="G69" s="3" t="inlineStr">
-        <is>
-          <t>Disponível</t>
-        </is>
-      </c>
-      <c r="H69" s="3" t="inlineStr">
-        <is>
-          <t>192 x R$ 470,00</t>
-        </is>
-      </c>
-      <c r="I69" s="3" t="inlineStr"/>
-      <c r="J69" s="3" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="3" t="inlineStr">
-        <is>
-          <t>CC1069</t>
-        </is>
-      </c>
-      <c r="B70" s="3" t="inlineStr">
-        <is>
-          <t>Imóveis</t>
-        </is>
-      </c>
-      <c r="C70" s="3" t="inlineStr">
-        <is>
-          <t>79700,00</t>
-        </is>
-      </c>
-      <c r="D70" s="3" t="inlineStr">
-        <is>
-          <t>40985,00</t>
-        </is>
-      </c>
-      <c r="E70" s="3" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="F70" s="3" t="inlineStr">
-        <is>
-          <t>Itaú</t>
-        </is>
-      </c>
-      <c r="G70" s="3" t="inlineStr">
-        <is>
-          <t>Disponível</t>
-        </is>
-      </c>
-      <c r="H70" s="3" t="inlineStr">
-        <is>
-          <t>163 x R$ 560,00</t>
-        </is>
-      </c>
       <c r="I70" s="3" t="inlineStr"/>
       <c r="J70" s="3" t="inlineStr"/>
     </row>
@@ -3558,22 +3548,22 @@
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>80000,00</t>
+          <t>79700,00</t>
         </is>
       </c>
       <c r="D71" s="3" t="inlineStr">
         <is>
-          <t>52000,00</t>
+          <t>40985,00</t>
         </is>
       </c>
       <c r="E71" s="3" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>163</t>
         </is>
       </c>
       <c r="F71" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú</t>
         </is>
       </c>
       <c r="G71" s="3" t="inlineStr">
@@ -3583,7 +3573,7 @@
       </c>
       <c r="H71" s="3" t="inlineStr">
         <is>
-          <t>152 x R$ 435,00</t>
+          <t>163 x R$ 560,00</t>
         </is>
       </c>
       <c r="I71" s="3" t="inlineStr"/>
@@ -3602,22 +3592,22 @@
       </c>
       <c r="C72" s="3" t="inlineStr">
         <is>
-          <t>86000,00</t>
+          <t>80000,00</t>
         </is>
       </c>
       <c r="D72" s="3" t="inlineStr">
         <is>
-          <t>47300,00</t>
+          <t>52000,00</t>
         </is>
       </c>
       <c r="E72" s="3" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>152</t>
         </is>
       </c>
       <c r="F72" s="3" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G72" s="3" t="inlineStr">
@@ -3627,7 +3617,7 @@
       </c>
       <c r="H72" s="3" t="inlineStr">
         <is>
-          <t>111 x R$ 588,00</t>
+          <t>152 x R$ 435,00</t>
         </is>
       </c>
       <c r="I72" s="3" t="inlineStr"/>
@@ -3646,22 +3636,22 @@
       </c>
       <c r="C73" s="3" t="inlineStr">
         <is>
-          <t>87500,00</t>
+          <t>86000,00</t>
         </is>
       </c>
       <c r="D73" s="3" t="inlineStr">
         <is>
-          <t>44875,00</t>
+          <t>47300,00</t>
         </is>
       </c>
       <c r="E73" s="3" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>111</t>
         </is>
       </c>
       <c r="F73" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G73" s="3" t="inlineStr">
@@ -3671,7 +3661,7 @@
       </c>
       <c r="H73" s="3" t="inlineStr">
         <is>
-          <t>133 x R$ 723,00</t>
+          <t>111 x R$ 588,00</t>
         </is>
       </c>
       <c r="I73" s="3" t="inlineStr"/>
@@ -3690,22 +3680,22 @@
       </c>
       <c r="C74" s="3" t="inlineStr">
         <is>
-          <t>96400,00</t>
+          <t>96500,00</t>
         </is>
       </c>
       <c r="D74" s="3" t="inlineStr">
         <is>
-          <t>25820,00</t>
+          <t>41825,00</t>
         </is>
       </c>
       <c r="E74" s="3" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>140</t>
         </is>
       </c>
       <c r="F74" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G74" s="3" t="inlineStr">
@@ -3715,8 +3705,7 @@
       </c>
       <c r="H74" s="3" t="inlineStr">
         <is>
-          <t>03 x R$ 2491,00
-58 x R$ 1934,00</t>
+          <t>140 x R$ 683,00</t>
         </is>
       </c>
       <c r="I74" s="3" t="inlineStr"/>
@@ -3735,17 +3724,17 @@
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t>96500,00</t>
+          <t>102400,00</t>
         </is>
       </c>
       <c r="D75" s="3" t="inlineStr">
         <is>
-          <t>41825,00</t>
+          <t>48620,00</t>
         </is>
       </c>
       <c r="E75" s="3" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>175</t>
         </is>
       </c>
       <c r="F75" s="3" t="inlineStr">
@@ -3760,7 +3749,7 @@
       </c>
       <c r="H75" s="3" t="inlineStr">
         <is>
-          <t>140 x R$ 683,00</t>
+          <t>175 x R$ 710,60</t>
         </is>
       </c>
       <c r="I75" s="3" t="inlineStr"/>
@@ -3779,22 +3768,22 @@
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>99500,00</t>
+          <t>105000,00</t>
         </is>
       </c>
       <c r="D76" s="3" t="inlineStr">
         <is>
-          <t>57475,00</t>
+          <t>52250,00</t>
         </is>
       </c>
       <c r="E76" s="3" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>168</t>
         </is>
       </c>
       <c r="F76" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G76" s="3" t="inlineStr">
@@ -3804,7 +3793,7 @@
       </c>
       <c r="H76" s="3" t="inlineStr">
         <is>
-          <t>186 x R$ 554,00</t>
+          <t>168 x R$ 695,00</t>
         </is>
       </c>
       <c r="I76" s="3" t="inlineStr"/>
@@ -3823,22 +3812,22 @@
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t>102400,00</t>
+          <t>106300,00</t>
         </is>
       </c>
       <c r="D77" s="3" t="inlineStr">
         <is>
-          <t>48620,00</t>
+          <t>57815,00</t>
         </is>
       </c>
       <c r="E77" s="3" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>126</t>
         </is>
       </c>
       <c r="F77" s="3" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G77" s="3" t="inlineStr">
@@ -3848,7 +3837,7 @@
       </c>
       <c r="H77" s="3" t="inlineStr">
         <is>
-          <t>175 x R$ 710,60</t>
+          <t>126 x R$ 943,00</t>
         </is>
       </c>
       <c r="I77" s="3" t="inlineStr"/>
@@ -3867,17 +3856,17 @@
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>105000,00</t>
+          <t>108000,00</t>
         </is>
       </c>
       <c r="D78" s="3" t="inlineStr">
         <is>
-          <t>52250,00</t>
+          <t>46900,00</t>
         </is>
       </c>
       <c r="E78" s="3" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>137</t>
         </is>
       </c>
       <c r="F78" s="3" t="inlineStr">
@@ -3892,7 +3881,7 @@
       </c>
       <c r="H78" s="3" t="inlineStr">
         <is>
-          <t>168 x R$ 695,00</t>
+          <t>137 x R$ 930,00</t>
         </is>
       </c>
       <c r="I78" s="3" t="inlineStr"/>
@@ -3911,22 +3900,22 @@
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>106300,00</t>
+          <t>111000,00</t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
         <is>
-          <t>57815,00</t>
+          <t>56050,00</t>
         </is>
       </c>
       <c r="E79" s="3" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>130</t>
         </is>
       </c>
       <c r="F79" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G79" s="3" t="inlineStr">
@@ -3936,7 +3925,7 @@
       </c>
       <c r="H79" s="3" t="inlineStr">
         <is>
-          <t>126 x R$ 943,00</t>
+          <t>130 x R$ 924,00</t>
         </is>
       </c>
       <c r="I79" s="3" t="inlineStr"/>
@@ -3955,22 +3944,22 @@
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>108000,00</t>
+          <t>111200,00</t>
         </is>
       </c>
       <c r="D80" s="3" t="inlineStr">
         <is>
-          <t>46900,00</t>
+          <t>59060,00</t>
         </is>
       </c>
       <c r="E80" s="3" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>132</t>
         </is>
       </c>
       <c r="F80" s="3" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G80" s="3" t="inlineStr">
@@ -3980,7 +3969,7 @@
       </c>
       <c r="H80" s="3" t="inlineStr">
         <is>
-          <t>137 x R$ 930,00</t>
+          <t>132 x R$ 942,00</t>
         </is>
       </c>
       <c r="I80" s="3" t="inlineStr"/>
@@ -3999,17 +3988,17 @@
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>111000,00</t>
+          <t>112500,00</t>
         </is>
       </c>
       <c r="D81" s="3" t="inlineStr">
         <is>
-          <t>56050,00</t>
+          <t>54625,00</t>
         </is>
       </c>
       <c r="E81" s="3" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>163</t>
         </is>
       </c>
       <c r="F81" s="3" t="inlineStr">
@@ -4024,7 +4013,7 @@
       </c>
       <c r="H81" s="3" t="inlineStr">
         <is>
-          <t>130 x R$ 924,00</t>
+          <t>163 x R$ 790,82</t>
         </is>
       </c>
       <c r="I81" s="3" t="inlineStr"/>
@@ -4043,17 +4032,17 @@
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>111200,00</t>
+          <t>118020,00</t>
         </is>
       </c>
       <c r="D82" s="3" t="inlineStr">
         <is>
-          <t>59060,00</t>
+          <t>62901,00</t>
         </is>
       </c>
       <c r="E82" s="3" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>109</t>
         </is>
       </c>
       <c r="F82" s="3" t="inlineStr">
@@ -4068,7 +4057,7 @@
       </c>
       <c r="H82" s="3" t="inlineStr">
         <is>
-          <t>132 x R$ 942,00</t>
+          <t>109 x R$ 941,00</t>
         </is>
       </c>
       <c r="I82" s="3" t="inlineStr"/>
@@ -4087,22 +4076,22 @@
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>112500,00</t>
+          <t>120000,00</t>
         </is>
       </c>
       <c r="D83" s="3" t="inlineStr">
         <is>
-          <t>54625,00</t>
+          <t>60500,00</t>
         </is>
       </c>
       <c r="E83" s="3" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>153</t>
         </is>
       </c>
       <c r="F83" s="3" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G83" s="3" t="inlineStr">
@@ -4112,7 +4101,8 @@
       </c>
       <c r="H83" s="3" t="inlineStr">
         <is>
-          <t>163 x R$ 790,82</t>
+          <t>9 x R$ 1084,00
+144 x R$ 817,00</t>
         </is>
       </c>
       <c r="I83" s="3" t="inlineStr"/>
@@ -4131,17 +4121,17 @@
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>115300,00</t>
+          <t>123700,00</t>
         </is>
       </c>
       <c r="D84" s="3" t="inlineStr">
         <is>
-          <t>60265,00</t>
+          <t>61185,00</t>
         </is>
       </c>
       <c r="E84" s="3" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>111</t>
         </is>
       </c>
       <c r="F84" s="3" t="inlineStr">
@@ -4156,7 +4146,8 @@
       </c>
       <c r="H84" s="3" t="inlineStr">
         <is>
-          <t>153 x R$ 875,00</t>
+          <t>3 x R$ 1771,00
+108 x R$ 1083,00</t>
         </is>
       </c>
       <c r="I84" s="3" t="inlineStr"/>
@@ -4175,22 +4166,22 @@
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>118020,00</t>
+          <t>124000,00</t>
         </is>
       </c>
       <c r="D85" s="3" t="inlineStr">
         <is>
-          <t>62901,00</t>
+          <t>61700,00</t>
         </is>
       </c>
       <c r="E85" s="3" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>149</t>
         </is>
       </c>
       <c r="F85" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G85" s="3" t="inlineStr">
@@ -4200,7 +4191,7 @@
       </c>
       <c r="H85" s="3" t="inlineStr">
         <is>
-          <t>109 x R$ 941,00</t>
+          <t>149 x R$ 825,00</t>
         </is>
       </c>
       <c r="I85" s="3" t="inlineStr"/>
@@ -4219,22 +4210,22 @@
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>120000,00</t>
+          <t>125000,00</t>
         </is>
       </c>
       <c r="D86" s="3" t="inlineStr">
         <is>
-          <t>60500,00</t>
+          <t>62250,00</t>
         </is>
       </c>
       <c r="E86" s="3" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>152</t>
         </is>
       </c>
       <c r="F86" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G86" s="3" t="inlineStr">
@@ -4244,8 +4235,7 @@
       </c>
       <c r="H86" s="3" t="inlineStr">
         <is>
-          <t>9 x R$ 1084,00
-144 x R$ 817,00</t>
+          <t>152 x R$ 791,00</t>
         </is>
       </c>
       <c r="I86" s="3" t="inlineStr"/>
@@ -4264,22 +4254,22 @@
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>123740,00</t>
+          <t>135000,00</t>
         </is>
       </c>
       <c r="D87" s="3" t="inlineStr">
         <is>
-          <t>65687,00</t>
+          <t>75050,00</t>
         </is>
       </c>
       <c r="E87" s="3" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>129</t>
         </is>
       </c>
       <c r="F87" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú</t>
         </is>
       </c>
       <c r="G87" s="3" t="inlineStr">
@@ -4289,7 +4279,7 @@
       </c>
       <c r="H87" s="3" t="inlineStr">
         <is>
-          <t>99 x R$ 1078,00</t>
+          <t>129 x R$ 891,00</t>
         </is>
       </c>
       <c r="I87" s="3" t="inlineStr"/>
@@ -4308,22 +4298,22 @@
       </c>
       <c r="C88" s="3" t="inlineStr">
         <is>
-          <t>124000,00</t>
+          <t>135000,00</t>
         </is>
       </c>
       <c r="D88" s="3" t="inlineStr">
         <is>
-          <t>61700,00</t>
+          <t>70750,00</t>
         </is>
       </c>
       <c r="E88" s="3" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>147</t>
         </is>
       </c>
       <c r="F88" s="3" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G88" s="3" t="inlineStr">
@@ -4333,7 +4323,8 @@
       </c>
       <c r="H88" s="3" t="inlineStr">
         <is>
-          <t>149 x R$ 825,00</t>
+          <t>10 x R$ 1246,00
+137 x R$ 949,00</t>
         </is>
       </c>
       <c r="I88" s="3" t="inlineStr"/>
@@ -4352,22 +4343,22 @@
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>125000,00</t>
+          <t>135850,00</t>
         </is>
       </c>
       <c r="D89" s="3" t="inlineStr">
         <is>
-          <t>62250,00</t>
+          <t>55792,50</t>
         </is>
       </c>
       <c r="E89" s="3" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>106</t>
         </is>
       </c>
       <c r="F89" s="3" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Itaú</t>
         </is>
       </c>
       <c r="G89" s="3" t="inlineStr">
@@ -4377,7 +4368,7 @@
       </c>
       <c r="H89" s="3" t="inlineStr">
         <is>
-          <t>152 x R$ 791,00</t>
+          <t>106 x R$ 1407,00</t>
         </is>
       </c>
       <c r="I89" s="3" t="inlineStr"/>
@@ -4396,22 +4387,22 @@
       </c>
       <c r="C90" s="3" t="inlineStr">
         <is>
-          <t>129450,00</t>
+          <t>137200,00</t>
         </is>
       </c>
       <c r="D90" s="3" t="inlineStr">
         <is>
-          <t>82972,50</t>
+          <t>71860,00</t>
         </is>
       </c>
       <c r="E90" s="3" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>141</t>
         </is>
       </c>
       <c r="F90" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú</t>
         </is>
       </c>
       <c r="G90" s="3" t="inlineStr">
@@ -4421,8 +4412,7 @@
       </c>
       <c r="H90" s="3" t="inlineStr">
         <is>
-          <t>1 x R$ 1490,00
-95 x R$ 1187,00</t>
+          <t>141 x R$ 1098,00</t>
         </is>
       </c>
       <c r="I90" s="3" t="inlineStr"/>
@@ -4441,22 +4431,22 @@
       </c>
       <c r="C91" s="3" t="inlineStr">
         <is>
-          <t>135000,00</t>
+          <t>145000,00</t>
         </is>
       </c>
       <c r="D91" s="3" t="inlineStr">
         <is>
-          <t>75050,00</t>
+          <t>75750,00</t>
         </is>
       </c>
       <c r="E91" s="3" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>159</t>
         </is>
       </c>
       <c r="F91" s="3" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G91" s="3" t="inlineStr">
@@ -4466,7 +4456,7 @@
       </c>
       <c r="H91" s="3" t="inlineStr">
         <is>
-          <t>129 x R$ 891,00</t>
+          <t>159 x R$ 1060,00</t>
         </is>
       </c>
       <c r="I91" s="3" t="inlineStr"/>
@@ -4485,22 +4475,22 @@
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
-          <t>135000,00</t>
+          <t>148000,00</t>
         </is>
       </c>
       <c r="D92" s="3" t="inlineStr">
         <is>
-          <t>70750,00</t>
+          <t>78500,00</t>
         </is>
       </c>
       <c r="E92" s="3" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>61</t>
         </is>
       </c>
       <c r="F92" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú</t>
         </is>
       </c>
       <c r="G92" s="3" t="inlineStr">
@@ -4510,8 +4500,7 @@
       </c>
       <c r="H92" s="3" t="inlineStr">
         <is>
-          <t>10 x R$ 1246,00
-137 x R$ 949,00</t>
+          <t>61 x R$ 2021,00</t>
         </is>
       </c>
       <c r="I92" s="3" t="inlineStr"/>
@@ -4530,22 +4519,22 @@
       </c>
       <c r="C93" s="3" t="inlineStr">
         <is>
-          <t>135850,00</t>
+          <t>151180,00</t>
         </is>
       </c>
       <c r="D93" s="3" t="inlineStr">
         <is>
-          <t>55792,50</t>
+          <t>72559,00</t>
         </is>
       </c>
       <c r="E93" s="3" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>142</t>
         </is>
       </c>
       <c r="F93" s="3" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Santander</t>
         </is>
       </c>
       <c r="G93" s="3" t="inlineStr">
@@ -4555,7 +4544,7 @@
       </c>
       <c r="H93" s="3" t="inlineStr">
         <is>
-          <t>106 x R$ 1407,00</t>
+          <t>142 x R$ 1113,80</t>
         </is>
       </c>
       <c r="I93" s="3" t="inlineStr"/>
@@ -4574,22 +4563,22 @@
       </c>
       <c r="C94" s="3" t="inlineStr">
         <is>
-          <t>137200,00</t>
+          <t>154000,00</t>
         </is>
       </c>
       <c r="D94" s="3" t="inlineStr">
         <is>
-          <t>71860,00</t>
+          <t>85700,00</t>
         </is>
       </c>
       <c r="E94" s="3" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>169</t>
         </is>
       </c>
       <c r="F94" s="3" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G94" s="3" t="inlineStr">
@@ -4599,7 +4588,7 @@
       </c>
       <c r="H94" s="3" t="inlineStr">
         <is>
-          <t>141 x R$ 1098,00</t>
+          <t>169 x R$ 995,00</t>
         </is>
       </c>
       <c r="I94" s="3" t="inlineStr"/>
@@ -4618,22 +4607,22 @@
       </c>
       <c r="C95" s="3" t="inlineStr">
         <is>
-          <t>145000,00</t>
+          <t>161000,00</t>
         </is>
       </c>
       <c r="D95" s="3" t="inlineStr">
         <is>
-          <t>75750,00</t>
+          <t>78550,00</t>
         </is>
       </c>
       <c r="E95" s="3" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>142</t>
         </is>
       </c>
       <c r="F95" s="3" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Santander</t>
         </is>
       </c>
       <c r="G95" s="3" t="inlineStr">
@@ -4643,7 +4632,7 @@
       </c>
       <c r="H95" s="3" t="inlineStr">
         <is>
-          <t>159 x R$ 1060,00</t>
+          <t>142 x R$ 1114,03</t>
         </is>
       </c>
       <c r="I95" s="3" t="inlineStr"/>
@@ -4662,22 +4651,22 @@
       </c>
       <c r="C96" s="3" t="inlineStr">
         <is>
-          <t>147780,00</t>
+          <t>198000,00</t>
         </is>
       </c>
       <c r="D96" s="3" t="inlineStr">
         <is>
-          <t>78489,00</t>
+          <t>101900,00</t>
         </is>
       </c>
       <c r="E96" s="3" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>192</t>
         </is>
       </c>
       <c r="F96" s="3" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G96" s="3" t="inlineStr">
@@ -4687,7 +4676,7 @@
       </c>
       <c r="H96" s="3" t="inlineStr">
         <is>
-          <t>62 x R$ 2021,00</t>
+          <t>192 x R$ 1022,00</t>
         </is>
       </c>
       <c r="I96" s="3" t="inlineStr"/>
@@ -4706,22 +4695,22 @@
       </c>
       <c r="C97" s="3" t="inlineStr">
         <is>
-          <t>151180,00</t>
+          <t>205600,00</t>
         </is>
       </c>
       <c r="D97" s="3" t="inlineStr">
         <is>
-          <t>72559,00</t>
+          <t>118780,00</t>
         </is>
       </c>
       <c r="E97" s="3" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>153</t>
         </is>
       </c>
       <c r="F97" s="3" t="inlineStr">
         <is>
-          <t>Santander</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G97" s="3" t="inlineStr">
@@ -4731,7 +4720,7 @@
       </c>
       <c r="H97" s="3" t="inlineStr">
         <is>
-          <t>142 x R$ 1113,80</t>
+          <t>153 x R$ 1189,00</t>
         </is>
       </c>
       <c r="I97" s="3" t="inlineStr"/>
@@ -4750,17 +4739,17 @@
       </c>
       <c r="C98" s="3" t="inlineStr">
         <is>
-          <t>154000,00</t>
+          <t>210000,00</t>
         </is>
       </c>
       <c r="D98" s="3" t="inlineStr">
         <is>
-          <t>85700,00</t>
+          <t>108500,00</t>
         </is>
       </c>
       <c r="E98" s="3" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>192</t>
         </is>
       </c>
       <c r="F98" s="3" t="inlineStr">
@@ -4775,7 +4764,7 @@
       </c>
       <c r="H98" s="3" t="inlineStr">
         <is>
-          <t>169 x R$ 995,00</t>
+          <t>192 x R$ 1096,00</t>
         </is>
       </c>
       <c r="I98" s="3" t="inlineStr"/>
@@ -4794,22 +4783,22 @@
       </c>
       <c r="C99" s="3" t="inlineStr">
         <is>
-          <t>161000,00</t>
+          <t>212000,00</t>
         </is>
       </c>
       <c r="D99" s="3" t="inlineStr">
         <is>
-          <t>78550,00</t>
+          <t>102800,00</t>
         </is>
       </c>
       <c r="E99" s="3" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>136</t>
         </is>
       </c>
       <c r="F99" s="3" t="inlineStr">
         <is>
-          <t>Santander</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G99" s="3" t="inlineStr">
@@ -4819,7 +4808,7 @@
       </c>
       <c r="H99" s="3" t="inlineStr">
         <is>
-          <t>142 x R$ 1114,03</t>
+          <t>136 x R$ 1759,00</t>
         </is>
       </c>
       <c r="I99" s="3" t="inlineStr"/>
@@ -4838,22 +4827,22 @@
       </c>
       <c r="C100" s="3" t="inlineStr">
         <is>
-          <t>198000,00</t>
+          <t>229260,00</t>
         </is>
       </c>
       <c r="D100" s="3" t="inlineStr">
         <is>
-          <t>101900,00</t>
+          <t>118463,00</t>
         </is>
       </c>
       <c r="E100" s="3" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F100" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú</t>
         </is>
       </c>
       <c r="G100" s="3" t="inlineStr">
@@ -4863,7 +4852,7 @@
       </c>
       <c r="H100" s="3" t="inlineStr">
         <is>
-          <t>192 x R$ 1022,00</t>
+          <t>48 x R$ 4423,00</t>
         </is>
       </c>
       <c r="I100" s="3" t="inlineStr"/>
@@ -4882,22 +4871,22 @@
       </c>
       <c r="C101" s="3" t="inlineStr">
         <is>
-          <t>205000,00</t>
+          <t>257500,00</t>
         </is>
       </c>
       <c r="D101" s="3" t="inlineStr">
         <is>
-          <t>108250,00</t>
+          <t>126875,00</t>
         </is>
       </c>
       <c r="E101" s="3" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>101</t>
         </is>
       </c>
       <c r="F101" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Santander</t>
         </is>
       </c>
       <c r="G101" s="3" t="inlineStr">
@@ -4907,7 +4896,7 @@
       </c>
       <c r="H101" s="3" t="inlineStr">
         <is>
-          <t>193 x R$ 1235,00</t>
+          <t>101 x R$ 2302,00</t>
         </is>
       </c>
       <c r="I101" s="3" t="inlineStr"/>
@@ -4926,17 +4915,17 @@
       </c>
       <c r="C102" s="3" t="inlineStr">
         <is>
-          <t>210000,00</t>
+          <t>300000,00</t>
         </is>
       </c>
       <c r="D102" s="3" t="inlineStr">
         <is>
-          <t>108500,00</t>
+          <t>176000,00</t>
         </is>
       </c>
       <c r="E102" s="3" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>97</t>
         </is>
       </c>
       <c r="F102" s="3" t="inlineStr">
@@ -4951,7 +4940,7 @@
       </c>
       <c r="H102" s="3" t="inlineStr">
         <is>
-          <t>192 x R$ 1096,00</t>
+          <t>97 x R$ 2568,00</t>
         </is>
       </c>
       <c r="I102" s="3" t="inlineStr"/>
@@ -4970,22 +4959,22 @@
       </c>
       <c r="C103" s="3" t="inlineStr">
         <is>
-          <t>212000,00</t>
+          <t>432000,00</t>
         </is>
       </c>
       <c r="D103" s="3" t="inlineStr">
         <is>
-          <t>102800,00</t>
+          <t>259600,00</t>
         </is>
       </c>
       <c r="E103" s="3" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>143</t>
         </is>
       </c>
       <c r="F103" s="3" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G103" s="3" t="inlineStr">
@@ -4995,7 +4984,7 @@
       </c>
       <c r="H103" s="3" t="inlineStr">
         <is>
-          <t>136 x R$ 1759,00</t>
+          <t>143 x R$ 2633,00</t>
         </is>
       </c>
       <c r="I103" s="3" t="inlineStr"/>
@@ -5014,22 +5003,22 @@
       </c>
       <c r="C104" s="3" t="inlineStr">
         <is>
-          <t>229260,00</t>
+          <t>470000,00</t>
         </is>
       </c>
       <c r="D104" s="3" t="inlineStr">
         <is>
-          <t>118463,00</t>
+          <t>296500,00</t>
         </is>
       </c>
       <c r="E104" s="3" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>114</t>
         </is>
       </c>
       <c r="F104" s="3" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G104" s="3" t="inlineStr">
@@ -5039,7 +5028,7 @@
       </c>
       <c r="H104" s="3" t="inlineStr">
         <is>
-          <t>48 x R$ 4423,00</t>
+          <t>114 x R$ 2667,00</t>
         </is>
       </c>
       <c r="I104" s="3" t="inlineStr"/>
@@ -5058,22 +5047,22 @@
       </c>
       <c r="C105" s="3" t="inlineStr">
         <is>
-          <t>257500,00</t>
+          <t>711000,00</t>
         </is>
       </c>
       <c r="D105" s="3" t="inlineStr">
         <is>
-          <t>126875,00</t>
+          <t>371550,00</t>
         </is>
       </c>
       <c r="E105" s="3" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>112</t>
         </is>
       </c>
       <c r="F105" s="3" t="inlineStr">
         <is>
-          <t>Santander</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G105" s="3" t="inlineStr">
@@ -5083,7 +5072,7 @@
       </c>
       <c r="H105" s="3" t="inlineStr">
         <is>
-          <t>101 x R$ 2302,00</t>
+          <t>112 x R$ 5736,00</t>
         </is>
       </c>
       <c r="I105" s="3" t="inlineStr"/>
@@ -5102,17 +5091,17 @@
       </c>
       <c r="C106" s="3" t="inlineStr">
         <is>
-          <t>273500,00</t>
+          <t>780000,00</t>
         </is>
       </c>
       <c r="D106" s="3" t="inlineStr">
         <is>
-          <t>150675,00</t>
+          <t>392000,00</t>
         </is>
       </c>
       <c r="E106" s="3" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>107</t>
         </is>
       </c>
       <c r="F106" s="3" t="inlineStr">
@@ -5127,7 +5116,7 @@
       </c>
       <c r="H106" s="3" t="inlineStr">
         <is>
-          <t>145 x R$ 1718,00</t>
+          <t>107 x R$ 7425,00</t>
         </is>
       </c>
       <c r="I106" s="3" t="inlineStr"/>
@@ -5146,17 +5135,17 @@
       </c>
       <c r="C107" s="3" t="inlineStr">
         <is>
-          <t>300000,00</t>
+          <t>838440,00</t>
         </is>
       </c>
       <c r="D107" s="3" t="inlineStr">
         <is>
-          <t>176000,00</t>
+          <t>431922,00</t>
         </is>
       </c>
       <c r="E107" s="3" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>153</t>
         </is>
       </c>
       <c r="F107" s="3" t="inlineStr">
@@ -5171,7 +5160,9 @@
       </c>
       <c r="H107" s="3" t="inlineStr">
         <is>
-          <t>97 x R$ 2568,00</t>
+          <t>99 x R$ 5867,00
+50 x R$ 4789,00
+4 x R$ 2326,00</t>
         </is>
       </c>
       <c r="I107" s="3" t="inlineStr"/>
@@ -5190,17 +5181,17 @@
       </c>
       <c r="C108" s="3" t="inlineStr">
         <is>
-          <t>432000,00</t>
+          <t>332800,00</t>
         </is>
       </c>
       <c r="D108" s="3" t="inlineStr">
         <is>
-          <t>259600,00</t>
+          <t>144540,00</t>
         </is>
       </c>
       <c r="E108" s="3" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>160</t>
         </is>
       </c>
       <c r="F108" s="3" t="inlineStr">
@@ -5214,548 +5205,284 @@
         </is>
       </c>
       <c r="H108" s="3" t="inlineStr">
-        <is>
-          <t>143 x R$ 2633,00</t>
-        </is>
-      </c>
-      <c r="I108" s="3" t="inlineStr"/>
-      <c r="J108" s="3" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="3" t="inlineStr">
-        <is>
-          <t>CC1108</t>
-        </is>
-      </c>
-      <c r="B109" s="3" t="inlineStr">
-        <is>
-          <t>Imóveis</t>
-        </is>
-      </c>
-      <c r="C109" s="3" t="inlineStr">
-        <is>
-          <t>440000,00</t>
-        </is>
-      </c>
-      <c r="D109" s="3" t="inlineStr">
-        <is>
-          <t>235000,00</t>
-        </is>
-      </c>
-      <c r="E109" s="3" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
-      </c>
-      <c r="F109" s="3" t="inlineStr">
-        <is>
-          <t>Porto Seguro</t>
-        </is>
-      </c>
-      <c r="G109" s="3" t="inlineStr">
-        <is>
-          <t>Disponível</t>
-        </is>
-      </c>
-      <c r="H109" s="3" t="inlineStr">
-        <is>
-          <t>151 x R$ 2902,00</t>
-        </is>
-      </c>
-      <c r="I109" s="3" t="inlineStr"/>
-      <c r="J109" s="3" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="3" t="inlineStr">
-        <is>
-          <t>CC1109</t>
-        </is>
-      </c>
-      <c r="B110" s="3" t="inlineStr">
-        <is>
-          <t>Imóveis</t>
-        </is>
-      </c>
-      <c r="C110" s="3" t="inlineStr">
-        <is>
-          <t>474300,00</t>
-        </is>
-      </c>
-      <c r="D110" s="3" t="inlineStr">
-        <is>
-          <t>265515,00</t>
-        </is>
-      </c>
-      <c r="E110" s="3" t="inlineStr">
-        <is>
-          <t>106</t>
-        </is>
-      </c>
-      <c r="F110" s="3" t="inlineStr">
-        <is>
-          <t>Porto Seguro</t>
-        </is>
-      </c>
-      <c r="G110" s="3" t="inlineStr">
-        <is>
-          <t>Disponível</t>
-        </is>
-      </c>
-      <c r="H110" s="3" t="inlineStr">
-        <is>
-          <t>106 x R$ 3603,00</t>
-        </is>
-      </c>
-      <c r="I110" s="3" t="inlineStr"/>
-      <c r="J110" s="3" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="3" t="inlineStr">
-        <is>
-          <t>CC1110</t>
-        </is>
-      </c>
-      <c r="B111" s="3" t="inlineStr">
-        <is>
-          <t>Imóveis</t>
-        </is>
-      </c>
-      <c r="C111" s="3" t="inlineStr">
-        <is>
-          <t>711000,00</t>
-        </is>
-      </c>
-      <c r="D111" s="3" t="inlineStr">
-        <is>
-          <t>371550,00</t>
-        </is>
-      </c>
-      <c r="E111" s="3" t="inlineStr">
-        <is>
-          <t>112</t>
-        </is>
-      </c>
-      <c r="F111" s="3" t="inlineStr">
-        <is>
-          <t>Porto Seguro</t>
-        </is>
-      </c>
-      <c r="G111" s="3" t="inlineStr">
-        <is>
-          <t>Disponível</t>
-        </is>
-      </c>
-      <c r="H111" s="3" t="inlineStr">
-        <is>
-          <t>112 x R$ 5736,00</t>
-        </is>
-      </c>
-      <c r="I111" s="3" t="inlineStr"/>
-      <c r="J111" s="3" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="3" t="inlineStr">
-        <is>
-          <t>CC1111</t>
-        </is>
-      </c>
-      <c r="B112" s="3" t="inlineStr">
-        <is>
-          <t>Imóveis</t>
-        </is>
-      </c>
-      <c r="C112" s="3" t="inlineStr">
-        <is>
-          <t>780000,00</t>
-        </is>
-      </c>
-      <c r="D112" s="3" t="inlineStr">
-        <is>
-          <t>392000,00</t>
-        </is>
-      </c>
-      <c r="E112" s="3" t="inlineStr">
-        <is>
-          <t>107</t>
-        </is>
-      </c>
-      <c r="F112" s="3" t="inlineStr">
-        <is>
-          <t>Porto Seguro</t>
-        </is>
-      </c>
-      <c r="G112" s="3" t="inlineStr">
-        <is>
-          <t>Disponível</t>
-        </is>
-      </c>
-      <c r="H112" s="3" t="inlineStr">
-        <is>
-          <t>107 x R$ 7425,00</t>
-        </is>
-      </c>
-      <c r="I112" s="3" t="inlineStr"/>
-      <c r="J112" s="3" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="3" t="inlineStr">
-        <is>
-          <t>CC1112</t>
-        </is>
-      </c>
-      <c r="B113" s="3" t="inlineStr">
-        <is>
-          <t>Imóveis</t>
-        </is>
-      </c>
-      <c r="C113" s="3" t="inlineStr">
-        <is>
-          <t>845000,00</t>
-        </is>
-      </c>
-      <c r="D113" s="3" t="inlineStr">
-        <is>
-          <t>437250,00</t>
-        </is>
-      </c>
-      <c r="E113" s="3" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="F113" s="3" t="inlineStr">
-        <is>
-          <t>Porto Seguro</t>
-        </is>
-      </c>
-      <c r="G113" s="3" t="inlineStr">
-        <is>
-          <t>Disponível</t>
-        </is>
-      </c>
-      <c r="H113" s="3" t="inlineStr">
-        <is>
-          <t>180 x R$ 5557,00</t>
-        </is>
-      </c>
-      <c r="I113" s="3" t="inlineStr"/>
-      <c r="J113" s="3" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="3" t="inlineStr">
-        <is>
-          <t>CC1113</t>
-        </is>
-      </c>
-      <c r="B114" s="3" t="inlineStr">
-        <is>
-          <t>Imóveis</t>
-        </is>
-      </c>
-      <c r="C114" s="3" t="inlineStr">
-        <is>
-          <t>332800,00</t>
-        </is>
-      </c>
-      <c r="D114" s="3" t="inlineStr">
-        <is>
-          <t>144540,00</t>
-        </is>
-      </c>
-      <c r="E114" s="3" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="F114" s="3" t="inlineStr">
-        <is>
-          <t>Porto Seguro</t>
-        </is>
-      </c>
-      <c r="G114" s="3" t="inlineStr">
-        <is>
-          <t>Disponível</t>
-        </is>
-      </c>
-      <c r="H114" s="3" t="inlineStr">
         <is>
           <t>2 x R$ 1649,00
 157 x R$ 2285,00
 1 x R$ 793,00</t>
         </is>
       </c>
-      <c r="I114" s="3" t="inlineStr"/>
-      <c r="J114" s="3" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="3" t="inlineStr">
-        <is>
-          <t>CC1114</t>
-        </is>
-      </c>
-      <c r="B115" s="3" t="inlineStr">
+      <c r="I108" s="3" t="inlineStr"/>
+      <c r="J108" s="3" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="3" t="inlineStr">
+        <is>
+          <t>CC1108</t>
+        </is>
+      </c>
+      <c r="B109" s="3" t="inlineStr">
         <is>
           <t>Imóveis</t>
         </is>
       </c>
-      <c r="C115" s="3" t="inlineStr">
+      <c r="C109" s="3" t="inlineStr">
         <is>
           <t>110800,00</t>
         </is>
       </c>
-      <c r="D115" s="3" t="inlineStr">
+      <c r="D109" s="3" t="inlineStr">
         <is>
           <t>45440,00</t>
         </is>
       </c>
-      <c r="E115" s="3" t="inlineStr">
+      <c r="E109" s="3" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="F115" s="3" t="inlineStr">
+      <c r="F109" s="3" t="inlineStr">
         <is>
           <t>Porto Seguro</t>
         </is>
       </c>
-      <c r="G115" s="3" t="inlineStr">
-        <is>
-          <t>Disponível</t>
-        </is>
-      </c>
-      <c r="H115" s="3" t="inlineStr">
+      <c r="G109" s="3" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H109" s="3" t="inlineStr">
         <is>
           <t>2 x R$ 580,00
 158 x R$ 793,00</t>
         </is>
       </c>
-      <c r="I115" s="3" t="inlineStr"/>
-      <c r="J115" s="3" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="3" t="inlineStr">
-        <is>
-          <t>CC1115</t>
-        </is>
-      </c>
-      <c r="B116" s="3" t="inlineStr">
+      <c r="I109" s="3" t="inlineStr"/>
+      <c r="J109" s="3" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="3" t="inlineStr">
+        <is>
+          <t>CC1109</t>
+        </is>
+      </c>
+      <c r="B110" s="3" t="inlineStr">
         <is>
           <t>Imóveis</t>
         </is>
       </c>
-      <c r="C116" s="3" t="inlineStr">
+      <c r="C110" s="3" t="inlineStr">
         <is>
           <t>222000,00</t>
         </is>
       </c>
-      <c r="D116" s="3" t="inlineStr">
+      <c r="D110" s="3" t="inlineStr">
         <is>
           <t>99100,00</t>
         </is>
       </c>
-      <c r="E116" s="3" t="inlineStr">
+      <c r="E110" s="3" t="inlineStr">
         <is>
           <t>159</t>
         </is>
       </c>
-      <c r="F116" s="3" t="inlineStr">
+      <c r="F110" s="3" t="inlineStr">
         <is>
           <t>Porto Seguro</t>
         </is>
       </c>
-      <c r="G116" s="3" t="inlineStr">
-        <is>
-          <t>Disponível</t>
-        </is>
-      </c>
-      <c r="H116" s="3" t="inlineStr">
+      <c r="G110" s="3" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H110" s="3" t="inlineStr">
         <is>
           <t>2 x R$ 1069,00
 157 x R$ 1492,00</t>
         </is>
       </c>
-      <c r="I116" s="3" t="inlineStr"/>
-      <c r="J116" s="3" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="3" t="inlineStr">
-        <is>
-          <t>CC1116</t>
-        </is>
-      </c>
-      <c r="B117" s="3" t="inlineStr">
+      <c r="I110" s="3" t="inlineStr"/>
+      <c r="J110" s="3" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="3" t="inlineStr">
+        <is>
+          <t>CC1110</t>
+        </is>
+      </c>
+      <c r="B111" s="3" t="inlineStr">
         <is>
           <t>Imóveis</t>
         </is>
       </c>
-      <c r="C117" s="3" t="inlineStr">
+      <c r="C111" s="3" t="inlineStr">
         <is>
           <t>354200,00</t>
         </is>
       </c>
-      <c r="D117" s="3" t="inlineStr">
+      <c r="D111" s="3" t="inlineStr">
         <is>
           <t>177210,00</t>
         </is>
       </c>
-      <c r="E117" s="3" t="inlineStr">
+      <c r="E111" s="3" t="inlineStr">
         <is>
           <t>193</t>
         </is>
       </c>
-      <c r="F117" s="3" t="inlineStr">
+      <c r="F111" s="3" t="inlineStr">
         <is>
           <t>Porto Seguro</t>
         </is>
       </c>
-      <c r="G117" s="3" t="inlineStr">
-        <is>
-          <t>Disponível</t>
-        </is>
-      </c>
-      <c r="H117" s="3" t="inlineStr">
+      <c r="G111" s="3" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H111" s="3" t="inlineStr">
         <is>
           <t>193 x R$ 1824,00</t>
         </is>
       </c>
-      <c r="I117" s="3" t="inlineStr"/>
-      <c r="J117" s="3" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="3" t="inlineStr">
-        <is>
-          <t>CC1117</t>
-        </is>
-      </c>
-      <c r="B118" s="3" t="inlineStr">
+      <c r="I111" s="3" t="inlineStr"/>
+      <c r="J111" s="3" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="3" t="inlineStr">
+        <is>
+          <t>CC1111</t>
+        </is>
+      </c>
+      <c r="B112" s="3" t="inlineStr">
         <is>
           <t>Imóveis</t>
         </is>
       </c>
-      <c r="C118" s="3" t="inlineStr">
+      <c r="C112" s="3" t="inlineStr">
         <is>
           <t>1510000,00</t>
         </is>
       </c>
-      <c r="D118" s="3" t="inlineStr">
+      <c r="D112" s="3" t="inlineStr">
         <is>
           <t>666500,00</t>
         </is>
       </c>
-      <c r="E118" s="3" t="inlineStr">
+      <c r="E112" s="3" t="inlineStr">
         <is>
           <t>192</t>
         </is>
       </c>
-      <c r="F118" s="3" t="inlineStr">
+      <c r="F112" s="3" t="inlineStr">
         <is>
           <t>Porto Seguro</t>
         </is>
       </c>
-      <c r="G118" s="3" t="inlineStr">
-        <is>
-          <t>Disponível</t>
-        </is>
-      </c>
-      <c r="H118" s="3" t="inlineStr">
+      <c r="G112" s="3" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H112" s="3" t="inlineStr">
         <is>
           <t>1 x R$ 4481,00
 190 x R$ 9183,00
 1 x R$ 5504,00</t>
         </is>
       </c>
-      <c r="I118" s="3" t="inlineStr"/>
-      <c r="J118" s="3" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="3" t="inlineStr">
-        <is>
-          <t>CC1118</t>
-        </is>
-      </c>
-      <c r="B119" s="3" t="inlineStr">
+      <c r="I112" s="3" t="inlineStr"/>
+      <c r="J112" s="3" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="3" t="inlineStr">
+        <is>
+          <t>CC1112</t>
+        </is>
+      </c>
+      <c r="B113" s="3" t="inlineStr">
         <is>
           <t>Imóveis</t>
         </is>
       </c>
-      <c r="C119" s="3" t="inlineStr">
+      <c r="C113" s="3" t="inlineStr">
         <is>
           <t>604000,00</t>
         </is>
       </c>
-      <c r="D119" s="3" t="inlineStr">
+      <c r="D113" s="3" t="inlineStr">
         <is>
           <t>267200,00</t>
         </is>
       </c>
-      <c r="E119" s="3" t="inlineStr">
+      <c r="E113" s="3" t="inlineStr">
         <is>
           <t>191</t>
         </is>
       </c>
-      <c r="F119" s="3" t="inlineStr">
+      <c r="F113" s="3" t="inlineStr">
         <is>
           <t>Porto Seguro</t>
         </is>
       </c>
-      <c r="G119" s="3" t="inlineStr">
-        <is>
-          <t>Disponível</t>
-        </is>
-      </c>
-      <c r="H119" s="3" t="inlineStr">
+      <c r="G113" s="3" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H113" s="3" t="inlineStr">
         <is>
           <t>1 x R$ 1792,00
 190 x R$ 3679,00</t>
         </is>
       </c>
-      <c r="I119" s="3" t="inlineStr"/>
-      <c r="J119" s="3" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="3" t="inlineStr">
-        <is>
-          <t>CC1119</t>
-        </is>
-      </c>
-      <c r="B120" s="3" t="inlineStr">
+      <c r="I113" s="3" t="inlineStr"/>
+      <c r="J113" s="3" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="3" t="inlineStr">
+        <is>
+          <t>CC1113</t>
+        </is>
+      </c>
+      <c r="B114" s="3" t="inlineStr">
         <is>
           <t>Imóveis</t>
         </is>
       </c>
-      <c r="C120" s="3" t="inlineStr">
+      <c r="C114" s="3" t="inlineStr">
         <is>
           <t>906000,00</t>
         </is>
       </c>
-      <c r="D120" s="3" t="inlineStr">
+      <c r="D114" s="3" t="inlineStr">
         <is>
           <t>399300,00</t>
         </is>
       </c>
-      <c r="E120" s="3" t="inlineStr">
+      <c r="E114" s="3" t="inlineStr">
         <is>
           <t>192</t>
         </is>
       </c>
-      <c r="F120" s="3" t="inlineStr">
+      <c r="F114" s="3" t="inlineStr">
         <is>
           <t>Porto Seguro</t>
         </is>
       </c>
-      <c r="G120" s="3" t="inlineStr">
-        <is>
-          <t>Disponível</t>
-        </is>
-      </c>
-      <c r="H120" s="3" t="inlineStr">
+      <c r="G114" s="3" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H114" s="3" t="inlineStr">
         <is>
           <t>1 x R$ 2689,00
 191 x R$ 5504,00</t>
         </is>
       </c>
-      <c r="I120" s="3" t="inlineStr"/>
-      <c r="J120" s="3" t="inlineStr"/>
+      <c r="I114" s="3" t="inlineStr"/>
+      <c r="J114" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/scraper-completo/DADOS EXTRAIDOS/extracao_cartascontempladas.xlsx
+++ b/scraper-completo/DADOS EXTRAIDOS/extracao_cartascontempladas.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J117"/>
+  <dimension ref="A1:J123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,10 +524,8 @@
           <t>9330,00</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
+      <c r="E2" s="3" t="n">
+        <v>50</v>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
@@ -568,10 +566,8 @@
           <t>10520,00</t>
         </is>
       </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
+      <c r="E3" s="3" t="n">
+        <v>53</v>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
@@ -604,17 +600,17 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>18600,00</t>
+          <t>23470,00</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>9930,00</t>
+          <t>7173,50</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>37</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
@@ -629,7 +625,7 @@
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>62 x R$ 281,66</t>
+          <t>37 x R$ 850,00</t>
         </is>
       </c>
       <c r="I4" s="3" t="inlineStr"/>
@@ -648,17 +644,17 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>22990,00</t>
+          <t>31500,00</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>7349,50</t>
+          <t>15575,00</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
@@ -673,7 +669,7 @@
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>31 x R$ 837,00</t>
+          <t>40 x R$ 621,00</t>
         </is>
       </c>
       <c r="I5" s="3" t="inlineStr"/>
@@ -692,17 +688,17 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>28700,00</t>
+          <t>33010,00</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>30135,00</t>
+          <t>11550,50</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
@@ -717,7 +713,7 @@
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t>69 x R$ 226,74</t>
+          <t>35 x R$ 1047,00</t>
         </is>
       </c>
       <c r="I6" s="3" t="inlineStr"/>
@@ -736,17 +732,17 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>30200,00</t>
+          <t>33900,00</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>10310,00</t>
+          <t>16695,00</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
@@ -761,7 +757,7 @@
       </c>
       <c r="H7" s="3" t="inlineStr">
         <is>
-          <t>32 x R$ 1055,00</t>
+          <t>44 x R$ 775,00</t>
         </is>
       </c>
       <c r="I7" s="3" t="inlineStr"/>
@@ -780,16 +776,18 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>32750,00</t>
+          <t>34400,00</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>10837,50</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="n">
-        <v>36</v>
+          <t>10720,00</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
@@ -803,7 +801,7 @@
       </c>
       <c r="H8" s="3" t="inlineStr">
         <is>
-          <t>36 x R$ 1047,00</t>
+          <t>31 x R$ 1282,00</t>
         </is>
       </c>
       <c r="I8" s="3" t="inlineStr"/>
@@ -822,22 +820,22 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>33900,00</t>
+          <t>35000,00</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>17195,00</t>
+          <t>19950,00</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G9" s="3" t="inlineStr">
@@ -847,7 +845,7 @@
       </c>
       <c r="H9" s="3" t="inlineStr">
         <is>
-          <t>44 x R$ 755,00</t>
+          <t>41 x R$ 678,00</t>
         </is>
       </c>
       <c r="I9" s="3" t="inlineStr"/>
@@ -866,22 +864,22 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>34230,00</t>
+          <t>35500,00</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>10611,50</t>
+          <t>15275,00</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr">
@@ -891,7 +889,8 @@
       </c>
       <c r="H10" s="3" t="inlineStr">
         <is>
-          <t>32 x R$ 1282,00</t>
+          <t>1 x R$ 349,00
+47 x R$ 705,00</t>
         </is>
       </c>
       <c r="I10" s="3" t="inlineStr"/>
@@ -910,17 +909,17 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>34997,00</t>
+          <t>35740,00</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>9749,85</t>
+          <t>15787,00</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
@@ -935,7 +934,7 @@
       </c>
       <c r="H11" s="3" t="inlineStr">
         <is>
-          <t>38 x R$ 1212,60</t>
+          <t>29 x R$ 1141,00</t>
         </is>
       </c>
       <c r="I11" s="3" t="inlineStr"/>
@@ -954,22 +953,22 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>35160,00</t>
+          <t>36280,00</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>13758,00</t>
+          <t>16314,00</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú</t>
         </is>
       </c>
       <c r="G12" s="3" t="inlineStr">
@@ -979,7 +978,7 @@
       </c>
       <c r="H12" s="3" t="inlineStr">
         <is>
-          <t>31 x R$ 1279,00</t>
+          <t>29 x R$ 1130,00</t>
         </is>
       </c>
       <c r="I12" s="3" t="inlineStr"/>
@@ -998,16 +997,18 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>35460,00</t>
+          <t>36400,00</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>16273,00</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="n">
-        <v>30</v>
+          <t>10820,00</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
@@ -1021,7 +1022,7 @@
       </c>
       <c r="H13" s="3" t="inlineStr">
         <is>
-          <t>30 x R$ 1141,00</t>
+          <t>30 x R$ 1387,00</t>
         </is>
       </c>
       <c r="I13" s="3" t="inlineStr"/>
@@ -1040,12 +1041,12 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>36000,00</t>
+          <t>37480,00</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>16500,00</t>
+          <t>14874,00</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
@@ -1065,7 +1066,7 @@
       </c>
       <c r="H14" s="3" t="inlineStr">
         <is>
-          <t>30 x R$ 1130,00</t>
+          <t>30 x R$ 1104,00</t>
         </is>
       </c>
       <c r="I14" s="3" t="inlineStr"/>
@@ -1084,12 +1085,12 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>36400,00</t>
+          <t>37480,00</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>10820,00</t>
+          <t>14874,00</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
@@ -1109,7 +1110,7 @@
       </c>
       <c r="H15" s="3" t="inlineStr">
         <is>
-          <t>30 x R$ 1387,00</t>
+          <t>30 x R$ 1105,00</t>
         </is>
       </c>
       <c r="I15" s="3" t="inlineStr"/>
@@ -1128,17 +1129,17 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>37000,00</t>
+          <t>37770,00</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>17850,00</t>
+          <t>19888,50</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
@@ -1153,8 +1154,7 @@
       </c>
       <c r="H16" s="3" t="inlineStr">
         <is>
-          <t>61 x R$ 551,57
-1 x R$ 281,70</t>
+          <t>30 x R$ 995,00</t>
         </is>
       </c>
       <c r="I16" s="3" t="inlineStr"/>
@@ -1173,17 +1173,17 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>37020,00</t>
+          <t>37820,00</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>10851,00</t>
+          <t>18891,00</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>37</t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="H17" s="3" t="inlineStr">
         <is>
-          <t>27 x R$ 1437,00</t>
+          <t>37 x R$ 804,00</t>
         </is>
       </c>
       <c r="I17" s="3" t="inlineStr"/>
@@ -1217,17 +1217,17 @@
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>37190,00</t>
+          <t>37820,00</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>12859,50</t>
+          <t>19891,00</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="H18" s="3" t="inlineStr">
         <is>
-          <t>38 x R$ 1044,00</t>
+          <t>39 x R$ 745,00</t>
         </is>
       </c>
       <c r="I18" s="3" t="inlineStr"/>
@@ -1261,17 +1261,17 @@
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>37480,00</t>
+          <t>39010,00</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>14874,00</t>
+          <t>18950,50</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F19" s="3" t="inlineStr">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="H19" s="3" t="inlineStr">
         <is>
-          <t>30 x R$ 1104,00</t>
+          <t>29 x R$ 1054,00</t>
         </is>
       </c>
       <c r="I19" s="3" t="inlineStr"/>
@@ -1305,22 +1305,22 @@
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>37480,00</t>
+          <t>39090,00</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>14874,00</t>
+          <t>18454,50</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F20" s="3" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G20" s="3" t="inlineStr">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="H20" s="3" t="inlineStr">
         <is>
-          <t>30 x R$ 1105,00</t>
+          <t>29 x R$ 1194,00</t>
         </is>
       </c>
       <c r="I20" s="3" t="inlineStr"/>
@@ -1349,12 +1349,12 @@
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>37500,00</t>
+          <t>39090,00</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>9875,00</t>
+          <t>15854,50</t>
         </is>
       </c>
       <c r="E21" s="3" t="inlineStr">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="F21" s="3" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G21" s="3" t="inlineStr">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="H21" s="3" t="inlineStr">
         <is>
-          <t>29 x R$ 1509,00</t>
+          <t>29 x R$ 1285,00</t>
         </is>
       </c>
       <c r="I21" s="3" t="inlineStr"/>
@@ -1393,22 +1393,22 @@
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>37520,00</t>
+          <t>39090,00</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t>18776,00</t>
+          <t>15854,50</t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F22" s="3" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G22" s="3" t="inlineStr">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="H22" s="3" t="inlineStr">
         <is>
-          <t>38 x R$ 804,00</t>
+          <t>29 x R$ 1285,00</t>
         </is>
       </c>
       <c r="I22" s="3" t="inlineStr"/>
@@ -1437,22 +1437,22 @@
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>37770,00</t>
+          <t>39090,00</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>19888,50</t>
+          <t>15454,50</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F23" s="3" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G23" s="3" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="H23" s="3" t="inlineStr">
         <is>
-          <t>30 x R$ 995,00</t>
+          <t>29 x R$ 1307,00</t>
         </is>
       </c>
       <c r="I23" s="3" t="inlineStr"/>
@@ -1481,12 +1481,12 @@
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>38700,00</t>
+          <t>39550,00</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>18435,00</t>
+          <t>19977,50</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="H24" s="3" t="inlineStr">
         <is>
-          <t>30 x R$ 1054,00</t>
+          <t>30 x R$ 1095,00</t>
         </is>
       </c>
       <c r="I24" s="3" t="inlineStr"/>
@@ -1525,12 +1525,12 @@
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>39540,00</t>
+          <t>39620,00</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
         <is>
-          <t>14977,00</t>
+          <t>16481,00</t>
         </is>
       </c>
       <c r="E25" s="3" t="inlineStr">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="H25" s="3" t="inlineStr">
         <is>
-          <t>30 x R$ 1381,00</t>
+          <t>30 x R$ 1178,00</t>
         </is>
       </c>
       <c r="I25" s="3" t="inlineStr"/>
@@ -1569,17 +1569,17 @@
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>39550,00</t>
+          <t>39850,00</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>19977,50</t>
+          <t>14992,50</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F26" s="3" t="inlineStr">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="H26" s="3" t="inlineStr">
         <is>
-          <t>30 x R$ 1095,00</t>
+          <t>29 x R$ 1381,00</t>
         </is>
       </c>
       <c r="I26" s="3" t="inlineStr"/>
@@ -1613,22 +1613,22 @@
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>39620,00</t>
+          <t>40000,00</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t>16481,00</t>
+          <t>20800,00</t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F27" s="3" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G27" s="3" t="inlineStr">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="H27" s="3" t="inlineStr">
         <is>
-          <t>30 x R$ 1178,00</t>
+          <t>39 x R$ 732,00</t>
         </is>
       </c>
       <c r="I27" s="3" t="inlineStr"/>
@@ -1657,22 +1657,22 @@
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>41700,00</t>
+          <t>40000,00</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>29585,00</t>
+          <t>15500,00</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>62</t>
         </is>
       </c>
       <c r="F28" s="3" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G28" s="3" t="inlineStr">
@@ -1682,7 +1682,8 @@
       </c>
       <c r="H28" s="3" t="inlineStr">
         <is>
-          <t>69 x R$ 334,00</t>
+          <t>2 x R$ 466,00
+60 x R$ 706,00</t>
         </is>
       </c>
       <c r="I28" s="3" t="inlineStr"/>
@@ -1701,17 +1702,17 @@
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>42170,00</t>
+          <t>43550,00</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>13608,50</t>
+          <t>11677,50</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F29" s="3" t="inlineStr">
@@ -1726,7 +1727,7 @@
       </c>
       <c r="H29" s="3" t="inlineStr">
         <is>
-          <t>17 x R$ 2123,00</t>
+          <t>35 x R$ 1487,67</t>
         </is>
       </c>
       <c r="I29" s="3" t="inlineStr"/>
@@ -1745,22 +1746,22 @@
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>43550,00</t>
+          <t>44170,00</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>11177,50</t>
+          <t>13708,50</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F30" s="3" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G30" s="3" t="inlineStr">
@@ -1770,8 +1771,7 @@
       </c>
       <c r="H30" s="3" t="inlineStr">
         <is>
-          <t>1 x R$ 2008,11
-35 x R$ 1487,67</t>
+          <t>26 x R$ 1701,00</t>
         </is>
       </c>
       <c r="I30" s="3" t="inlineStr"/>
@@ -1790,17 +1790,17 @@
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>44300,00</t>
+          <t>44170,00</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
         <is>
-          <t>23215,00</t>
+          <t>13208,50</t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F31" s="3" t="inlineStr">
@@ -1815,7 +1815,7 @@
       </c>
       <c r="H31" s="3" t="inlineStr">
         <is>
-          <t>39 x R$ 911,00</t>
+          <t>26 x R$ 1747,00</t>
         </is>
       </c>
       <c r="I31" s="3" t="inlineStr"/>
@@ -1834,22 +1834,22 @@
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>44350,00</t>
+          <t>44200,00</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>16917,50</t>
+          <t>12910,00</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F32" s="3" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G32" s="3" t="inlineStr">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="H32" s="3" t="inlineStr">
         <is>
-          <t>38 x R$ 1133,00</t>
+          <t>26 x R$ 1805,00</t>
         </is>
       </c>
       <c r="I32" s="3" t="inlineStr"/>
@@ -1878,17 +1878,17 @@
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>44380,00</t>
+          <t>44600,00</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
         <is>
-          <t>23719,00</t>
+          <t>12730,00</t>
         </is>
       </c>
       <c r="E33" s="3" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F33" s="3" t="inlineStr">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="H33" s="3" t="inlineStr">
         <is>
-          <t>34 x R$ 954,00</t>
+          <t>24 x R$ 1969,00</t>
         </is>
       </c>
       <c r="I33" s="3" t="inlineStr"/>
@@ -1922,22 +1922,22 @@
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>44500,00</t>
+          <t>44700,00</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
         <is>
-          <t>12625,00</t>
+          <t>24735,00</t>
         </is>
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F34" s="3" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G34" s="3" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="H34" s="3" t="inlineStr">
         <is>
-          <t>27 x R$ 1855,00</t>
+          <t>33 x R$ 954,00</t>
         </is>
       </c>
       <c r="I34" s="3" t="inlineStr"/>
@@ -1966,17 +1966,17 @@
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>44600,00</t>
+          <t>50500,00</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
         <is>
-          <t>12730,00</t>
+          <t>22425,00</t>
         </is>
       </c>
       <c r="E35" s="3" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F35" s="3" t="inlineStr">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="H35" s="3" t="inlineStr">
         <is>
-          <t>24 x R$ 1969,00</t>
+          <t>36 x R$ 1205,00</t>
         </is>
       </c>
       <c r="I35" s="3" t="inlineStr"/>
@@ -2010,17 +2010,17 @@
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>52900,00</t>
+          <t>53130,00</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
         <is>
-          <t>19145,00</t>
+          <t>16156,50</t>
         </is>
       </c>
       <c r="E36" s="3" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F36" s="3" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="H36" s="3" t="inlineStr">
         <is>
-          <t>42 x R$ 1223,00</t>
+          <t>27 x R$ 1979,00</t>
         </is>
       </c>
       <c r="I36" s="3" t="inlineStr"/>
@@ -2054,17 +2054,17 @@
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>52910,00</t>
+          <t>55250,00</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
         <is>
-          <t>14845,50</t>
+          <t>24762,50</t>
         </is>
       </c>
       <c r="E37" s="3" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F37" s="3" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="H37" s="3" t="inlineStr">
         <is>
-          <t>28 x R$ 1979,00</t>
+          <t>29 x R$ 1591,00</t>
         </is>
       </c>
       <c r="I37" s="3" t="inlineStr"/>
@@ -2098,17 +2098,17 @@
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>54900,00</t>
+          <t>59630,00</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
         <is>
-          <t>23245,00</t>
+          <t>16181,50</t>
         </is>
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F38" s="3" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="H38" s="3" t="inlineStr">
         <is>
-          <t>30 x R$ 1591,00</t>
+          <t>29 x R$ 2123,00</t>
         </is>
       </c>
       <c r="I38" s="3" t="inlineStr"/>
@@ -2150,10 +2150,8 @@
           <t>31294,00</t>
         </is>
       </c>
-      <c r="E39" s="3" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
+      <c r="E39" s="3" t="n">
+        <v>31</v>
       </c>
       <c r="F39" s="3" t="inlineStr">
         <is>
@@ -2186,17 +2184,17 @@
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>60250,00</t>
+          <t>60470,00</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
         <is>
-          <t>25512,50</t>
+          <t>16523,50</t>
         </is>
       </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F40" s="3" t="inlineStr">
@@ -2211,7 +2209,7 @@
       </c>
       <c r="H40" s="3" t="inlineStr">
         <is>
-          <t>40 x R$ 1340,00</t>
+          <t>27 x R$ 2361,00</t>
         </is>
       </c>
       <c r="I40" s="3" t="inlineStr"/>
@@ -2235,12 +2233,12 @@
       </c>
       <c r="D41" s="3" t="inlineStr">
         <is>
-          <t>23525,00</t>
+          <t>26525,00</t>
         </is>
       </c>
       <c r="E41" s="3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F41" s="3" t="inlineStr">
@@ -2255,7 +2253,7 @@
       </c>
       <c r="H41" s="3" t="inlineStr">
         <is>
-          <t>33 x R$ 1721,00</t>
+          <t>39 x R$ 1340,00</t>
         </is>
       </c>
       <c r="I41" s="3" t="inlineStr"/>
@@ -2274,17 +2272,17 @@
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>65770,00</t>
+          <t>64100,00</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
         <is>
-          <t>22788,50</t>
+          <t>20405,00</t>
         </is>
       </c>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F42" s="3" t="inlineStr">
@@ -2299,7 +2297,7 @@
       </c>
       <c r="H42" s="3" t="inlineStr">
         <is>
-          <t>28 x R$ 2242,00</t>
+          <t>31 x R$ 2040,00</t>
         </is>
       </c>
       <c r="I42" s="3" t="inlineStr"/>
@@ -2318,22 +2316,22 @@
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>67300,00</t>
+          <t>64100,00</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
         <is>
-          <t>18465,00</t>
+          <t>27105,00</t>
         </is>
       </c>
       <c r="E43" s="3" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F43" s="3" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G43" s="3" t="inlineStr">
@@ -2343,7 +2341,7 @@
       </c>
       <c r="H43" s="3" t="inlineStr">
         <is>
-          <t>32 x R$ 2586,00</t>
+          <t>31 x R$ 1803,00</t>
         </is>
       </c>
       <c r="I43" s="3" t="inlineStr"/>
@@ -2362,22 +2360,22 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>73410,00</t>
+          <t>66960,00</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t>28270,50</t>
+          <t>14848,00</t>
         </is>
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F44" s="3" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G44" s="3" t="inlineStr">
@@ -2387,8 +2385,7 @@
       </c>
       <c r="H44" s="3" t="inlineStr">
         <is>
-          <t>30 x R$ 2029,00
-8 x R$ 1133,00</t>
+          <t>24 x R$ 3000,00</t>
         </is>
       </c>
       <c r="I44" s="3" t="inlineStr"/>
@@ -2407,22 +2404,22 @@
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>74140,00</t>
+          <t>67300,00</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
         <is>
-          <t>38707,00</t>
+          <t>18465,00</t>
         </is>
       </c>
       <c r="E45" s="3" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F45" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú</t>
         </is>
       </c>
       <c r="G45" s="3" t="inlineStr">
@@ -2432,7 +2429,7 @@
       </c>
       <c r="H45" s="3" t="inlineStr">
         <is>
-          <t>31 x R$ 1752,00</t>
+          <t>32 x R$ 2586,00</t>
         </is>
       </c>
       <c r="I45" s="3" t="inlineStr"/>
@@ -2451,17 +2448,17 @@
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>88000,00</t>
+          <t>74200,00</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
         <is>
-          <t>58600,00</t>
+          <t>40210,00</t>
         </is>
       </c>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F46" s="3" t="inlineStr">
@@ -2476,7 +2473,7 @@
       </c>
       <c r="H46" s="3" t="inlineStr">
         <is>
-          <t>26 x R$ 1745,00</t>
+          <t>30 x R$ 1748,00</t>
         </is>
       </c>
       <c r="I46" s="3" t="inlineStr"/>
@@ -2495,17 +2492,17 @@
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>110000,00</t>
+          <t>110740,00</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
         <is>
-          <t>39500,00</t>
+          <t>42037,00</t>
         </is>
       </c>
       <c r="E47" s="3" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F47" s="3" t="inlineStr">
@@ -2520,7 +2517,7 @@
       </c>
       <c r="H47" s="3" t="inlineStr">
         <is>
-          <t>29 x R$ 3561,00</t>
+          <t>28 x R$ 3561,00</t>
         </is>
       </c>
       <c r="I47" s="3" t="inlineStr"/>
@@ -2539,17 +2536,17 @@
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>125200,00</t>
+          <t>125000,00</t>
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr">
         <is>
-          <t>69160,00</t>
+          <t>52250,00</t>
         </is>
       </c>
       <c r="E48" s="3" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F48" s="3" t="inlineStr">
@@ -2564,7 +2561,8 @@
       </c>
       <c r="H48" s="3" t="inlineStr">
         <is>
-          <t>63 x R$ 1875,00</t>
+          <t>2 x R$ 812,00
+79 x R$ 1738,00</t>
         </is>
       </c>
       <c r="I48" s="3" t="inlineStr"/>
@@ -2583,17 +2581,17 @@
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>131400,00</t>
+          <t>126500,00</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
         <is>
-          <t>65570,00</t>
+          <t>52325,00</t>
         </is>
       </c>
       <c r="E49" s="3" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>71</t>
         </is>
       </c>
       <c r="F49" s="3" t="inlineStr">
@@ -2608,7 +2606,7 @@
       </c>
       <c r="H49" s="3" t="inlineStr">
         <is>
-          <t>100 x R$ 1216,00</t>
+          <t>71 x R$ 1961,00</t>
         </is>
       </c>
       <c r="I49" s="3" t="inlineStr"/>
@@ -2627,17 +2625,17 @@
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>132500,00</t>
+          <t>133500,00</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
         <is>
-          <t>64625,00</t>
+          <t>66575,00</t>
         </is>
       </c>
       <c r="E50" s="3" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>66</t>
         </is>
       </c>
       <c r="F50" s="3" t="inlineStr">
@@ -2652,7 +2650,7 @@
       </c>
       <c r="H50" s="3" t="inlineStr">
         <is>
-          <t>67 x R$ 1803,00</t>
+          <t>66 x R$ 1803,00</t>
         </is>
       </c>
       <c r="I50" s="3" t="inlineStr"/>
@@ -2671,22 +2669,22 @@
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>138600,00</t>
+          <t>135400,00</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
         <is>
-          <t>43330,00</t>
+          <t>68770,00</t>
         </is>
       </c>
       <c r="E51" s="3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>66</t>
         </is>
       </c>
       <c r="F51" s="3" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G51" s="3" t="inlineStr">
@@ -2696,7 +2694,7 @@
       </c>
       <c r="H51" s="3" t="inlineStr">
         <is>
-          <t>35 x R$ 4350,70</t>
+          <t>66 x R$ 2125,00</t>
         </is>
       </c>
       <c r="I51" s="3" t="inlineStr"/>
@@ -2715,22 +2713,22 @@
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>140000,00</t>
+          <t>137000,00</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
         <is>
-          <t>60500,00</t>
+          <t>75850,00</t>
         </is>
       </c>
       <c r="E52" s="3" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>65</t>
         </is>
       </c>
       <c r="F52" s="3" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G52" s="3" t="inlineStr">
@@ -2740,7 +2738,7 @@
       </c>
       <c r="H52" s="3" t="inlineStr">
         <is>
-          <t>41 x R$ 3678,00</t>
+          <t>65 x R$ 1732,00</t>
         </is>
       </c>
       <c r="I52" s="3" t="inlineStr"/>
@@ -2759,17 +2757,17 @@
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>180000,00</t>
+          <t>138600,00</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
         <is>
-          <t>108000,00</t>
+          <t>43330,00</t>
         </is>
       </c>
       <c r="E53" s="3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F53" s="3" t="inlineStr">
@@ -2784,7 +2782,7 @@
       </c>
       <c r="H53" s="3" t="inlineStr">
         <is>
-          <t>16 x R$ 6764,00</t>
+          <t>35 x R$ 4350,70</t>
         </is>
       </c>
       <c r="I53" s="3" t="inlineStr"/>
@@ -2803,22 +2801,22 @@
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>198129,00</t>
+          <t>161000,00</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
         <is>
-          <t>85906,45</t>
+          <t>90550,00</t>
         </is>
       </c>
       <c r="E54" s="3" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>66</t>
         </is>
       </c>
       <c r="F54" s="3" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G54" s="3" t="inlineStr">
@@ -2828,7 +2826,7 @@
       </c>
       <c r="H54" s="3" t="inlineStr">
         <is>
-          <t>47 x R$ 4132,00</t>
+          <t>66 x R$ 1860,00</t>
         </is>
       </c>
       <c r="I54" s="3" t="inlineStr"/>
@@ -2847,22 +2845,22 @@
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>201000,00</t>
+          <t>180000,00</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
         <is>
-          <t>108750,00</t>
+          <t>108000,00</t>
         </is>
       </c>
       <c r="E55" s="3" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F55" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú</t>
         </is>
       </c>
       <c r="G55" s="3" t="inlineStr">
@@ -2872,7 +2870,7 @@
       </c>
       <c r="H55" s="3" t="inlineStr">
         <is>
-          <t>65 x R$ 2903,00</t>
+          <t>16 x R$ 6764,00</t>
         </is>
       </c>
       <c r="I55" s="3" t="inlineStr"/>
@@ -2891,22 +2889,22 @@
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>210000,00</t>
+          <t>210700,00</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
         <is>
-          <t>97500,00</t>
+          <t>100535,00</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>77</t>
         </is>
       </c>
       <c r="F56" s="3" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G56" s="3" t="inlineStr">
@@ -2916,7 +2914,8 @@
       </c>
       <c r="H56" s="3" t="inlineStr">
         <is>
-          <t>57 x R$ 3630,00</t>
+          <t>2 x R$ 1769,00
+75 x R$ 2411,00</t>
         </is>
       </c>
       <c r="I56" s="3" t="inlineStr"/>
@@ -2935,22 +2934,22 @@
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>286186,00</t>
+          <t>211000,00</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
         <is>
-          <t>112309,30</t>
+          <t>97550,00</t>
         </is>
       </c>
       <c r="E57" s="3" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>97</t>
         </is>
       </c>
       <c r="F57" s="3" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G57" s="3" t="inlineStr">
@@ -2960,8 +2959,7 @@
       </c>
       <c r="H57" s="3" t="inlineStr">
         <is>
-          <t>1 x R$ 9970,89
-46 x R$ 5925,00</t>
+          <t>97 x R$ 2132,00</t>
         </is>
       </c>
       <c r="I57" s="3" t="inlineStr"/>
@@ -2980,17 +2978,17 @@
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>200600,00</t>
+          <t>261160,00</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
         <is>
-          <t>84030,00</t>
+          <t>110058,00</t>
         </is>
       </c>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>112</t>
         </is>
       </c>
       <c r="F58" s="3" t="inlineStr">
@@ -3005,8 +3003,7 @@
       </c>
       <c r="H58" s="3" t="inlineStr">
         <is>
-          <t>60 x R$ 3022,00
-17 x R$ 1798,00</t>
+          <t>112 x R$ 2591,00</t>
         </is>
       </c>
       <c r="I58" s="3" t="inlineStr"/>
@@ -3025,22 +3022,22 @@
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>75600,00</t>
+          <t>111002,00</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
         <is>
-          <t>31780,00</t>
+          <t>35050,10</t>
         </is>
       </c>
       <c r="E59" s="3" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>38</t>
         </is>
       </c>
       <c r="F59" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú</t>
         </is>
       </c>
       <c r="G59" s="3" t="inlineStr">
@@ -3050,7 +3047,8 @@
       </c>
       <c r="H59" s="3" t="inlineStr">
         <is>
-          <t>60 x R$ 1224,00</t>
+          <t>36 x R$ 3549,00
+2 x R$ 2211,00</t>
         </is>
       </c>
       <c r="I59" s="3" t="inlineStr"/>
@@ -3069,17 +3067,17 @@
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>79100,00</t>
+          <t>102200,00</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr">
         <is>
-          <t>31955,00</t>
+          <t>42110,00</t>
         </is>
       </c>
       <c r="E60" s="3" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>63</t>
         </is>
       </c>
       <c r="F60" s="3" t="inlineStr">
@@ -3094,7 +3092,9 @@
       </c>
       <c r="H60" s="3" t="inlineStr">
         <is>
-          <t>48 x R$ 1536,00</t>
+          <t>2 x R$ 1246,00
+53 x R$ 1889,00
+8 x R$ 617,00</t>
         </is>
       </c>
       <c r="I60" s="3" t="inlineStr"/>
@@ -3113,17 +3113,17 @@
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>78620,00</t>
+          <t>259680,00</t>
         </is>
       </c>
       <c r="D61" s="3" t="inlineStr">
         <is>
-          <t>28431,00</t>
+          <t>109384,00</t>
         </is>
       </c>
       <c r="E61" s="3" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>62</t>
         </is>
       </c>
       <c r="F61" s="3" t="inlineStr">
@@ -3138,8 +3138,9 @@
       </c>
       <c r="H61" s="3" t="inlineStr">
         <is>
-          <t>30 x R$ 2538,00
-1 x R$ 1262,00</t>
+          <t>2 x R$ 5083,00
+25 x R$ 5823,00
+35 x R$ 2427,00</t>
         </is>
       </c>
       <c r="I61" s="3" t="inlineStr"/>
@@ -3158,17 +3159,17 @@
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>125000,00</t>
+          <t>53160,00</t>
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr">
         <is>
-          <t>52250,00</t>
+          <t>20558,00</t>
         </is>
       </c>
       <c r="E62" s="3" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F62" s="3" t="inlineStr">
@@ -3183,7 +3184,7 @@
       </c>
       <c r="H62" s="3" t="inlineStr">
         <is>
-          <t>77 x R$ 1798,00</t>
+          <t>39 x R$ 1287,00</t>
         </is>
       </c>
       <c r="I62" s="3" t="inlineStr"/>
@@ -3202,17 +3203,17 @@
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>82400,00</t>
+          <t>58950,00</t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr">
         <is>
-          <t>33020,00</t>
+          <t>15447,50</t>
         </is>
       </c>
       <c r="E63" s="3" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F63" s="3" t="inlineStr">
@@ -3227,9 +3228,7 @@
       </c>
       <c r="H63" s="3" t="inlineStr">
         <is>
-          <t>2 x R$ 1317,45
-37 x R$ 1834,00
-9 x R$ 1057,00</t>
+          <t>32 x R$ 1938,00</t>
         </is>
       </c>
       <c r="I63" s="3" t="inlineStr"/>
@@ -3248,17 +3247,17 @@
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>266420,00</t>
+          <t>106830,00</t>
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr">
         <is>
-          <t>110821,00</t>
+          <t>50841,50</t>
         </is>
       </c>
       <c r="E64" s="3" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>37</t>
         </is>
       </c>
       <c r="F64" s="3" t="inlineStr">
@@ -3273,8 +3272,7 @@
       </c>
       <c r="H64" s="3" t="inlineStr">
         <is>
-          <t>27 x R$ 5221,00
-31 x R$ 3536,00</t>
+          <t>37 x R$ 2298,00</t>
         </is>
       </c>
       <c r="I64" s="3" t="inlineStr"/>
@@ -3293,12 +3291,12 @@
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>111160,00</t>
+          <t>59170,00</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
         <is>
-          <t>29058,00</t>
+          <t>18158,50</t>
         </is>
       </c>
       <c r="E65" s="3" t="inlineStr">
@@ -3318,8 +3316,7 @@
       </c>
       <c r="H65" s="3" t="inlineStr">
         <is>
-          <t>25 x R$ 4419,00
-6 x R$ 1419,00</t>
+          <t>31 x R$ 1898,00</t>
         </is>
       </c>
       <c r="I65" s="3" t="inlineStr"/>
@@ -3338,17 +3335,17 @@
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>678380,00</t>
+          <t>45350,00</t>
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr">
         <is>
-          <t>336919,00</t>
+          <t>12167,50</t>
         </is>
       </c>
       <c r="E66" s="3" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F66" s="3" t="inlineStr">
@@ -3363,9 +3360,7 @@
       </c>
       <c r="H66" s="3" t="inlineStr">
         <is>
-          <t>64 x R$ 7995,00
-3 x R$ 5318,00
-12 x R$ 2451,00</t>
+          <t>27 x R$ 1755,00</t>
         </is>
       </c>
       <c r="I66" s="3" t="inlineStr"/>
@@ -3379,27 +3374,27 @@
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>Imóveis</t>
+          <t>Veículos</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>53700,00</t>
+          <t>68200,00</t>
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr">
         <is>
-          <t>27685,00</t>
+          <t>28410,00</t>
         </is>
       </c>
       <c r="E67" s="3" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>55</t>
         </is>
       </c>
       <c r="F67" s="3" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G67" s="3" t="inlineStr">
@@ -3409,7 +3404,8 @@
       </c>
       <c r="H67" s="3" t="inlineStr">
         <is>
-          <t>177 x R$ 371,14</t>
+          <t>2 x R$ 963,00
+53 x R$ 1272,00</t>
         </is>
       </c>
       <c r="I67" s="3" t="inlineStr"/>
@@ -3423,27 +3419,27 @@
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>Imóveis</t>
+          <t>Veículos</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>59200,00</t>
+          <t>50000,00</t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
         <is>
-          <t>30460,00</t>
+          <t>18500,00</t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>59</t>
         </is>
       </c>
       <c r="F68" s="3" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G68" s="3" t="inlineStr">
@@ -3453,7 +3449,8 @@
       </c>
       <c r="H68" s="3" t="inlineStr">
         <is>
-          <t>149 x R$ 450,00</t>
+          <t>2 x R$ 750,00
+57 x R$ 960,00</t>
         </is>
       </c>
       <c r="I68" s="3" t="inlineStr"/>
@@ -3472,22 +3469,22 @@
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>70000,00</t>
+          <t>38600,00</t>
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr">
         <is>
-          <t>35000,00</t>
+          <t>20430,00</t>
         </is>
       </c>
       <c r="E69" s="3" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>169</t>
         </is>
       </c>
       <c r="F69" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú</t>
         </is>
       </c>
       <c r="G69" s="3" t="inlineStr">
@@ -3497,8 +3494,7 @@
       </c>
       <c r="H69" s="3" t="inlineStr">
         <is>
-          <t>22 x R$ 463,00
-170 x R$ 380,00</t>
+          <t>169 x R$ 299,00</t>
         </is>
       </c>
       <c r="I69" s="3" t="inlineStr"/>
@@ -3517,22 +3513,22 @@
       </c>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t>74800,00</t>
+          <t>65500,00</t>
         </is>
       </c>
       <c r="D70" s="3" t="inlineStr">
         <is>
-          <t>46840,00</t>
+          <t>30275,00</t>
         </is>
       </c>
       <c r="E70" s="3" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>211</t>
         </is>
       </c>
       <c r="F70" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Santander</t>
         </is>
       </c>
       <c r="G70" s="3" t="inlineStr">
@@ -3542,7 +3538,7 @@
       </c>
       <c r="H70" s="3" t="inlineStr">
         <is>
-          <t>119 x R$ 586,00</t>
+          <t>211 x R$ 367,00</t>
         </is>
       </c>
       <c r="I70" s="3" t="inlineStr"/>
@@ -3561,22 +3557,22 @@
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>80000,00</t>
+          <t>68100,00</t>
         </is>
       </c>
       <c r="D71" s="3" t="inlineStr">
         <is>
-          <t>52500,00</t>
+          <t>36405,00</t>
         </is>
       </c>
       <c r="E71" s="3" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>140</t>
         </is>
       </c>
       <c r="F71" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú</t>
         </is>
       </c>
       <c r="G71" s="3" t="inlineStr">
@@ -3586,7 +3582,7 @@
       </c>
       <c r="H71" s="3" t="inlineStr">
         <is>
-          <t>151 x R$ 435,00</t>
+          <t>140 x R$ 465,95</t>
         </is>
       </c>
       <c r="I71" s="3" t="inlineStr"/>
@@ -3605,17 +3601,17 @@
       </c>
       <c r="C72" s="3" t="inlineStr">
         <is>
-          <t>83000,00</t>
+          <t>70000,00</t>
         </is>
       </c>
       <c r="D72" s="3" t="inlineStr">
         <is>
-          <t>41150,00</t>
+          <t>36000,00</t>
         </is>
       </c>
       <c r="E72" s="3" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>192</t>
         </is>
       </c>
       <c r="F72" s="3" t="inlineStr">
@@ -3630,7 +3626,7 @@
       </c>
       <c r="H72" s="3" t="inlineStr">
         <is>
-          <t>132 x R$ 723,00</t>
+          <t>192 x R$ 378,00</t>
         </is>
       </c>
       <c r="I72" s="3" t="inlineStr"/>
@@ -3649,20 +3645,22 @@
       </c>
       <c r="C73" s="3" t="inlineStr">
         <is>
-          <t>86000,00</t>
+          <t>70300,00</t>
         </is>
       </c>
       <c r="D73" s="3" t="inlineStr">
         <is>
-          <t>47300,00</t>
-        </is>
-      </c>
-      <c r="E73" s="3" t="n">
-        <v>111</v>
+          <t>36015,00</t>
+        </is>
+      </c>
+      <c r="E73" s="3" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
       </c>
       <c r="F73" s="3" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G73" s="3" t="inlineStr">
@@ -3672,7 +3670,8 @@
       </c>
       <c r="H73" s="3" t="inlineStr">
         <is>
-          <t>111 x R$ 588,00</t>
+          <t>21 x R$ 463,00
+170 x R$ 380,00</t>
         </is>
       </c>
       <c r="I73" s="3" t="inlineStr"/>
@@ -3691,17 +3690,17 @@
       </c>
       <c r="C74" s="3" t="inlineStr">
         <is>
-          <t>87500,00</t>
+          <t>71600,00</t>
         </is>
       </c>
       <c r="D74" s="3" t="inlineStr">
         <is>
-          <t>43475,00</t>
+          <t>38580,00</t>
         </is>
       </c>
       <c r="E74" s="3" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>165</t>
         </is>
       </c>
       <c r="F74" s="3" t="inlineStr">
@@ -3716,7 +3715,7 @@
       </c>
       <c r="H74" s="3" t="inlineStr">
         <is>
-          <t>159 x R$ 601,00</t>
+          <t>165 x R$ 405,00</t>
         </is>
       </c>
       <c r="I74" s="3" t="inlineStr"/>
@@ -3735,17 +3734,17 @@
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t>96400,00</t>
+          <t>74800,00</t>
         </is>
       </c>
       <c r="D75" s="3" t="inlineStr">
         <is>
-          <t>28320,00</t>
+          <t>47240,00</t>
         </is>
       </c>
       <c r="E75" s="3" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>119</t>
         </is>
       </c>
       <c r="F75" s="3" t="inlineStr">
@@ -3760,8 +3759,7 @@
       </c>
       <c r="H75" s="3" t="inlineStr">
         <is>
-          <t>2 x R$ 2491,00
-58 x R$ 1934,00</t>
+          <t>119 x R$ 586,00</t>
         </is>
       </c>
       <c r="I75" s="3" t="inlineStr"/>
@@ -3780,22 +3778,22 @@
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>97200,00</t>
+          <t>76000,00</t>
         </is>
       </c>
       <c r="D76" s="3" t="inlineStr">
         <is>
-          <t>47860,00</t>
+          <t>38800,00</t>
         </is>
       </c>
       <c r="E76" s="3" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>128</t>
         </is>
       </c>
       <c r="F76" s="3" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Itaú</t>
         </is>
       </c>
       <c r="G76" s="3" t="inlineStr">
@@ -3805,7 +3803,7 @@
       </c>
       <c r="H76" s="3" t="inlineStr">
         <is>
-          <t>159 x R$ 642,00</t>
+          <t>128 x R$ 531,00</t>
         </is>
       </c>
       <c r="I76" s="3" t="inlineStr"/>
@@ -3824,17 +3822,17 @@
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t>99500,00</t>
+          <t>80500,00</t>
         </is>
       </c>
       <c r="D77" s="3" t="inlineStr">
         <is>
-          <t>57975,00</t>
+          <t>53025,00</t>
         </is>
       </c>
       <c r="E77" s="3" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>151</t>
         </is>
       </c>
       <c r="F77" s="3" t="inlineStr">
@@ -3849,7 +3847,7 @@
       </c>
       <c r="H77" s="3" t="inlineStr">
         <is>
-          <t>185 x R$ 554,00</t>
+          <t>151 x R$ 435,00</t>
         </is>
       </c>
       <c r="I77" s="3" t="inlineStr"/>
@@ -3868,22 +3866,22 @@
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>105000,00</t>
+          <t>84000,00</t>
         </is>
       </c>
       <c r="D78" s="3" t="inlineStr">
         <is>
-          <t>52250,00</t>
+          <t>42200,00</t>
         </is>
       </c>
       <c r="E78" s="3" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>135</t>
         </is>
       </c>
       <c r="F78" s="3" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Santander</t>
         </is>
       </c>
       <c r="G78" s="3" t="inlineStr">
@@ -3893,7 +3891,7 @@
       </c>
       <c r="H78" s="3" t="inlineStr">
         <is>
-          <t>168 x R$ 695,00</t>
+          <t>135 x R$ 519,00</t>
         </is>
       </c>
       <c r="I78" s="3" t="inlineStr"/>
@@ -3912,22 +3910,22 @@
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>108000,00</t>
+          <t>96400,00</t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
         <is>
-          <t>46900,00</t>
+          <t>28320,00</t>
         </is>
       </c>
       <c r="E79" s="3" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F79" s="3" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G79" s="3" t="inlineStr">
@@ -3937,7 +3935,8 @@
       </c>
       <c r="H79" s="3" t="inlineStr">
         <is>
-          <t>137 x R$ 930,00</t>
+          <t>2 x R$ 2535,00
+58 x R$ 1934,00</t>
         </is>
       </c>
       <c r="I79" s="3" t="inlineStr"/>
@@ -3956,17 +3955,17 @@
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>108000,00</t>
+          <t>99000,00</t>
         </is>
       </c>
       <c r="D80" s="3" t="inlineStr">
         <is>
-          <t>59600,00</t>
+          <t>57950,00</t>
         </is>
       </c>
       <c r="E80" s="3" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>185</t>
         </is>
       </c>
       <c r="F80" s="3" t="inlineStr">
@@ -3981,7 +3980,7 @@
       </c>
       <c r="H80" s="3" t="inlineStr">
         <is>
-          <t>188 x R$ 584,00</t>
+          <t>185 x R$ 554,00</t>
         </is>
       </c>
       <c r="I80" s="3" t="inlineStr"/>
@@ -4000,22 +3999,22 @@
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>110000,00</t>
+          <t>100100,00</t>
         </is>
       </c>
       <c r="D81" s="3" t="inlineStr">
         <is>
-          <t>65900,00</t>
+          <t>51505,00</t>
         </is>
       </c>
       <c r="E81" s="3" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>173</t>
         </is>
       </c>
       <c r="F81" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G81" s="3" t="inlineStr">
@@ -4025,7 +4024,7 @@
       </c>
       <c r="H81" s="3" t="inlineStr">
         <is>
-          <t>179 x R$ 615,00</t>
+          <t>173 x R$ 700,00</t>
         </is>
       </c>
       <c r="I81" s="3" t="inlineStr"/>
@@ -4044,22 +4043,22 @@
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>110000,00</t>
+          <t>105000,00</t>
         </is>
       </c>
       <c r="D82" s="3" t="inlineStr">
         <is>
-          <t>74500,00</t>
+          <t>52250,00</t>
         </is>
       </c>
       <c r="E82" s="3" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>167</t>
         </is>
       </c>
       <c r="F82" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G82" s="3" t="inlineStr">
@@ -4069,7 +4068,7 @@
       </c>
       <c r="H82" s="3" t="inlineStr">
         <is>
-          <t>84 x R$ 623,00</t>
+          <t>167 x R$ 695,00</t>
         </is>
       </c>
       <c r="I82" s="3" t="inlineStr"/>
@@ -4088,22 +4087,22 @@
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>111000,00</t>
+          <t>109800,00</t>
         </is>
       </c>
       <c r="D83" s="3" t="inlineStr">
         <is>
-          <t>56050,00</t>
+          <t>79990,00</t>
         </is>
       </c>
       <c r="E83" s="3" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>83</t>
         </is>
       </c>
       <c r="F83" s="3" t="inlineStr">
         <is>
-          <t>Bradesco</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G83" s="3" t="inlineStr">
@@ -4113,7 +4112,7 @@
       </c>
       <c r="H83" s="3" t="inlineStr">
         <is>
-          <t>130 x R$ 924,00</t>
+          <t>83 x R$ 623,00</t>
         </is>
       </c>
       <c r="I83" s="3" t="inlineStr"/>
@@ -4132,22 +4131,22 @@
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>115000,00</t>
+          <t>110000,00</t>
         </is>
       </c>
       <c r="D84" s="3" t="inlineStr">
         <is>
-          <t>70750,00</t>
+          <t>54000,00</t>
         </is>
       </c>
       <c r="E84" s="3" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>177</t>
         </is>
       </c>
       <c r="F84" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G84" s="3" t="inlineStr">
@@ -4157,7 +4156,7 @@
       </c>
       <c r="H84" s="3" t="inlineStr">
         <is>
-          <t>123 x R$ 929,00</t>
+          <t>177 x R$ 800,00</t>
         </is>
       </c>
       <c r="I84" s="3" t="inlineStr"/>
@@ -4176,22 +4175,22 @@
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>117040,00</t>
+          <t>111000,00</t>
         </is>
       </c>
       <c r="D85" s="3" t="inlineStr">
         <is>
-          <t>76152,00</t>
+          <t>56550,00</t>
         </is>
       </c>
       <c r="E85" s="3" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>129</t>
         </is>
       </c>
       <c r="F85" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G85" s="3" t="inlineStr">
@@ -4201,7 +4200,7 @@
       </c>
       <c r="H85" s="3" t="inlineStr">
         <is>
-          <t>120 x R$ 747,00</t>
+          <t>129 x R$ 924,00</t>
         </is>
       </c>
       <c r="I85" s="3" t="inlineStr"/>
@@ -4220,17 +4219,17 @@
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>118020,00</t>
+          <t>111500,00</t>
         </is>
       </c>
       <c r="D86" s="3" t="inlineStr">
         <is>
-          <t>62901,00</t>
+          <t>60075,00</t>
         </is>
       </c>
       <c r="E86" s="3" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>131</t>
         </is>
       </c>
       <c r="F86" s="3" t="inlineStr">
@@ -4245,7 +4244,7 @@
       </c>
       <c r="H86" s="3" t="inlineStr">
         <is>
-          <t>109 x R$ 941,00</t>
+          <t>131 x R$ 942,00</t>
         </is>
       </c>
       <c r="I86" s="3" t="inlineStr"/>
@@ -4264,520 +4263,520 @@
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
+          <t>112000,00</t>
+        </is>
+      </c>
+      <c r="D87" s="3" t="inlineStr">
+        <is>
+          <t>54600,00</t>
+        </is>
+      </c>
+      <c r="E87" s="3" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="F87" s="3" t="inlineStr">
+        <is>
+          <t>Santander</t>
+        </is>
+      </c>
+      <c r="G87" s="3" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H87" s="3" t="inlineStr">
+        <is>
+          <t>212 x R$ 607,64</t>
+        </is>
+      </c>
+      <c r="I87" s="3" t="inlineStr"/>
+      <c r="J87" s="3" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="3" t="inlineStr">
+        <is>
+          <t>CC1087</t>
+        </is>
+      </c>
+      <c r="B88" s="3" t="inlineStr">
+        <is>
+          <t>Imóveis</t>
+        </is>
+      </c>
+      <c r="C88" s="3" t="inlineStr">
+        <is>
+          <t>112500,00</t>
+        </is>
+      </c>
+      <c r="D88" s="3" t="inlineStr">
+        <is>
+          <t>59825,00</t>
+        </is>
+      </c>
+      <c r="E88" s="3" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="F88" s="3" t="inlineStr">
+        <is>
+          <t>Itaú</t>
+        </is>
+      </c>
+      <c r="G88" s="3" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H88" s="3" t="inlineStr">
+        <is>
+          <t>147 x R$ 572,00</t>
+        </is>
+      </c>
+      <c r="I88" s="3" t="inlineStr"/>
+      <c r="J88" s="3" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="inlineStr">
+        <is>
+          <t>CC1088</t>
+        </is>
+      </c>
+      <c r="B89" s="3" t="inlineStr">
+        <is>
+          <t>Imóveis</t>
+        </is>
+      </c>
+      <c r="C89" s="3" t="inlineStr">
+        <is>
+          <t>115500,00</t>
+        </is>
+      </c>
+      <c r="D89" s="3" t="inlineStr">
+        <is>
+          <t>61275,00</t>
+        </is>
+      </c>
+      <c r="E89" s="3" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="F89" s="3" t="inlineStr">
+        <is>
+          <t>Porto Seguro</t>
+        </is>
+      </c>
+      <c r="G89" s="3" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H89" s="3" t="inlineStr">
+        <is>
+          <t>152 x R$ 875,00</t>
+        </is>
+      </c>
+      <c r="I89" s="3" t="inlineStr"/>
+      <c r="J89" s="3" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="3" t="inlineStr">
+        <is>
+          <t>CC1089</t>
+        </is>
+      </c>
+      <c r="B90" s="3" t="inlineStr">
+        <is>
+          <t>Imóveis</t>
+        </is>
+      </c>
+      <c r="C90" s="3" t="inlineStr">
+        <is>
+          <t>116500,00</t>
+        </is>
+      </c>
+      <c r="D90" s="3" t="inlineStr">
+        <is>
+          <t>69825,00</t>
+        </is>
+      </c>
+      <c r="E90" s="3" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="F90" s="3" t="inlineStr">
+        <is>
+          <t>Porto Seguro</t>
+        </is>
+      </c>
+      <c r="G90" s="3" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H90" s="3" t="inlineStr">
+        <is>
+          <t>155 x R$ 667,00</t>
+        </is>
+      </c>
+      <c r="I90" s="3" t="inlineStr"/>
+      <c r="J90" s="3" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="inlineStr">
+        <is>
+          <t>CC1090</t>
+        </is>
+      </c>
+      <c r="B91" s="3" t="inlineStr">
+        <is>
+          <t>Imóveis</t>
+        </is>
+      </c>
+      <c r="C91" s="3" t="inlineStr">
+        <is>
+          <t>116600,00</t>
+        </is>
+      </c>
+      <c r="D91" s="3" t="inlineStr">
+        <is>
+          <t>68830,00</t>
+        </is>
+      </c>
+      <c r="E91" s="3" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="F91" s="3" t="inlineStr">
+        <is>
+          <t>Porto Seguro</t>
+        </is>
+      </c>
+      <c r="G91" s="3" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H91" s="3" t="inlineStr">
+        <is>
+          <t>83 x R$ 1096,00</t>
+        </is>
+      </c>
+      <c r="I91" s="3" t="inlineStr"/>
+      <c r="J91" s="3" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="3" t="inlineStr">
+        <is>
+          <t>CC1091</t>
+        </is>
+      </c>
+      <c r="B92" s="3" t="inlineStr">
+        <is>
+          <t>Imóveis</t>
+        </is>
+      </c>
+      <c r="C92" s="3" t="inlineStr">
+        <is>
+          <t>118790,00</t>
+        </is>
+      </c>
+      <c r="D92" s="3" t="inlineStr">
+        <is>
+          <t>62939,50</t>
+        </is>
+      </c>
+      <c r="E92" s="3" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="F92" s="3" t="inlineStr">
+        <is>
+          <t>Porto Seguro</t>
+        </is>
+      </c>
+      <c r="G92" s="3" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H92" s="3" t="inlineStr">
+        <is>
+          <t>108 x R$ 941,00</t>
+        </is>
+      </c>
+      <c r="I92" s="3" t="inlineStr"/>
+      <c r="J92" s="3" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="inlineStr">
+        <is>
+          <t>CC1092</t>
+        </is>
+      </c>
+      <c r="B93" s="3" t="inlineStr">
+        <is>
+          <t>Imóveis</t>
+        </is>
+      </c>
+      <c r="C93" s="3" t="inlineStr">
+        <is>
           <t>120000,00</t>
         </is>
       </c>
-      <c r="D87" s="3" t="inlineStr">
-        <is>
-          <t>61600,00</t>
-        </is>
-      </c>
-      <c r="E87" s="3" t="inlineStr">
+      <c r="D93" s="3" t="inlineStr">
+        <is>
+          <t>60500,00</t>
+        </is>
+      </c>
+      <c r="E93" s="3" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="F87" s="3" t="inlineStr">
-        <is>
-          <t>Porto Seguro</t>
-        </is>
-      </c>
-      <c r="G87" s="3" t="inlineStr">
-        <is>
-          <t>Disponível</t>
-        </is>
-      </c>
-      <c r="H87" s="3" t="inlineStr">
+      <c r="F93" s="3" t="inlineStr">
+        <is>
+          <t>Porto Seguro</t>
+        </is>
+      </c>
+      <c r="G93" s="3" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H93" s="3" t="inlineStr">
         <is>
           <t>8 x R$ 1084,00
 144 x R$ 817,00</t>
         </is>
       </c>
-      <c r="I87" s="3" t="inlineStr"/>
-      <c r="J87" s="3" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="3" t="inlineStr">
-        <is>
-          <t>CC1087</t>
-        </is>
-      </c>
-      <c r="B88" s="3" t="inlineStr">
+      <c r="I93" s="3" t="inlineStr"/>
+      <c r="J93" s="3" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="3" t="inlineStr">
+        <is>
+          <t>CC1093</t>
+        </is>
+      </c>
+      <c r="B94" s="3" t="inlineStr">
         <is>
           <t>Imóveis</t>
         </is>
       </c>
-      <c r="C88" s="3" t="inlineStr">
-        <is>
-          <t>122800,00</t>
-        </is>
-      </c>
-      <c r="D88" s="3" t="inlineStr">
-        <is>
-          <t>60340,00</t>
-        </is>
-      </c>
-      <c r="E88" s="3" t="inlineStr">
+      <c r="C94" s="3" t="inlineStr">
+        <is>
+          <t>124540,00</t>
+        </is>
+      </c>
+      <c r="D94" s="3" t="inlineStr">
+        <is>
+          <t>66227,00</t>
+        </is>
+      </c>
+      <c r="E94" s="3" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="F94" s="3" t="inlineStr">
+        <is>
+          <t>Porto Seguro</t>
+        </is>
+      </c>
+      <c r="G94" s="3" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H94" s="3" t="inlineStr">
+        <is>
+          <t>98 x R$ 1078,00</t>
+        </is>
+      </c>
+      <c r="I94" s="3" t="inlineStr"/>
+      <c r="J94" s="3" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="inlineStr">
+        <is>
+          <t>CC1094</t>
+        </is>
+      </c>
+      <c r="B95" s="3" t="inlineStr">
+        <is>
+          <t>Imóveis</t>
+        </is>
+      </c>
+      <c r="C95" s="3" t="inlineStr">
+        <is>
+          <t>125000,00</t>
+        </is>
+      </c>
+      <c r="D95" s="3" t="inlineStr">
+        <is>
+          <t>58750,00</t>
+        </is>
+      </c>
+      <c r="E95" s="3" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="F95" s="3" t="inlineStr">
+        <is>
+          <t>Porto Seguro</t>
+        </is>
+      </c>
+      <c r="G95" s="3" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H95" s="3" t="inlineStr">
+        <is>
+          <t>131 x R$ 1036,00</t>
+        </is>
+      </c>
+      <c r="I95" s="3" t="inlineStr"/>
+      <c r="J95" s="3" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="3" t="inlineStr">
+        <is>
+          <t>CC1095</t>
+        </is>
+      </c>
+      <c r="B96" s="3" t="inlineStr">
+        <is>
+          <t>Imóveis</t>
+        </is>
+      </c>
+      <c r="C96" s="3" t="inlineStr">
+        <is>
+          <t>127540,00</t>
+        </is>
+      </c>
+      <c r="D96" s="3" t="inlineStr">
+        <is>
+          <t>69377,00</t>
+        </is>
+      </c>
+      <c r="E96" s="3" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F96" s="3" t="inlineStr">
+        <is>
+          <t>Porto Seguro</t>
+        </is>
+      </c>
+      <c r="G96" s="3" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H96" s="3" t="inlineStr">
+        <is>
+          <t>70 x R$ 1273,00</t>
+        </is>
+      </c>
+      <c r="I96" s="3" t="inlineStr"/>
+      <c r="J96" s="3" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="3" t="inlineStr">
+        <is>
+          <t>CC1096</t>
+        </is>
+      </c>
+      <c r="B97" s="3" t="inlineStr">
+        <is>
+          <t>Imóveis</t>
+        </is>
+      </c>
+      <c r="C97" s="3" t="inlineStr">
+        <is>
+          <t>130600,00</t>
+        </is>
+      </c>
+      <c r="D97" s="3" t="inlineStr">
+        <is>
+          <t>86830,00</t>
+        </is>
+      </c>
+      <c r="E97" s="3" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="F97" s="3" t="inlineStr">
+        <is>
+          <t>Porto Seguro</t>
+        </is>
+      </c>
+      <c r="G97" s="3" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H97" s="3" t="inlineStr">
+        <is>
+          <t>95 x R$ 1190,00</t>
+        </is>
+      </c>
+      <c r="I97" s="3" t="inlineStr"/>
+      <c r="J97" s="3" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="3" t="inlineStr">
+        <is>
+          <t>CC1097</t>
+        </is>
+      </c>
+      <c r="B98" s="3" t="inlineStr">
+        <is>
+          <t>Imóveis</t>
+        </is>
+      </c>
+      <c r="C98" s="3" t="inlineStr">
+        <is>
+          <t>135000,00</t>
+        </is>
+      </c>
+      <c r="D98" s="3" t="inlineStr">
+        <is>
+          <t>68750,00</t>
+        </is>
+      </c>
+      <c r="E98" s="3" t="inlineStr">
         <is>
           <t>147</t>
         </is>
       </c>
-      <c r="F88" s="3" t="inlineStr">
-        <is>
-          <t>Bradesco</t>
-        </is>
-      </c>
-      <c r="G88" s="3" t="inlineStr">
-        <is>
-          <t>Disponível</t>
-        </is>
-      </c>
-      <c r="H88" s="3" t="inlineStr">
-        <is>
-          <t>147 x R$ 750,00</t>
-        </is>
-      </c>
-      <c r="I88" s="3" t="inlineStr"/>
-      <c r="J88" s="3" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="3" t="inlineStr">
-        <is>
-          <t>CC1088</t>
-        </is>
-      </c>
-      <c r="B89" s="3" t="inlineStr">
-        <is>
-          <t>Imóveis</t>
-        </is>
-      </c>
-      <c r="C89" s="3" t="inlineStr">
-        <is>
-          <t>127500,00</t>
-        </is>
-      </c>
-      <c r="D89" s="3" t="inlineStr">
-        <is>
-          <t>68375,00</t>
-        </is>
-      </c>
-      <c r="E89" s="3" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="F89" s="3" t="inlineStr">
-        <is>
-          <t>Porto Seguro</t>
-        </is>
-      </c>
-      <c r="G89" s="3" t="inlineStr">
-        <is>
-          <t>Disponível</t>
-        </is>
-      </c>
-      <c r="H89" s="3" t="inlineStr">
-        <is>
-          <t>71 x R$ 1273,00</t>
-        </is>
-      </c>
-      <c r="I89" s="3" t="inlineStr"/>
-      <c r="J89" s="3" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="3" t="inlineStr">
-        <is>
-          <t>CC1089</t>
-        </is>
-      </c>
-      <c r="B90" s="3" t="inlineStr">
-        <is>
-          <t>Imóveis</t>
-        </is>
-      </c>
-      <c r="C90" s="3" t="inlineStr">
-        <is>
-          <t>129600,00</t>
-        </is>
-      </c>
-      <c r="D90" s="3" t="inlineStr">
-        <is>
-          <t>84580,00</t>
-        </is>
-      </c>
-      <c r="E90" s="3" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
-      <c r="F90" s="3" t="inlineStr">
-        <is>
-          <t>Porto Seguro</t>
-        </is>
-      </c>
-      <c r="G90" s="3" t="inlineStr">
-        <is>
-          <t>Disponível</t>
-        </is>
-      </c>
-      <c r="H90" s="3" t="inlineStr">
-        <is>
-          <t>95 x R$ 1187,00</t>
-        </is>
-      </c>
-      <c r="I90" s="3" t="inlineStr"/>
-      <c r="J90" s="3" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="3" t="inlineStr">
-        <is>
-          <t>CC1090</t>
-        </is>
-      </c>
-      <c r="B91" s="3" t="inlineStr">
-        <is>
-          <t>Imóveis</t>
-        </is>
-      </c>
-      <c r="C91" s="3" t="inlineStr">
-        <is>
-          <t>134700,00</t>
-        </is>
-      </c>
-      <c r="D91" s="3" t="inlineStr">
-        <is>
-          <t>67935,00</t>
-        </is>
-      </c>
-      <c r="E91" s="3" t="inlineStr">
-        <is>
-          <t>147</t>
-        </is>
-      </c>
-      <c r="F91" s="3" t="inlineStr">
-        <is>
-          <t>Porto Seguro</t>
-        </is>
-      </c>
-      <c r="G91" s="3" t="inlineStr">
-        <is>
-          <t>Disponível</t>
-        </is>
-      </c>
-      <c r="H91" s="3" t="inlineStr">
+      <c r="F98" s="3" t="inlineStr">
+        <is>
+          <t>Porto Seguro</t>
+        </is>
+      </c>
+      <c r="G98" s="3" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H98" s="3" t="inlineStr">
         <is>
           <t>10 x R$ 1266,00
 137 x R$ 945,00</t>
         </is>
       </c>
-      <c r="I91" s="3" t="inlineStr"/>
-      <c r="J91" s="3" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="3" t="inlineStr">
-        <is>
-          <t>CC1091</t>
-        </is>
-      </c>
-      <c r="B92" s="3" t="inlineStr">
-        <is>
-          <t>Imóveis</t>
-        </is>
-      </c>
-      <c r="C92" s="3" t="inlineStr">
-        <is>
-          <t>144000,00</t>
-        </is>
-      </c>
-      <c r="D92" s="3" t="inlineStr">
-        <is>
-          <t>74400,00</t>
-        </is>
-      </c>
-      <c r="E92" s="3" t="inlineStr">
-        <is>
-          <t>164</t>
-        </is>
-      </c>
-      <c r="F92" s="3" t="inlineStr">
-        <is>
-          <t>Bradesco</t>
-        </is>
-      </c>
-      <c r="G92" s="3" t="inlineStr">
-        <is>
-          <t>Disponível</t>
-        </is>
-      </c>
-      <c r="H92" s="3" t="inlineStr">
-        <is>
-          <t>164 x R$ 1092,00</t>
-        </is>
-      </c>
-      <c r="I92" s="3" t="inlineStr"/>
-      <c r="J92" s="3" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="3" t="inlineStr">
-        <is>
-          <t>CC1092</t>
-        </is>
-      </c>
-      <c r="B93" s="3" t="inlineStr">
-        <is>
-          <t>Imóveis</t>
-        </is>
-      </c>
-      <c r="C93" s="3" t="inlineStr">
-        <is>
-          <t>151000,00</t>
-        </is>
-      </c>
-      <c r="D93" s="3" t="inlineStr">
-        <is>
-          <t>88950,00</t>
-        </is>
-      </c>
-      <c r="E93" s="3" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="F93" s="3" t="inlineStr">
-        <is>
-          <t>Bradesco</t>
-        </is>
-      </c>
-      <c r="G93" s="3" t="inlineStr">
-        <is>
-          <t>Disponível</t>
-        </is>
-      </c>
-      <c r="H93" s="3" t="inlineStr">
-        <is>
-          <t>140 x R$ 843,00</t>
-        </is>
-      </c>
-      <c r="I93" s="3" t="inlineStr"/>
-      <c r="J93" s="3" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="3" t="inlineStr">
-        <is>
-          <t>CC1093</t>
-        </is>
-      </c>
-      <c r="B94" s="3" t="inlineStr">
-        <is>
-          <t>Imóveis</t>
-        </is>
-      </c>
-      <c r="C94" s="3" t="inlineStr">
-        <is>
-          <t>151780,00</t>
-        </is>
-      </c>
-      <c r="D94" s="3" t="inlineStr">
-        <is>
-          <t>72589,00</t>
-        </is>
-      </c>
-      <c r="E94" s="3" t="inlineStr">
-        <is>
-          <t>142</t>
-        </is>
-      </c>
-      <c r="F94" s="3" t="inlineStr">
-        <is>
-          <t>Santander</t>
-        </is>
-      </c>
-      <c r="G94" s="3" t="inlineStr">
-        <is>
-          <t>Disponível</t>
-        </is>
-      </c>
-      <c r="H94" s="3" t="inlineStr">
-        <is>
-          <t>142 x R$ 1113,80</t>
-        </is>
-      </c>
-      <c r="I94" s="3" t="inlineStr"/>
-      <c r="J94" s="3" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="3" t="inlineStr">
-        <is>
-          <t>CC1094</t>
-        </is>
-      </c>
-      <c r="B95" s="3" t="inlineStr">
-        <is>
-          <t>Imóveis</t>
-        </is>
-      </c>
-      <c r="C95" s="3" t="inlineStr">
-        <is>
-          <t>153000,00</t>
-        </is>
-      </c>
-      <c r="D95" s="3" t="inlineStr">
-        <is>
-          <t>82050,00</t>
-        </is>
-      </c>
-      <c r="E95" s="3" t="inlineStr">
-        <is>
-          <t>161</t>
-        </is>
-      </c>
-      <c r="F95" s="3" t="inlineStr">
-        <is>
-          <t>Bradesco</t>
-        </is>
-      </c>
-      <c r="G95" s="3" t="inlineStr">
-        <is>
-          <t>Disponível</t>
-        </is>
-      </c>
-      <c r="H95" s="3" t="inlineStr">
-        <is>
-          <t>161 x R$ 1140,00</t>
-        </is>
-      </c>
-      <c r="I95" s="3" t="inlineStr"/>
-      <c r="J95" s="3" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="3" t="inlineStr">
-        <is>
-          <t>CC1095</t>
-        </is>
-      </c>
-      <c r="B96" s="3" t="inlineStr">
-        <is>
-          <t>Imóveis</t>
-        </is>
-      </c>
-      <c r="C96" s="3" t="inlineStr">
-        <is>
-          <t>191000,00</t>
-        </is>
-      </c>
-      <c r="D96" s="3" t="inlineStr">
-        <is>
-          <t>98550,00</t>
-        </is>
-      </c>
-      <c r="E96" s="3" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="F96" s="3" t="inlineStr">
-        <is>
-          <t>Itaú</t>
-        </is>
-      </c>
-      <c r="G96" s="3" t="inlineStr">
-        <is>
-          <t>Disponível</t>
-        </is>
-      </c>
-      <c r="H96" s="3" t="inlineStr">
-        <is>
-          <t>77 x R$ 1900,00</t>
-        </is>
-      </c>
-      <c r="I96" s="3" t="inlineStr"/>
-      <c r="J96" s="3" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="3" t="inlineStr">
-        <is>
-          <t>CC1096</t>
-        </is>
-      </c>
-      <c r="B97" s="3" t="inlineStr">
-        <is>
-          <t>Imóveis</t>
-        </is>
-      </c>
-      <c r="C97" s="3" t="inlineStr">
-        <is>
-          <t>210000,00</t>
-        </is>
-      </c>
-      <c r="D97" s="3" t="inlineStr">
-        <is>
-          <t>108500,00</t>
-        </is>
-      </c>
-      <c r="E97" s="3" t="inlineStr">
-        <is>
-          <t>192</t>
-        </is>
-      </c>
-      <c r="F97" s="3" t="inlineStr">
-        <is>
-          <t>Porto Seguro</t>
-        </is>
-      </c>
-      <c r="G97" s="3" t="inlineStr">
-        <is>
-          <t>Disponível</t>
-        </is>
-      </c>
-      <c r="H97" s="3" t="inlineStr">
-        <is>
-          <t>192 x R$ 1096,00</t>
-        </is>
-      </c>
-      <c r="I97" s="3" t="inlineStr"/>
-      <c r="J97" s="3" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="3" t="inlineStr">
-        <is>
-          <t>CC1097</t>
-        </is>
-      </c>
-      <c r="B98" s="3" t="inlineStr">
-        <is>
-          <t>Imóveis</t>
-        </is>
-      </c>
-      <c r="C98" s="3" t="inlineStr">
-        <is>
-          <t>218280,00</t>
-        </is>
-      </c>
-      <c r="D98" s="3" t="inlineStr">
-        <is>
-          <t>113914,00</t>
-        </is>
-      </c>
-      <c r="E98" s="3" t="inlineStr">
-        <is>
-          <t>177</t>
-        </is>
-      </c>
-      <c r="F98" s="3" t="inlineStr">
-        <is>
-          <t>Porto Seguro</t>
-        </is>
-      </c>
-      <c r="G98" s="3" t="inlineStr">
-        <is>
-          <t>Disponível</t>
-        </is>
-      </c>
-      <c r="H98" s="3" t="inlineStr">
-        <is>
-          <t>177 x R$ 1114,00</t>
-        </is>
-      </c>
       <c r="I98" s="3" t="inlineStr"/>
       <c r="J98" s="3" t="inlineStr"/>
     </row>
@@ -4794,22 +4793,22 @@
       </c>
       <c r="C99" s="3" t="inlineStr">
         <is>
-          <t>223000,00</t>
+          <t>139130,00</t>
         </is>
       </c>
       <c r="D99" s="3" t="inlineStr">
         <is>
-          <t>116150,00</t>
+          <t>68956,50</t>
         </is>
       </c>
       <c r="E99" s="3" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>181</t>
         </is>
       </c>
       <c r="F99" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Santander</t>
         </is>
       </c>
       <c r="G99" s="3" t="inlineStr">
@@ -4819,7 +4818,7 @@
       </c>
       <c r="H99" s="3" t="inlineStr">
         <is>
-          <t>169 x R$ 1364,00</t>
+          <t>181 x R$ 875,00</t>
         </is>
       </c>
       <c r="I99" s="3" t="inlineStr"/>
@@ -4838,20 +4837,22 @@
       </c>
       <c r="C100" s="3" t="inlineStr">
         <is>
-          <t>229260,00</t>
+          <t>144000,00</t>
         </is>
       </c>
       <c r="D100" s="3" t="inlineStr">
         <is>
-          <t>118463,00</t>
-        </is>
-      </c>
-      <c r="E100" s="3" t="n">
-        <v>48</v>
+          <t>75600,00</t>
+        </is>
+      </c>
+      <c r="E100" s="3" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
       </c>
       <c r="F100" s="3" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G100" s="3" t="inlineStr">
@@ -4861,7 +4862,7 @@
       </c>
       <c r="H100" s="3" t="inlineStr">
         <is>
-          <t>48 x R$ 4423,00</t>
+          <t>163 x R$ 1092,00</t>
         </is>
       </c>
       <c r="I100" s="3" t="inlineStr"/>
@@ -4880,22 +4881,22 @@
       </c>
       <c r="C101" s="3" t="inlineStr">
         <is>
-          <t>236000,00</t>
+          <t>150000,00</t>
         </is>
       </c>
       <c r="D101" s="3" t="inlineStr">
         <is>
-          <t>133800,00</t>
+          <t>63500,00</t>
         </is>
       </c>
       <c r="E101" s="3" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>187</t>
         </is>
       </c>
       <c r="F101" s="3" t="inlineStr">
         <is>
-          <t>Santander</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G101" s="3" t="inlineStr">
@@ -4905,7 +4906,9 @@
       </c>
       <c r="H101" s="3" t="inlineStr">
         <is>
-          <t>81 x R$ 1727,00</t>
+          <t>2 x R$ 742,00
+18 x R$ 1086,00
+167 x R$ 961,00</t>
         </is>
       </c>
       <c r="I101" s="3" t="inlineStr"/>
@@ -4924,17 +4927,17 @@
       </c>
       <c r="C102" s="3" t="inlineStr">
         <is>
-          <t>258360,00</t>
+          <t>152600,00</t>
         </is>
       </c>
       <c r="D102" s="3" t="inlineStr">
         <is>
-          <t>126918,00</t>
+          <t>72630,00</t>
         </is>
       </c>
       <c r="E102" s="3" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>142</t>
         </is>
       </c>
       <c r="F102" s="3" t="inlineStr">
@@ -4949,7 +4952,7 @@
       </c>
       <c r="H102" s="3" t="inlineStr">
         <is>
-          <t>101 x R$ 2302,00</t>
+          <t>142 x R$ 1114,00</t>
         </is>
       </c>
       <c r="I102" s="3" t="inlineStr"/>
@@ -4968,22 +4971,22 @@
       </c>
       <c r="C103" s="3" t="inlineStr">
         <is>
-          <t>270000,00</t>
+          <t>153000,00</t>
         </is>
       </c>
       <c r="D103" s="3" t="inlineStr">
         <is>
-          <t>146500,00</t>
+          <t>83150,00</t>
         </is>
       </c>
       <c r="E103" s="3" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>160</t>
         </is>
       </c>
       <c r="F103" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G103" s="3" t="inlineStr">
@@ -4993,8 +4996,7 @@
       </c>
       <c r="H103" s="3" t="inlineStr">
         <is>
-          <t>9 x R$ 2512,00
-137 x R$ 1894,00</t>
+          <t>160 x R$ 1140,00</t>
         </is>
       </c>
       <c r="I103" s="3" t="inlineStr"/>
@@ -5013,22 +5015,22 @@
       </c>
       <c r="C104" s="3" t="inlineStr">
         <is>
-          <t>300000,00</t>
+          <t>158000,00</t>
         </is>
       </c>
       <c r="D104" s="3" t="inlineStr">
         <is>
-          <t>176000,00</t>
+          <t>78400,00</t>
         </is>
       </c>
       <c r="E104" s="3" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>148</t>
         </is>
       </c>
       <c r="F104" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G104" s="3" t="inlineStr">
@@ -5038,7 +5040,7 @@
       </c>
       <c r="H104" s="3" t="inlineStr">
         <is>
-          <t>97 x R$ 2568,00</t>
+          <t>148 x R$ 1196,14</t>
         </is>
       </c>
       <c r="I104" s="3" t="inlineStr"/>
@@ -5057,22 +5059,22 @@
       </c>
       <c r="C105" s="3" t="inlineStr">
         <is>
-          <t>302000,00</t>
+          <t>160000,00</t>
         </is>
       </c>
       <c r="D105" s="3" t="inlineStr">
         <is>
-          <t>161100,00</t>
+          <t>90500,00</t>
         </is>
       </c>
       <c r="E105" s="3" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>151</t>
         </is>
       </c>
       <c r="F105" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G105" s="3" t="inlineStr">
@@ -5082,7 +5084,7 @@
       </c>
       <c r="H105" s="3" t="inlineStr">
         <is>
-          <t>192 x R$ 1977,00</t>
+          <t>151 x R$ 1261,00</t>
         </is>
       </c>
       <c r="I105" s="3" t="inlineStr"/>
@@ -5101,12 +5103,12 @@
       </c>
       <c r="C106" s="3" t="inlineStr">
         <is>
-          <t>390000,00</t>
+          <t>197200,00</t>
         </is>
       </c>
       <c r="D106" s="3" t="inlineStr">
         <is>
-          <t>205800,00</t>
+          <t>96560,00</t>
         </is>
       </c>
       <c r="E106" s="3" t="inlineStr">
@@ -5116,7 +5118,7 @@
       </c>
       <c r="F106" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G106" s="3" t="inlineStr">
@@ -5126,8 +5128,7 @@
       </c>
       <c r="H106" s="3" t="inlineStr">
         <is>
-          <t>9 x R$ 3595,00
-143 x R$ 2710,00</t>
+          <t>152 x R$ 1545,80</t>
         </is>
       </c>
       <c r="I106" s="3" t="inlineStr"/>
@@ -5146,22 +5147,22 @@
       </c>
       <c r="C107" s="3" t="inlineStr">
         <is>
-          <t>433000,00</t>
+          <t>197500,00</t>
         </is>
       </c>
       <c r="D107" s="3" t="inlineStr">
         <is>
-          <t>263650,00</t>
+          <t>106975,00</t>
         </is>
       </c>
       <c r="E107" s="3" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>136</t>
         </is>
       </c>
       <c r="F107" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Bradesco</t>
         </is>
       </c>
       <c r="G107" s="3" t="inlineStr">
@@ -5171,7 +5172,7 @@
       </c>
       <c r="H107" s="3" t="inlineStr">
         <is>
-          <t>144 x R$ 2633,00</t>
+          <t>136 x R$ 1354,00</t>
         </is>
       </c>
       <c r="I107" s="3" t="inlineStr"/>
@@ -5190,17 +5191,17 @@
       </c>
       <c r="C108" s="3" t="inlineStr">
         <is>
-          <t>444000,00</t>
+          <t>206000,00</t>
         </is>
       </c>
       <c r="D108" s="3" t="inlineStr">
         <is>
-          <t>237900,00</t>
+          <t>105300,00</t>
         </is>
       </c>
       <c r="E108" s="3" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>119</t>
         </is>
       </c>
       <c r="F108" s="3" t="inlineStr">
@@ -5215,7 +5216,7 @@
       </c>
       <c r="H108" s="3" t="inlineStr">
         <is>
-          <t>150 x R$ 2902,00</t>
+          <t>119 x R$ 1709,00</t>
         </is>
       </c>
       <c r="I108" s="3" t="inlineStr"/>
@@ -5234,22 +5235,22 @@
       </c>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>700000,00</t>
+          <t>230410,00</t>
         </is>
       </c>
       <c r="D109" s="3" t="inlineStr">
         <is>
-          <t>336000,00</t>
+          <t>121520,50</t>
         </is>
       </c>
       <c r="E109" s="3" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F109" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú</t>
         </is>
       </c>
       <c r="G109" s="3" t="inlineStr">
@@ -5259,7 +5260,7 @@
       </c>
       <c r="H109" s="3" t="inlineStr">
         <is>
-          <t>190 x R$ 4293,00</t>
+          <t>47 x R$ 4362,00</t>
         </is>
       </c>
       <c r="I109" s="3" t="inlineStr"/>
@@ -5278,17 +5279,17 @@
       </c>
       <c r="C110" s="3" t="inlineStr">
         <is>
-          <t>712000,00</t>
+          <t>262400,00</t>
         </is>
       </c>
       <c r="D110" s="3" t="inlineStr">
         <is>
-          <t>371900,00</t>
+          <t>149120,00</t>
         </is>
       </c>
       <c r="E110" s="3" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>150</t>
         </is>
       </c>
       <c r="F110" s="3" t="inlineStr">
@@ -5303,7 +5304,7 @@
       </c>
       <c r="H110" s="3" t="inlineStr">
         <is>
-          <t>112 x R$ 5736,00</t>
+          <t>150 x R$ 1520,00</t>
         </is>
       </c>
       <c r="I110" s="3" t="inlineStr"/>
@@ -5322,17 +5323,17 @@
       </c>
       <c r="C111" s="3" t="inlineStr">
         <is>
-          <t>877300,00</t>
+          <t>270000,00</t>
         </is>
       </c>
       <c r="D111" s="3" t="inlineStr">
         <is>
-          <t>379865,00</t>
+          <t>143700,00</t>
         </is>
       </c>
       <c r="E111" s="3" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>146</t>
         </is>
       </c>
       <c r="F111" s="3" t="inlineStr">
@@ -5347,9 +5348,8 @@
       </c>
       <c r="H111" s="3" t="inlineStr">
         <is>
-          <t>3 x R$ 7554,00
-71 x R$ 6727,00
-106 x R$ 4491,00</t>
+          <t>09 x R$ 2512,00
+137 x R$ 1894,00</t>
         </is>
       </c>
       <c r="I111" s="3" t="inlineStr"/>
@@ -5368,17 +5368,17 @@
       </c>
       <c r="C112" s="3" t="inlineStr">
         <is>
-          <t>363800,00</t>
+          <t>435000,00</t>
         </is>
       </c>
       <c r="D112" s="3" t="inlineStr">
         <is>
-          <t>181190,00</t>
+          <t>266750,00</t>
         </is>
       </c>
       <c r="E112" s="3" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>143</t>
         </is>
       </c>
       <c r="F112" s="3" t="inlineStr">
@@ -5393,8 +5393,7 @@
       </c>
       <c r="H112" s="3" t="inlineStr">
         <is>
-          <t>2 x R$ 1230,00
-178 x R$ 2259,00</t>
+          <t>143 x R$ 2633,00</t>
         </is>
       </c>
       <c r="I112" s="3" t="inlineStr"/>
@@ -5413,17 +5412,17 @@
       </c>
       <c r="C113" s="3" t="inlineStr">
         <is>
-          <t>303000,00</t>
+          <t>657000,00</t>
         </is>
       </c>
       <c r="D113" s="3" t="inlineStr">
         <is>
-          <t>135150,00</t>
+          <t>390850,00</t>
         </is>
       </c>
       <c r="E113" s="3" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>91</t>
         </is>
       </c>
       <c r="F113" s="3" t="inlineStr">
@@ -5438,8 +5437,7 @@
       </c>
       <c r="H113" s="3" t="inlineStr">
         <is>
-          <t>2 x R$ 915,00
-178 x R$ 1944,00</t>
+          <t>91 x R$ 4351,00</t>
         </is>
       </c>
       <c r="I113" s="3" t="inlineStr"/>
@@ -5458,22 +5456,22 @@
       </c>
       <c r="C114" s="3" t="inlineStr">
         <is>
-          <t>112000,00</t>
+          <t>610000,00</t>
         </is>
       </c>
       <c r="D114" s="3" t="inlineStr">
         <is>
-          <t>55600,00</t>
+          <t>282500,00</t>
         </is>
       </c>
       <c r="E114" s="3" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>190</t>
         </is>
       </c>
       <c r="F114" s="3" t="inlineStr">
         <is>
-          <t>Itaú</t>
+          <t>Porto Seguro</t>
         </is>
       </c>
       <c r="G114" s="3" t="inlineStr">
@@ -5483,7 +5481,7 @@
       </c>
       <c r="H114" s="3" t="inlineStr">
         <is>
-          <t>153 x R$ 672,00</t>
+          <t>190 x R$ 3679,00</t>
         </is>
       </c>
       <c r="I114" s="3" t="inlineStr"/>
@@ -5502,17 +5500,17 @@
       </c>
       <c r="C115" s="3" t="inlineStr">
         <is>
-          <t>290700,00</t>
+          <t>280500,00</t>
         </is>
       </c>
       <c r="D115" s="3" t="inlineStr">
         <is>
-          <t>141335,00</t>
+          <t>134025,00</t>
         </is>
       </c>
       <c r="E115" s="3" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>192</t>
         </is>
       </c>
       <c r="F115" s="3" t="inlineStr">
@@ -5527,9 +5525,9 @@
       </c>
       <c r="H115" s="3" t="inlineStr">
         <is>
-          <t>1 x R$ 1516,00
-1 x R$ 1350,00
-154 x R$ 1813,00</t>
+          <t>2 x R$ 1809,00
+100 x R$ 2138,00
+90 x R$ 641,00</t>
         </is>
       </c>
       <c r="I115" s="3" t="inlineStr"/>
@@ -5548,22 +5546,22 @@
       </c>
       <c r="C116" s="3" t="inlineStr">
         <is>
-          <t>111000,00</t>
+          <t>54500,00</t>
         </is>
       </c>
       <c r="D116" s="3" t="inlineStr">
         <is>
-          <t>50550,00</t>
+          <t>29225,00</t>
         </is>
       </c>
       <c r="E116" s="3" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>172</t>
         </is>
       </c>
       <c r="F116" s="3" t="inlineStr">
         <is>
-          <t>Porto Seguro</t>
+          <t>Itaú</t>
         </is>
       </c>
       <c r="G116" s="3" t="inlineStr">
@@ -5573,7 +5571,7 @@
       </c>
       <c r="H116" s="3" t="inlineStr">
         <is>
-          <t>181 x R$ 657,00</t>
+          <t>172 x R$ 363,41</t>
         </is>
       </c>
       <c r="I116" s="3" t="inlineStr"/>
@@ -5592,17 +5590,17 @@
       </c>
       <c r="C117" s="3" t="inlineStr">
         <is>
-          <t>520000,00</t>
+          <t>776300,00</t>
         </is>
       </c>
       <c r="D117" s="3" t="inlineStr">
         <is>
-          <t>236000,00</t>
+          <t>397815,00</t>
         </is>
       </c>
       <c r="E117" s="3" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>175</t>
         </is>
       </c>
       <c r="F117" s="3" t="inlineStr">
@@ -5617,11 +5615,279 @@
       </c>
       <c r="H117" s="3" t="inlineStr">
         <is>
-          <t>177 x R$ 3194,00</t>
+          <t>3 x R$ 4699,00
+150 x R$ 5168,00
+22 x R$ 2168,00</t>
         </is>
       </c>
       <c r="I117" s="3" t="inlineStr"/>
       <c r="J117" s="3" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="3" t="inlineStr">
+        <is>
+          <t>CC1117</t>
+        </is>
+      </c>
+      <c r="B118" s="3" t="inlineStr">
+        <is>
+          <t>Imóveis</t>
+        </is>
+      </c>
+      <c r="C118" s="3" t="inlineStr">
+        <is>
+          <t>341800,00</t>
+        </is>
+      </c>
+      <c r="D118" s="3" t="inlineStr">
+        <is>
+          <t>155090,00</t>
+        </is>
+      </c>
+      <c r="E118" s="3" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="F118" s="3" t="inlineStr">
+        <is>
+          <t>Porto Seguro</t>
+        </is>
+      </c>
+      <c r="G118" s="3" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H118" s="3" t="inlineStr">
+        <is>
+          <t>2 x R$ 2230,00
+21 x R$ 2592,00
+137 x R$ 2571,00</t>
+        </is>
+      </c>
+      <c r="I118" s="3" t="inlineStr"/>
+      <c r="J118" s="3" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="3" t="inlineStr">
+        <is>
+          <t>CC1118</t>
+        </is>
+      </c>
+      <c r="B119" s="3" t="inlineStr">
+        <is>
+          <t>Imóveis</t>
+        </is>
+      </c>
+      <c r="C119" s="3" t="inlineStr">
+        <is>
+          <t>553000,00</t>
+        </is>
+      </c>
+      <c r="D119" s="3" t="inlineStr">
+        <is>
+          <t>276650,00</t>
+        </is>
+      </c>
+      <c r="E119" s="3" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="F119" s="3" t="inlineStr">
+        <is>
+          <t>Itaú</t>
+        </is>
+      </c>
+      <c r="G119" s="3" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H119" s="3" t="inlineStr">
+        <is>
+          <t>187 x R$ 3085,00</t>
+        </is>
+      </c>
+      <c r="I119" s="3" t="inlineStr"/>
+      <c r="J119" s="3" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="3" t="inlineStr">
+        <is>
+          <t>CC1119</t>
+        </is>
+      </c>
+      <c r="B120" s="3" t="inlineStr">
+        <is>
+          <t>Imóveis</t>
+        </is>
+      </c>
+      <c r="C120" s="3" t="inlineStr">
+        <is>
+          <t>548000,00</t>
+        </is>
+      </c>
+      <c r="D120" s="3" t="inlineStr">
+        <is>
+          <t>276400,00</t>
+        </is>
+      </c>
+      <c r="E120" s="3" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="F120" s="3" t="inlineStr">
+        <is>
+          <t>Itaú</t>
+        </is>
+      </c>
+      <c r="G120" s="3" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H120" s="3" t="inlineStr">
+        <is>
+          <t>193 x R$ 3213,00</t>
+        </is>
+      </c>
+      <c r="I120" s="3" t="inlineStr"/>
+      <c r="J120" s="3" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="3" t="inlineStr">
+        <is>
+          <t>CC1120</t>
+        </is>
+      </c>
+      <c r="B121" s="3" t="inlineStr">
+        <is>
+          <t>Imóveis</t>
+        </is>
+      </c>
+      <c r="C121" s="3" t="inlineStr">
+        <is>
+          <t>763000,00</t>
+        </is>
+      </c>
+      <c r="D121" s="3" t="inlineStr">
+        <is>
+          <t>388150,00</t>
+        </is>
+      </c>
+      <c r="E121" s="3" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="F121" s="3" t="inlineStr">
+        <is>
+          <t>Itaú</t>
+        </is>
+      </c>
+      <c r="G121" s="3" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H121" s="3" t="inlineStr">
+        <is>
+          <t>205 x R$ 4176,00</t>
+        </is>
+      </c>
+      <c r="I121" s="3" t="inlineStr"/>
+      <c r="J121" s="3" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="3" t="inlineStr">
+        <is>
+          <t>CC1121</t>
+        </is>
+      </c>
+      <c r="B122" s="3" t="inlineStr">
+        <is>
+          <t>Imóveis</t>
+        </is>
+      </c>
+      <c r="C122" s="3" t="inlineStr">
+        <is>
+          <t>552000,00</t>
+        </is>
+      </c>
+      <c r="D122" s="3" t="inlineStr">
+        <is>
+          <t>296600,00</t>
+        </is>
+      </c>
+      <c r="E122" s="3" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="F122" s="3" t="inlineStr">
+        <is>
+          <t>Itaú</t>
+        </is>
+      </c>
+      <c r="G122" s="3" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H122" s="3" t="inlineStr">
+        <is>
+          <t>186 x R$ 2688,00</t>
+        </is>
+      </c>
+      <c r="I122" s="3" t="inlineStr"/>
+      <c r="J122" s="3" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="3" t="inlineStr">
+        <is>
+          <t>CC1122</t>
+        </is>
+      </c>
+      <c r="B123" s="3" t="inlineStr">
+        <is>
+          <t>Imóveis</t>
+        </is>
+      </c>
+      <c r="C123" s="3" t="inlineStr">
+        <is>
+          <t>336860,00</t>
+        </is>
+      </c>
+      <c r="D123" s="3" t="inlineStr">
+        <is>
+          <t>173643,00</t>
+        </is>
+      </c>
+      <c r="E123" s="3" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="F123" s="3" t="inlineStr">
+        <is>
+          <t>Porto Seguro</t>
+        </is>
+      </c>
+      <c r="G123" s="3" t="inlineStr">
+        <is>
+          <t>Disponível</t>
+        </is>
+      </c>
+      <c r="H123" s="3" t="inlineStr">
+        <is>
+          <t>191 x R$ 1766,00</t>
+        </is>
+      </c>
+      <c r="I123" s="3" t="inlineStr"/>
+      <c r="J123" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
